--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
   <si>
     <t>时间结界</t>
   </si>
@@ -398,10 +398,18 @@
     <t>warlock_shadow_word</t>
   </si>
   <si>
-    <t>visage_summon_familiars</t>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
+    <t>visage_gravekeepers_cloak_lua</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -759,17 +767,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J54"/>
+  <dimension ref="A1:J55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H52" sqref="H52"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -812,7 +820,7 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2">
-        <f>C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" ref="I2:I33" si="0">C2+D2+E2+F2+G2+H2</f>
         <v>0</v>
       </c>
     </row>
@@ -832,7 +840,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3">
-        <f>C3+D3+E3+F3+G3+H3</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -852,7 +860,7 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4">
-        <f>C4+D4+E4+F4+G4+H4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -872,7 +880,7 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5">
-        <f>C5+D5+E5+F5+G5+H5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -892,7 +900,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
-        <f>C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -912,7 +920,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7">
-        <f>C7+D7+E7+F7+G7+H7</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -932,7 +940,7 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8">
-        <f>C8+D8+E8+F8+G8+H8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -952,7 +960,7 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9">
-        <f>C9+D9+E9+F9+G9+H9</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -972,7 +980,7 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10">
-        <f>C10+D10+E10+F10+G10+H10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -992,7 +1000,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11">
-        <f>C11+D11+E11+F11+G11+H11</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1012,7 +1020,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12">
-        <f>C12+D12+E12+F12+G12+H12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1032,7 +1040,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13">
-        <f>C13+D13+E13+F13+G13+H13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1054,7 +1062,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14">
-        <f>C14+D14+E14+F14+G14+H14</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1076,7 +1084,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15">
-        <f>C15+D15+E15+F15+G15+H15</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1096,7 +1104,7 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16">
-        <f>C16+D16+E16+F16+G16+H16</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1116,7 +1124,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17">
-        <f>C17+D17+E17+F17+G17+H17</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1136,7 +1144,7 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18">
-        <f>C18+D18+E18+F18+G18+H18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1156,7 +1164,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19">
-        <f>C19+D19+E19+F19+G19+H19</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1176,7 +1184,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20">
-        <f>C20+D20+E20+F20+G20+H20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1198,7 +1206,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21">
-        <f>C21+D21+E21+F21+G21+H21</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
@@ -1220,7 +1228,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22">
-        <f>C22+D22+E22+F22+G22+H22</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1240,7 +1248,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23">
-        <f>C23+D23+E23+F23+G23+H23</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1260,7 +1268,7 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24">
-        <f>C24+D24+E24+F24+G24+H24</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1280,7 +1288,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25">
-        <f>C25+D25+E25+F25+G25+H25</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1300,7 +1308,7 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26">
-        <f>C26+D26+E26+F26+G26+H26</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1320,7 +1328,7 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27">
-        <f>C27+D27+E27+F27+G27+H27</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1340,7 +1348,7 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28">
-        <f>C28+D28+E28+F28+G28+H28</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
@@ -1362,7 +1370,7 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29">
-        <f>C29+D29+E29+F29+G29+H29</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
@@ -1384,7 +1392,7 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30">
-        <f>C30+D30+E30+F30+G30+H30</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1406,7 +1414,7 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31">
-        <f>C31+D31+E31+F31+G31+H31</f>
+        <f t="shared" si="0"/>
         <v>12</v>
       </c>
     </row>
@@ -1426,7 +1434,7 @@
       </c>
       <c r="H32" s="2"/>
       <c r="I32">
-        <f>C32+D32+E32+F32+G32+H32</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -1446,7 +1454,7 @@
       </c>
       <c r="H33" s="2"/>
       <c r="I33">
-        <f>C33+D33+E33+F33+G33+H33</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
@@ -1466,7 +1474,7 @@
       </c>
       <c r="H34" s="2"/>
       <c r="I34">
-        <f>C34+D34+E34+F34+G34+H34</f>
+        <f t="shared" ref="I34:I55" si="1">C34+D34+E34+F34+G34+H34</f>
         <v>16</v>
       </c>
     </row>
@@ -1486,7 +1494,7 @@
       </c>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f>C35+D35+E35+F35+G35+H35</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -1508,7 +1516,7 @@
       </c>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f>C36+D36+E36+F36+G36+H36</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
@@ -1530,7 +1538,7 @@
       </c>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f>C37+D37+E37+F37+G37+H37</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -1552,7 +1560,7 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38">
-        <f>C38+D38+E38+F38+G38+H38</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
@@ -1574,7 +1582,7 @@
       </c>
       <c r="H39" s="2"/>
       <c r="I39">
-        <f>C39+D39+E39+F39+G39+H39</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1596,7 +1604,7 @@
       </c>
       <c r="H40" s="2"/>
       <c r="I40">
-        <f>C40+D40+E40+F40+G40+H40</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
@@ -1618,7 +1626,7 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41">
-        <f>C41+D41+E41+F41+G41+H41</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -1640,7 +1648,7 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42">
-        <f>C42+D42+E42+F42+G42+H42</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
@@ -1660,7 +1668,7 @@
         <v>32</v>
       </c>
       <c r="I43">
-        <f>C43+D43+E43+F43+G43+H43</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
@@ -1680,16 +1688,16 @@
         <v>32</v>
       </c>
       <c r="I44">
-        <f>C44+D44+E44+F44+G44+H44</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>34</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>58</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1700,16 +1708,16 @@
         <v>32</v>
       </c>
       <c r="I45">
-        <f>C45+D45+E45+F45+G45+H45</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B46" t="s">
-        <v>58</v>
+        <v>83</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1720,19 +1728,21 @@
         <v>32</v>
       </c>
       <c r="I46">
-        <f>C46+D46+E46+F46+G46+H46</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>30</v>
+        <v>114</v>
       </c>
       <c r="B47" t="s">
-        <v>83</v>
+        <v>113</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
@@ -1740,8 +1750,8 @@
         <v>32</v>
       </c>
       <c r="I47">
-        <f>C47+D47+E47+F47+G47+H47</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1762,16 +1772,16 @@
         <v>32</v>
       </c>
       <c r="I48">
-        <f>C48+D48+E48+F48+G48+H48</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>29</v>
+        <v>116</v>
       </c>
       <c r="B49" t="s">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -1784,38 +1794,38 @@
         <v>32</v>
       </c>
       <c r="I49">
-        <f>C49+D49+E49+F49+G49+H49</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
-      </c>
-      <c r="C50" s="2"/>
+        <v>82</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="1">
-        <v>8</v>
-      </c>
+      <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="1">
+      <c r="H50" s="2">
         <v>32</v>
       </c>
       <c r="I50">
-        <f>C50+D50+E50+F50+G50+H50</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1828,76 +1838,98 @@
         <v>32</v>
       </c>
       <c r="I51">
-        <f>C51+D51+E51+F51+G51+H51</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B52" t="s">
-        <v>71</v>
+        <v>45</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
       <c r="E52" s="2"/>
-      <c r="F52" s="2">
+      <c r="F52" s="1">
         <v>8</v>
       </c>
       <c r="G52" s="2"/>
-      <c r="H52" s="2">
+      <c r="H52" s="1">
         <v>32</v>
       </c>
       <c r="I52">
-        <f>C52+D52+E52+F52+G52+H52</f>
+        <f t="shared" si="1"/>
         <v>40</v>
-      </c>
-      <c r="J52" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>43</v>
+        <v>71</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
-      <c r="F53" s="2"/>
-      <c r="G53" s="1">
-        <v>16</v>
-      </c>
-      <c r="H53" s="1">
+      <c r="F53" s="2">
+        <v>8</v>
+      </c>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2">
         <v>32</v>
       </c>
       <c r="I53">
-        <f>C53+D53+E53+F53+G53+H53</f>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="B54" t="s">
-        <v>84</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="2">
+      <c r="G54" s="1">
         <v>16</v>
       </c>
-      <c r="H54" s="2">
+      <c r="H54" s="1">
         <v>32</v>
       </c>
       <c r="I54">
-        <f>C54+D54+E54+F54+G54+H54</f>
+        <f t="shared" si="1"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" t="s">
+        <v>31</v>
+      </c>
+      <c r="B55" t="s">
+        <v>84</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2"/>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2"/>
+      <c r="G55" s="2">
+        <v>16</v>
+      </c>
+      <c r="H55" s="2">
+        <v>32</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="1"/>
         <v>48</v>
       </c>
     </row>
@@ -1917,7 +1949,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1930,7 +1962,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
   <si>
     <t>时间结界</t>
   </si>
@@ -54,9 +54,6 @@
     <t>献祭</t>
   </si>
   <si>
-    <t>锁</t>
-  </si>
-  <si>
     <t>净化</t>
   </si>
   <si>
@@ -66,350 +63,413 @@
     <t>法力燃烧</t>
   </si>
   <si>
+    <t>冰霜盾</t>
+  </si>
+  <si>
+    <t>冰盾</t>
+  </si>
+  <si>
+    <t>撒网</t>
+  </si>
+  <si>
+    <t>践踏</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+  </si>
+  <si>
+    <t>闪电链</t>
+  </si>
+  <si>
+    <t>幽鬼之刃</t>
+  </si>
+  <si>
+    <t>奔腾</t>
+  </si>
+  <si>
+    <t>降临</t>
+  </si>
+  <si>
+    <t>怒意狂击</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>召唤冥界士兵</t>
+  </si>
+  <si>
+    <t>幽冥爆裂</t>
+  </si>
+  <si>
+    <t>召唤骷髅法师</t>
+  </si>
+  <si>
+    <t>本命一击</t>
+  </si>
+  <si>
+    <t>死亡契约</t>
+  </si>
+  <si>
+    <t>黑暗仪式</t>
+  </si>
+  <si>
+    <t>墓碑</t>
+  </si>
+  <si>
+    <t>暗影冲刺</t>
+  </si>
+  <si>
+    <t>雷云</t>
+  </si>
+  <si>
+    <t>连环霜冻</t>
+  </si>
+  <si>
+    <t>faceless_void_chronosphere</t>
+  </si>
+  <si>
+    <t>pudge_meat_hook</t>
+  </si>
+  <si>
+    <t>life_stealer_rage</t>
+  </si>
+  <si>
+    <t>razor_eye_of_the_storm</t>
+  </si>
+  <si>
+    <t>venomancer_poison_nova</t>
+  </si>
+  <si>
+    <t>troll_warlord_battle_trance</t>
+  </si>
+  <si>
+    <t>morphling_waveform</t>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+  </si>
+  <si>
+    <t>granite_golem_hp_aura</t>
+  </si>
+  <si>
+    <t>ogre_magi_frost_armor</t>
+  </si>
+  <si>
+    <t>dark_seer_surge</t>
+  </si>
+  <si>
+    <t>wisp_relocate</t>
+  </si>
+  <si>
+    <t>decay_summon_wraith_warrior</t>
+  </si>
+  <si>
+    <t>clinkz_death_pact</t>
+  </si>
+  <si>
+    <t>decay_dark_ritual_datadriven</t>
+  </si>
+  <si>
+    <t>decay_tombstone</t>
+  </si>
+  <si>
+    <t>hunt_thirst_lua</t>
+  </si>
+  <si>
+    <t>元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎杀8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mud_golem_hurl_boulder_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_golem_permanent_immolation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_trickster_purge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_frost_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant_wolf_critical_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_troll_warlord_ensnare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forged_spirit_melting_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+  </si>
+  <si>
+    <t>huskar_life_break</t>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小技能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_shadow_word</t>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+  </si>
+  <si>
     <t>暴击</t>
-  </si>
-  <si>
-    <t>冰霜盾</t>
-  </si>
-  <si>
-    <t>冰盾</t>
-  </si>
-  <si>
-    <t>撒网</t>
-  </si>
-  <si>
-    <t>践踏</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
-  </si>
-  <si>
-    <t>闪电链</t>
-  </si>
-  <si>
-    <t>幽鬼之刃</t>
-  </si>
-  <si>
-    <t>奔腾</t>
-  </si>
-  <si>
-    <t>降临</t>
-  </si>
-  <si>
-    <t>怒意狂击</t>
-  </si>
-  <si>
-    <t>反伤</t>
-  </si>
-  <si>
-    <t>召唤冥界士兵</t>
-  </si>
-  <si>
-    <t>幽冥爆裂</t>
-  </si>
-  <si>
-    <t>召唤骷髅法师</t>
-  </si>
-  <si>
-    <t>本命一击</t>
-  </si>
-  <si>
-    <t>死亡契约</t>
-  </si>
-  <si>
-    <t>黑暗仪式</t>
-  </si>
-  <si>
-    <t>墓碑</t>
-  </si>
-  <si>
-    <t>暗影冲刺</t>
-  </si>
-  <si>
-    <t>嗜血渴望</t>
-  </si>
-  <si>
-    <t>雷云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>火球</t>
-  </si>
-  <si>
-    <t>连环霜冻</t>
-  </si>
-  <si>
-    <t>faceless_void_chronosphere</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_creature_forge_spirit</t>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_bulldoze</t>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>spectre_dispersion</t>
-  </si>
-  <si>
-    <t>pudge_meat_hook</t>
-  </si>
-  <si>
-    <t>life_stealer_rage</t>
-  </si>
-  <si>
-    <t>razor_eye_of_the_storm</t>
-  </si>
-  <si>
-    <t>venomancer_poison_nova</t>
-  </si>
-  <si>
-    <t>troll_warlord_battle_trance</t>
-  </si>
-  <si>
-    <t>morphling_waveform</t>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-  </si>
-  <si>
-    <t>granite_golem_hp_aura</t>
-  </si>
-  <si>
-    <t>ogre_magi_frost_armor</t>
-  </si>
-  <si>
-    <t>dark_seer_surge</t>
-  </si>
-  <si>
-    <t>wisp_relocate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ursa_fury_swipes</t>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-  </si>
-  <si>
-    <t>decay_summon_wraith_warrior</t>
-  </si>
-  <si>
-    <t>clinkz_death_pact</t>
-  </si>
-  <si>
-    <t>decay_dark_ritual_datadriven</t>
-  </si>
-  <si>
-    <t>decay_tombstone</t>
-  </si>
-  <si>
-    <t>hunt_thirst_lua</t>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-  </si>
-  <si>
-    <t>元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎杀8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mud_golem_hurl_boulder_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_golem_permanent_immolation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_trickster_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_frost_shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giant_wolf_critical_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_troll_warlord_ensnare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forged_spirit_melting_strike_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shredder_reactive_armor</t>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
-  </si>
-  <si>
-    <t>huskar_life_break</t>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -767,169 +827,186 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J55"/>
+  <dimension ref="A1:J62"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A51" sqref="A51"/>
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D1" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="G1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="H1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="I1" t="s">
-        <v>108</v>
+        <v>98</v>
       </c>
       <c r="J1" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
       <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
+      <c r="G2" s="1">
+        <v>16</v>
+      </c>
+      <c r="H2" s="1">
+        <v>32</v>
+      </c>
       <c r="I2">
-        <f t="shared" ref="I2:I33" si="0">C2+D2+E2+F2+G2+H2</f>
-        <v>0</v>
+        <f>C2+D2+E2+F2+G2+H2</f>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
+      <c r="G3" s="2">
+        <v>16</v>
+      </c>
+      <c r="H3" s="2">
+        <v>32</v>
+      </c>
       <c r="I3">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C3+D3+E3+F3+G3+H3</f>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-      <c r="C4" s="1">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="1">
+        <v>8</v>
+      </c>
       <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
+      <c r="H4" s="1">
+        <v>32</v>
+      </c>
       <c r="I4">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C4+D4+E4+F4+G4+H4</f>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" s="2">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="1">
+        <v>8</v>
+      </c>
       <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
+      <c r="H5" s="1">
+        <v>32</v>
+      </c>
       <c r="I5">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C5+D5+E5+F5+G5+H5</f>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>87</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
+      <c r="F6" s="2">
+        <v>8</v>
+      </c>
       <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
+      <c r="H6" s="2">
+        <v>32</v>
+      </c>
       <c r="I6">
-        <f t="shared" si="0"/>
-        <v>1</v>
+        <f>C6+D6+E6+F6+G6+H6</f>
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>107</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>108</v>
       </c>
       <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
-      <c r="E7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2">
+        <v>4</v>
+      </c>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
+      <c r="H7" s="2">
+        <v>32</v>
+      </c>
       <c r="I7">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C7+D7+E7+F7+G7+H7</f>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>10</v>
+        <v>104</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>103</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -938,18 +1015,20 @@
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
+      <c r="H8" s="2">
+        <v>32</v>
+      </c>
       <c r="I8">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C8+D8+E8+F8+G8+H8</f>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>101</v>
       </c>
       <c r="B9" t="s">
-        <v>78</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -958,202 +1037,210 @@
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
+      <c r="H9" s="2">
+        <v>32</v>
+      </c>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C9+D9+E9+F9+G9+H9</f>
+        <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
+      <c r="H10" s="2">
+        <v>32</v>
+      </c>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C10+D10+E10+F10+G10+H10</f>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
+      <c r="H11" s="2">
+        <v>32</v>
+      </c>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C11+D11+E11+F11+G11+H11</f>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="C12" s="2"/>
-      <c r="D12" s="2">
-        <v>2</v>
-      </c>
+      <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
+      <c r="H12" s="2">
+        <v>32</v>
+      </c>
       <c r="I12">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C12+D12+E12+F12+G12+H12</f>
+        <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>95</v>
+        <v>30</v>
       </c>
       <c r="B13" t="s">
-        <v>94</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2"/>
-      <c r="D13" s="2">
-        <v>2</v>
-      </c>
+      <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
+      <c r="H13" s="2">
+        <v>32</v>
+      </c>
       <c r="I13">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C13+D13+E13+F13+G13+H13</f>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
-      <c r="D14" s="2">
-        <v>2</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
-      <c r="H14" s="2"/>
+      <c r="H14" s="2">
+        <v>32</v>
+      </c>
       <c r="I14">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>C14+D14+E14+F14+G14+H14</f>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="B15" t="s">
-        <v>50</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
-      <c r="D15" s="2">
-        <v>2</v>
-      </c>
+        <v>73</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
-      <c r="H15" s="2"/>
+      <c r="H15" s="2">
+        <v>32</v>
+      </c>
       <c r="I15">
-        <f t="shared" si="0"/>
-        <v>3</v>
+        <f>C15+D15+E15+F15+G15+H15</f>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
-      <c r="F16" s="2"/>
-      <c r="G16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="1">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1">
+        <v>16</v>
+      </c>
       <c r="H16" s="2"/>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>C16+D16+E16+F16+G16+H16</f>
+        <v>24</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>33</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2">
+        <v>8</v>
+      </c>
+      <c r="G17" s="2">
+        <v>16</v>
+      </c>
       <c r="H17" s="2"/>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>C17+D17+E17+F17+G17+H17</f>
+        <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>79</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="2">
+      <c r="E18" s="1">
         <v>4</v>
       </c>
       <c r="F18" s="2"/>
-      <c r="G18" s="2"/>
+      <c r="G18" s="1">
+        <v>16</v>
+      </c>
       <c r="H18" s="2"/>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>C18+D18+E18+F18+G18+H18</f>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>51</v>
+        <v>60</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1161,781 +1248,908 @@
         <v>4</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
+      <c r="G19" s="2">
+        <v>16</v>
+      </c>
       <c r="H19" s="2"/>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>C19+D19+E19+F19+G19+H19</f>
+        <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>52</v>
+        <v>67</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
-      <c r="G20" s="2"/>
+      <c r="G20" s="2">
+        <v>16</v>
+      </c>
       <c r="H20" s="2"/>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>C20+D20+E20+F20+G20+H20</f>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>95</v>
       </c>
       <c r="B21" t="s">
-        <v>60</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
+      <c r="G21" s="2">
+        <v>16</v>
+      </c>
       <c r="H21" s="2"/>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>5</v>
+        <f>C21+D21+E21+F21+G21+H21</f>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
+        <v>111</v>
+      </c>
+      <c r="B22" t="s">
+        <v>112</v>
+      </c>
+      <c r="C22" s="2">
         <v>1</v>
       </c>
-      <c r="B22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
-        <v>4</v>
-      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
-      <c r="G22" s="2"/>
+      <c r="G22" s="2">
+        <v>16</v>
+      </c>
       <c r="H22" s="2"/>
       <c r="I22">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <f>C22+D22+E22+F22+G22+H22</f>
+        <v>17</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
       <c r="B23" t="s">
-        <v>75</v>
-      </c>
-      <c r="C23" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="2">
-        <v>8</v>
-      </c>
-      <c r="G23" s="2"/>
+      <c r="F23" s="2"/>
+      <c r="G23" s="2">
+        <v>16</v>
+      </c>
       <c r="H23" s="2"/>
       <c r="I23">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C23+D23+E23+F23+G23+H23</f>
+        <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="B24" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <v>8</v>
-      </c>
-      <c r="G24" s="2"/>
+      <c r="F24" s="2"/>
+      <c r="G24" s="2">
+        <v>16</v>
+      </c>
       <c r="H24" s="2"/>
       <c r="I24">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C24+D24+E24+F24+G24+H24</f>
+        <v>16</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>97</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>96</v>
+        <v>129</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="2">
-        <v>8</v>
-      </c>
-      <c r="G25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2">
+        <v>16</v>
+      </c>
       <c r="H25" s="2"/>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C25+D25+E25+F25+G25+H25</f>
+        <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B26" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="2">
-        <v>8</v>
-      </c>
-      <c r="G26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2">
+        <v>16</v>
+      </c>
       <c r="H26" s="2"/>
       <c r="I26">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C26+D26+E26+F26+G26+H26</f>
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
       <c r="B27" t="s">
-        <v>100</v>
+        <v>65</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>8</v>
-      </c>
-      <c r="G27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2">
+        <v>16</v>
+      </c>
       <c r="H27" s="2"/>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C27+D27+E27+F27+G27+H27</f>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>102</v>
+        <v>130</v>
       </c>
       <c r="B28" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
+      <c r="E28" s="2">
+        <v>4</v>
+      </c>
       <c r="F28" s="2">
         <v>8</v>
       </c>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C28+D28+E28+F28+G28+H28</f>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
+        <v>79</v>
+      </c>
+      <c r="B29" t="s">
+        <v>78</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
         <v>4</v>
       </c>
-      <c r="B29" t="s">
-        <v>44</v>
-      </c>
-      <c r="C29" s="1">
-        <v>1</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="1">
+      <c r="F29" s="2">
         <v>8</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C29+D29+E29+F29+G29+H29</f>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>119</v>
       </c>
       <c r="B30" t="s">
-        <v>69</v>
-      </c>
-      <c r="C30" s="2"/>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" s="2">
+        <v>118</v>
+      </c>
+      <c r="C30" s="1"/>
+      <c r="D30" s="2">
+        <v>2</v>
+      </c>
+      <c r="E30" s="2"/>
+      <c r="F30" s="1">
         <v>8</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>C30+D30+E30+F30+G30+H30</f>
+        <v>10</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>89</v>
+        <v>117</v>
       </c>
       <c r="B31" t="s">
-        <v>88</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2">
-        <v>4</v>
-      </c>
-      <c r="F31" s="2">
+        <v>116</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2"/>
+      <c r="F31" s="1">
         <v>8</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>12</v>
+        <f>C31+D31+E31+F31+G31+H31</f>
+        <v>10</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C32" s="2"/>
+        <v>115</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2">
-        <v>16</v>
-      </c>
+      <c r="F32" s="2">
+        <v>8</v>
+      </c>
+      <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>C32+D32+E32+F32+G32+H32</f>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B33" t="s">
-        <v>53</v>
-      </c>
-      <c r="C33" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2">
-        <v>16</v>
-      </c>
+      <c r="F33" s="1">
+        <v>8</v>
+      </c>
+      <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>16</v>
+        <f>C33+D33+E33+F33+G33+H33</f>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>107</v>
+        <v>17</v>
       </c>
       <c r="B34" t="s">
-        <v>106</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="2"/>
-      <c r="G34" s="2">
-        <v>16</v>
-      </c>
+      <c r="F34" s="2">
+        <v>8</v>
+      </c>
+      <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <f t="shared" ref="I34:I55" si="1">C34+D34+E34+F34+G34+H34</f>
-        <v>16</v>
+        <f>C34+D34+E34+F34+G34+H34</f>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>16</v>
+        <v>120</v>
       </c>
       <c r="B35" t="s">
-        <v>74</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2"/>
-      <c r="G35" s="2">
-        <v>16</v>
-      </c>
+      <c r="F35" s="2">
+        <v>8</v>
+      </c>
+      <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>C35+D35+E35+F35+G35+H35</f>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>38</v>
+        <v>87</v>
       </c>
       <c r="B36" t="s">
         <v>86</v>
       </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
-        <v>16</v>
-      </c>
+      <c r="F36" s="2">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>C36+D36+E36+F36+G36+H36</f>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>20</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="C37" s="2"/>
-      <c r="D37" s="2">
-        <v>2</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>16</v>
-      </c>
+      <c r="F37" s="2">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>C37+D37+E37+F37+G37+H37</f>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="B38" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C38" s="2"/>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>16</v>
-      </c>
+      <c r="F38" s="2">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>C38+D38+E38+F38+G38+H38</f>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="B39" t="s">
-        <v>40</v>
-      </c>
-      <c r="C39" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C39" s="2"/>
       <c r="D39" s="2"/>
-      <c r="E39" s="1">
-        <v>4</v>
-      </c>
-      <c r="F39" s="2"/>
-      <c r="G39" s="1">
-        <v>16</v>
-      </c>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>C39+D39+E39+F39+G39+H39</f>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>11</v>
+        <v>123</v>
       </c>
       <c r="B40" t="s">
-        <v>68</v>
+        <v>122</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
+      <c r="D40" s="1">
+        <v>2</v>
+      </c>
+      <c r="E40" s="1">
         <v>4</v>
       </c>
       <c r="F40" s="2"/>
-      <c r="G40" s="2">
-        <v>16</v>
-      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>C40+D40+E40+F40+G40+H40</f>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B41" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="1">
-        <v>8</v>
-      </c>
-      <c r="G41" s="1">
-        <v>16</v>
-      </c>
+      <c r="D41" s="1">
+        <v>2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>C41+D41+E41+F41+G41+H41</f>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>35</v>
+        <v>125</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2">
-        <v>8</v>
-      </c>
-      <c r="G42" s="2">
-        <v>16</v>
-      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>C42+D42+E42+F42+G42+H42</f>
+        <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="B43" t="s">
-        <v>55</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>121</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
-      <c r="H43" s="2">
-        <v>32</v>
-      </c>
+      <c r="H43" s="2"/>
       <c r="I43">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C43+D43+E43+F43+G43+H43</f>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="B44" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
       <c r="F44" s="2"/>
       <c r="G44" s="2"/>
-      <c r="H44" s="2">
-        <v>32</v>
-      </c>
+      <c r="H44" s="2"/>
       <c r="I44">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C44+D44+E44+F44+G44+H44</f>
+        <v>4</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
-      <c r="E45" s="2"/>
+      <c r="E45" s="2">
+        <v>4</v>
+      </c>
       <c r="F45" s="2"/>
       <c r="G45" s="2"/>
-      <c r="H45" s="2">
-        <v>32</v>
-      </c>
+      <c r="H45" s="2"/>
       <c r="I45">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C45+D45+E45+F45+G45+H45</f>
+        <v>4</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B46" t="s">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
-      <c r="E46" s="2"/>
+      <c r="E46" s="2">
+        <v>4</v>
+      </c>
       <c r="F46" s="2"/>
       <c r="G46" s="2"/>
-      <c r="H46" s="2">
-        <v>32</v>
-      </c>
+      <c r="H46" s="2"/>
       <c r="I46">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C46+D46+E46+F46+G46+H46</f>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>114</v>
+        <v>22</v>
       </c>
       <c r="B47" t="s">
-        <v>113</v>
+        <v>46</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2"/>
-      <c r="H47" s="2">
-        <v>32</v>
-      </c>
+      <c r="H47" s="2"/>
       <c r="I47">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f>C47+D47+E47+F47+G47+H47</f>
+        <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>111</v>
+        <v>23</v>
       </c>
       <c r="B48" t="s">
-        <v>112</v>
+        <v>47</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="2">
-        <v>2</v>
-      </c>
-      <c r="E48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
       <c r="F48" s="2"/>
       <c r="G48" s="2"/>
-      <c r="H48" s="2">
-        <v>32</v>
-      </c>
+      <c r="H48" s="2"/>
       <c r="I48">
-        <f t="shared" si="1"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <f>C48+D48+E48+F48+G48+H48</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>116</v>
+        <v>15</v>
       </c>
       <c r="B49" t="s">
-        <v>115</v>
+        <v>64</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
       </c>
-      <c r="D49" s="2"/>
+      <c r="D49" s="2">
+        <v>2</v>
+      </c>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
-      <c r="H49" s="2">
-        <v>32</v>
-      </c>
+      <c r="H49" s="2"/>
       <c r="I49">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="50" spans="1:10">
+        <f>C49+D49+E49+F49+G49+H49</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="B50" t="s">
-        <v>82</v>
+        <v>45</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
       </c>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
-      <c r="H50" s="2">
-        <v>32</v>
-      </c>
+      <c r="H50" s="2"/>
       <c r="I50">
-        <f t="shared" si="1"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <f>C50+D50+E50+F50+G50+H50</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="1">
-        <v>8</v>
-      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="2"/>
-      <c r="H51" s="1">
-        <v>32</v>
-      </c>
+      <c r="H51" s="2"/>
       <c r="I51">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="52" spans="1:10">
+        <f>C51+D51+E51+F51+G51+H51</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
       <c r="E52" s="2"/>
-      <c r="F52" s="1">
-        <v>8</v>
-      </c>
+      <c r="F52" s="2"/>
       <c r="G52" s="2"/>
-      <c r="H52" s="1">
-        <v>32</v>
-      </c>
+      <c r="H52" s="2"/>
       <c r="I52">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="53" spans="1:10">
+        <f>C52+D52+E52+F52+G52+H52</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="B53" t="s">
-        <v>71</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
       <c r="E53" s="2"/>
-      <c r="F53" s="2">
-        <v>8</v>
-      </c>
+      <c r="F53" s="2"/>
       <c r="G53" s="2"/>
-      <c r="H53" s="2">
-        <v>32</v>
-      </c>
+      <c r="H53" s="2"/>
       <c r="I53">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J53" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:10">
+        <f>C53+D53+E53+F53+G53+H53</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>3</v>
+        <v>81</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
+        <v>80</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
-      <c r="G54" s="1">
-        <v>16</v>
-      </c>
-      <c r="H54" s="1">
-        <v>32</v>
-      </c>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
       <c r="I54">
-        <f t="shared" si="1"/>
-        <v>48</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <f>C54+D54+E54+F54+G54+H54</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="B55" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2"/>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="2">
-        <v>16</v>
-      </c>
-      <c r="H55" s="2">
-        <v>32</v>
-      </c>
+      <c r="G55" s="2"/>
+      <c r="H55" s="2"/>
       <c r="I55">
-        <f t="shared" si="1"/>
-        <v>48</v>
+        <f>C55+D55+E55+F55+G55+H55</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
+      <c r="A56" t="s">
+        <v>85</v>
+      </c>
+      <c r="B56" t="s">
+        <v>84</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56">
+        <f>C56+D56+E56+F56+G56+H56</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
+      <c r="A57" t="s">
+        <v>7</v>
+      </c>
+      <c r="B57" t="s">
+        <v>42</v>
+      </c>
+      <c r="C57" s="1">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2"/>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2"/>
+      <c r="H57" s="2"/>
+      <c r="I57">
+        <f>C57+D57+E57+F57+G57+H57</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
+      <c r="A58" t="s">
+        <v>8</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58" s="1">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2"/>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2"/>
+      <c r="G58" s="2"/>
+      <c r="H58" s="2"/>
+      <c r="I58">
+        <f>C58+D58+E58+F58+G58+H58</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
+      <c r="A59" t="s">
+        <v>19</v>
+      </c>
+      <c r="B59" t="s">
+        <v>68</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+      <c r="I59">
+        <f>C59+D59+E59+F59+G59+H59</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
+      <c r="A60" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" t="s">
+        <v>77</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60">
+        <f>C60+D60+E60+F60+G60+H60</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
+      <c r="A61" t="s">
+        <v>20</v>
+      </c>
+      <c r="B61" t="s">
+        <v>127</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61">
+        <f>C61+D61+E61+F61+G61+H61</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
+      <c r="A62" t="s">
+        <v>31</v>
+      </c>
+      <c r="B62" t="s">
+        <v>50</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62">
+        <f>C62+D62+E62+F62+G62+H62</f>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:J52">
-    <sortCondition ref="I1"/>
+  <sortState ref="A1:J62">
+    <sortCondition descending="1" ref="I2"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1949,7 +2163,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1962,7 +2176,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
   <si>
     <t>时间结界</t>
   </si>
@@ -42,435 +42,453 @@
     <t>波浪形态</t>
   </si>
   <si>
+    <t>坚韧光环</t>
+  </si>
+  <si>
+    <t>投石</t>
+  </si>
+  <si>
+    <t>献祭</t>
+  </si>
+  <si>
+    <t>浸毒武器</t>
+  </si>
+  <si>
+    <t>法力燃烧</t>
+  </si>
+  <si>
+    <t>冰霜盾</t>
+  </si>
+  <si>
+    <t>冰盾</t>
+  </si>
+  <si>
+    <t>撒网</t>
+  </si>
+  <si>
+    <t>践踏</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+  </si>
+  <si>
+    <t>幽鬼之刃</t>
+  </si>
+  <si>
+    <t>奔腾</t>
+  </si>
+  <si>
+    <t>降临</t>
+  </si>
+  <si>
+    <t>怒意狂击</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>召唤冥界士兵</t>
+  </si>
+  <si>
+    <t>幽冥爆裂</t>
+  </si>
+  <si>
+    <t>召唤骷髅法师</t>
+  </si>
+  <si>
+    <t>本命一击</t>
+  </si>
+  <si>
+    <t>死亡契约</t>
+  </si>
+  <si>
+    <t>黑暗仪式</t>
+  </si>
+  <si>
+    <t>墓碑</t>
+  </si>
+  <si>
+    <t>暗影冲刺</t>
+  </si>
+  <si>
+    <t>雷云</t>
+  </si>
+  <si>
+    <t>连环霜冻</t>
+  </si>
+  <si>
+    <t>faceless_void_chronosphere</t>
+  </si>
+  <si>
+    <t>pudge_meat_hook</t>
+  </si>
+  <si>
+    <t>life_stealer_rage</t>
+  </si>
+  <si>
+    <t>razor_eye_of_the_storm</t>
+  </si>
+  <si>
+    <t>venomancer_poison_nova</t>
+  </si>
+  <si>
+    <t>troll_warlord_battle_trance</t>
+  </si>
+  <si>
+    <t>morphling_waveform</t>
+  </si>
+  <si>
+    <t>granite_golem_hp_aura</t>
+  </si>
+  <si>
+    <t>ogre_magi_frost_armor</t>
+  </si>
+  <si>
+    <t>dark_seer_surge</t>
+  </si>
+  <si>
+    <t>wisp_relocate</t>
+  </si>
+  <si>
+    <t>decay_summon_wraith_warrior</t>
+  </si>
+  <si>
+    <t>clinkz_death_pact</t>
+  </si>
+  <si>
+    <t>decay_dark_ritual_datadriven</t>
+  </si>
+  <si>
+    <t>decay_tombstone</t>
+  </si>
+  <si>
+    <t>hunt_thirst_lua</t>
+  </si>
+  <si>
+    <t>元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎杀8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mud_golem_hurl_boulder_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_golem_permanent_immolation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_frost_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant_wolf_critical_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_troll_warlord_ensnare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forged_spirit_melting_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+  </si>
+  <si>
+    <t>huskar_life_break</t>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小技能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_shadow_word</t>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_creature_forge_spirit</t>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_bulldoze</t>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+  </si>
+  <si>
     <t>霜星</t>
-  </si>
-  <si>
-    <t>坚韧光环</t>
-  </si>
-  <si>
-    <t>投石</t>
-  </si>
-  <si>
-    <t>献祭</t>
-  </si>
-  <si>
-    <t>净化</t>
-  </si>
-  <si>
-    <t>浸毒武器</t>
-  </si>
-  <si>
-    <t>法力燃烧</t>
-  </si>
-  <si>
-    <t>冰霜盾</t>
-  </si>
-  <si>
-    <t>冰盾</t>
-  </si>
-  <si>
-    <t>撒网</t>
-  </si>
-  <si>
-    <t>践踏</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>闪电链</t>
-  </si>
-  <si>
-    <t>幽鬼之刃</t>
-  </si>
-  <si>
-    <t>奔腾</t>
-  </si>
-  <si>
-    <t>降临</t>
-  </si>
-  <si>
-    <t>怒意狂击</t>
-  </si>
-  <si>
-    <t>反伤</t>
-  </si>
-  <si>
-    <t>召唤冥界士兵</t>
-  </si>
-  <si>
-    <t>幽冥爆裂</t>
-  </si>
-  <si>
-    <t>召唤骷髅法师</t>
-  </si>
-  <si>
-    <t>本命一击</t>
-  </si>
-  <si>
-    <t>死亡契约</t>
-  </si>
-  <si>
-    <t>黑暗仪式</t>
-  </si>
-  <si>
-    <t>墓碑</t>
-  </si>
-  <si>
-    <t>暗影冲刺</t>
-  </si>
-  <si>
-    <t>雷云</t>
-  </si>
-  <si>
-    <t>连环霜冻</t>
-  </si>
-  <si>
-    <t>faceless_void_chronosphere</t>
-  </si>
-  <si>
-    <t>pudge_meat_hook</t>
-  </si>
-  <si>
-    <t>life_stealer_rage</t>
-  </si>
-  <si>
-    <t>razor_eye_of_the_storm</t>
-  </si>
-  <si>
-    <t>venomancer_poison_nova</t>
-  </si>
-  <si>
-    <t>troll_warlord_battle_trance</t>
-  </si>
-  <si>
-    <t>morphling_waveform</t>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-  </si>
-  <si>
-    <t>granite_golem_hp_aura</t>
-  </si>
-  <si>
-    <t>ogre_magi_frost_armor</t>
-  </si>
-  <si>
-    <t>dark_seer_surge</t>
-  </si>
-  <si>
-    <t>wisp_relocate</t>
-  </si>
-  <si>
-    <t>decay_summon_wraith_warrior</t>
-  </si>
-  <si>
-    <t>clinkz_death_pact</t>
-  </si>
-  <si>
-    <t>decay_dark_ritual_datadriven</t>
-  </si>
-  <si>
-    <t>decay_tombstone</t>
-  </si>
-  <si>
-    <t>hunt_thirst_lua</t>
-  </si>
-  <si>
-    <t>元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎杀8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mud_golem_hurl_boulder_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_golem_permanent_immolation</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_trickster_purge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_frost_shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giant_wolf_critical_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_troll_warlord_ensnare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forged_spirit_melting_strike_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shredder_reactive_armor</t>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
-  </si>
-  <si>
-    <t>huskar_life_break</t>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>decay_mystery_summon_familiar</t>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_dota_creature_forge_spirit</t>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_bulldoze</t>
-  </si>
-  <si>
-    <t>威吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
   </si>
 </sst>
 </file>
@@ -827,11 +845,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J62"/>
+  <dimension ref="A1:J64"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -842,28 +860,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>54</v>
       </c>
-      <c r="E1" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G1" t="s">
-        <v>57</v>
-      </c>
-      <c r="H1" t="s">
-        <v>58</v>
-      </c>
       <c r="I1" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="J1" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -871,7 +889,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -884,16 +902,16 @@
         <v>32</v>
       </c>
       <c r="I2">
-        <f>C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" ref="I2:I35" si="0">C2+D2+E2+F2+G2+H2</f>
         <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -906,7 +924,7 @@
         <v>32</v>
       </c>
       <c r="I3">
-        <f>C3+D3+E3+F3+G3+H3</f>
+        <f t="shared" si="0"/>
         <v>48</v>
       </c>
     </row>
@@ -915,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -928,7 +946,7 @@
         <v>32</v>
       </c>
       <c r="I4">
-        <f>C4+D4+E4+F4+G4+H4</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
@@ -937,7 +955,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="2"/>
@@ -950,16 +968,16 @@
         <v>32</v>
       </c>
       <c r="I5">
-        <f>C5+D5+E5+F5+G5+H5</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -972,19 +990,19 @@
         <v>32</v>
       </c>
       <c r="I6">
-        <f>C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" si="0"/>
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>132</v>
       </c>
       <c r="B7" t="s">
-        <v>108</v>
+        <v>134</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
@@ -997,38 +1015,38 @@
         <v>32</v>
       </c>
       <c r="I7">
-        <f>C7+D7+E7+F7+G7+H7</f>
+        <f t="shared" si="0"/>
         <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
-      <c r="E8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2">
+        <v>4</v>
+      </c>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2">
         <v>32</v>
       </c>
       <c r="I8">
-        <f>C8+D8+E8+F8+G8+H8</f>
-        <v>34</v>
+        <f t="shared" si="0"/>
+        <v>36</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -1041,21 +1059,21 @@
         <v>32</v>
       </c>
       <c r="I9">
-        <f>C9+D9+E9+F9+G9+H9</f>
+        <f t="shared" si="0"/>
         <v>34</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
-      </c>
-      <c r="C10" s="2">
-        <v>1</v>
-      </c>
-      <c r="D10" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2">
+        <v>2</v>
+      </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
@@ -1063,16 +1081,16 @@
         <v>32</v>
       </c>
       <c r="I10">
-        <f>C10+D10+E10+F10+G10+H10</f>
-        <v>33</v>
+        <f t="shared" si="0"/>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>99</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1085,18 +1103,20 @@
         <v>32</v>
       </c>
       <c r="I11">
-        <f>C11+D11+E11+F11+G11+H11</f>
+        <f t="shared" si="0"/>
         <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="2"/>
+        <v>65</v>
+      </c>
+      <c r="C12" s="2">
+        <v>1</v>
+      </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
@@ -1105,16 +1125,16 @@
         <v>32</v>
       </c>
       <c r="I12">
-        <f>C12+D12+E12+F12+G12+H12</f>
-        <v>32</v>
+        <f t="shared" si="0"/>
+        <v>33</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
@@ -1125,16 +1145,16 @@
         <v>32</v>
       </c>
       <c r="I13">
-        <f>C13+D13+E13+F13+G13+H13</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1145,16 +1165,16 @@
         <v>32</v>
       </c>
       <c r="I14">
-        <f>C14+D14+E14+F14+G14+H14</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B15" t="s">
-        <v>73</v>
+        <v>47</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1165,126 +1185,124 @@
         <v>32</v>
       </c>
       <c r="I15">
-        <f>C15+D15+E15+F15+G15+H15</f>
+        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>66</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
-      <c r="F16" s="1">
-        <v>8</v>
-      </c>
-      <c r="G16" s="1">
-        <v>16</v>
-      </c>
-      <c r="H16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2">
+        <v>32</v>
+      </c>
       <c r="I16">
-        <f>C16+D16+E16+F16+G16+H16</f>
-        <v>24</v>
+        <f t="shared" si="0"/>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="2">
-        <v>8</v>
-      </c>
-      <c r="G17" s="2">
+      <c r="F17" s="1">
+        <v>8</v>
+      </c>
+      <c r="G17" s="1">
         <v>16</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17">
-        <f>C17+D17+E17+F17+G17+H17</f>
+        <f t="shared" si="0"/>
         <v>24</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
-      </c>
-      <c r="C18" s="1"/>
+        <v>68</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2"/>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="2"/>
-      <c r="G18" s="1">
+      <c r="E18" s="2"/>
+      <c r="F18" s="2">
+        <v>8</v>
+      </c>
+      <c r="G18" s="2">
         <v>16</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18">
-        <f>C18+D18+E18+F18+G18+H18</f>
-        <v>20</v>
+        <f t="shared" si="0"/>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="B19" t="s">
-        <v>60</v>
-      </c>
-      <c r="C19" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2">
+      <c r="E19" s="1">
         <v>4</v>
       </c>
       <c r="F19" s="2"/>
-      <c r="G19" s="2">
+      <c r="G19" s="1">
         <v>16</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19">
-        <f>C19+D19+E19+F19+G19+H19</f>
+        <f t="shared" si="0"/>
         <v>20</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C20" s="2"/>
-      <c r="D20" s="2">
-        <v>2</v>
-      </c>
-      <c r="E20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2">
+        <v>4</v>
+      </c>
       <c r="F20" s="2"/>
       <c r="G20" s="2">
         <v>16</v>
       </c>
       <c r="H20" s="2"/>
       <c r="I20">
-        <f>C20+D20+E20+F20+G20+H20</f>
-        <v>18</v>
+        <f t="shared" si="0"/>
+        <v>20</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>95</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2">
@@ -1297,21 +1315,21 @@
       </c>
       <c r="H21" s="2"/>
       <c r="I21">
-        <f>C21+D21+E21+F21+G21+H21</f>
+        <f t="shared" si="0"/>
         <v>18</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="B22" t="s">
-        <v>112</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>87</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2">
+        <v>2</v>
+      </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2">
@@ -1319,16 +1337,16 @@
       </c>
       <c r="H22" s="2"/>
       <c r="I22">
-        <f>C22+D22+E22+F22+G22+H22</f>
-        <v>17</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B23" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1341,18 +1359,20 @@
       </c>
       <c r="H23" s="2"/>
       <c r="I23">
-        <f>C23+D23+E23+F23+G23+H23</f>
+        <f t="shared" si="0"/>
         <v>17</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>70</v>
+        <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>71</v>
-      </c>
-      <c r="C24" s="2"/>
+        <v>69</v>
+      </c>
+      <c r="C24" s="2">
+        <v>1</v>
+      </c>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
       <c r="F24" s="2"/>
@@ -1361,16 +1381,16 @@
       </c>
       <c r="H24" s="2"/>
       <c r="I24">
-        <f>C24+D24+E24+F24+G24+H24</f>
-        <v>16</v>
+        <f t="shared" si="0"/>
+        <v>17</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>131</v>
       </c>
       <c r="B25" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1381,16 +1401,16 @@
       </c>
       <c r="H25" s="2"/>
       <c r="I25">
-        <f>C25+D25+E25+F25+G25+H25</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>97</v>
+        <v>63</v>
       </c>
       <c r="B26" t="s">
-        <v>96</v>
+        <v>64</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1401,16 +1421,16 @@
       </c>
       <c r="H26" s="2"/>
       <c r="I26">
-        <f>C26+D26+E26+F26+G26+H26</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B27" t="s">
-        <v>65</v>
+        <v>121</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1421,131 +1441,127 @@
       </c>
       <c r="H27" s="2"/>
       <c r="I27">
-        <f>C27+D27+E27+F27+G27+H27</f>
+        <f t="shared" si="0"/>
         <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>130</v>
+        <v>90</v>
       </c>
       <c r="B28" t="s">
-        <v>113</v>
+        <v>89</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
-      <c r="E28" s="2">
-        <v>4</v>
-      </c>
-      <c r="F28" s="2">
-        <v>8</v>
-      </c>
-      <c r="G28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2">
+        <v>16</v>
+      </c>
       <c r="H28" s="2"/>
       <c r="I28">
-        <f>C28+D28+E28+F28+G28+H28</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="B29" t="s">
-        <v>78</v>
+        <v>59</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
-      <c r="E29" s="2">
-        <v>4</v>
-      </c>
-      <c r="F29" s="2">
-        <v>8</v>
-      </c>
-      <c r="G29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2">
+        <v>16</v>
+      </c>
       <c r="H29" s="2"/>
       <c r="I29">
-        <f>C29+D29+E29+F29+G29+H29</f>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="B30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="2">
-        <v>2</v>
-      </c>
-      <c r="E30" s="2"/>
-      <c r="F30" s="1">
+        <v>105</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2">
         <v>8</v>
       </c>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30">
-        <f>C30+D30+E30+F30+G30+H30</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>117</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>116</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
-      <c r="E31" s="2"/>
-      <c r="F31" s="1">
+        <v>71</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2">
         <v>8</v>
       </c>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31">
-        <f>C31+D31+E31+F31+G31+H31</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B32" t="s">
-        <v>115</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
-      <c r="D32" s="2"/>
+        <v>110</v>
+      </c>
+      <c r="C32" s="1"/>
+      <c r="D32" s="2">
+        <v>2</v>
+      </c>
       <c r="E32" s="2"/>
-      <c r="F32" s="2">
+      <c r="F32" s="1">
         <v>8</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32">
-        <f>C32+D32+E32+F32+G32+H32</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B33" t="s">
-        <v>39</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>108</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="2">
+        <v>2</v>
+      </c>
       <c r="E33" s="2"/>
       <c r="F33" s="1">
         <v>8</v>
@@ -1553,18 +1569,20 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33">
-        <f>C33+D33+E33+F33+G33+H33</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>10</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>17</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
-        <v>66</v>
-      </c>
-      <c r="C34" s="2"/>
+        <v>107</v>
+      </c>
+      <c r="C34" s="2">
+        <v>1</v>
+      </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
       <c r="F34" s="2">
@@ -1573,36 +1591,38 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <f>C34+D34+E34+F34+G34+H34</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>120</v>
+        <v>4</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
-      </c>
-      <c r="C35" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C35" s="1">
+        <v>1</v>
+      </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="2">
+      <c r="F35" s="1">
         <v>8</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f>C35+D35+E35+F35+G35+H35</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>87</v>
+        <v>15</v>
       </c>
       <c r="B36" t="s">
-        <v>86</v>
+        <v>60</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1613,16 +1633,16 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f>C36+D36+E36+F36+G36+H36</f>
+        <f t="shared" ref="I36:I64" si="1">C36+D36+E36+F36+G36+H36</f>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>89</v>
+        <v>112</v>
       </c>
       <c r="B37" t="s">
-        <v>88</v>
+        <v>48</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1633,16 +1653,16 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f>C37+D37+E37+F37+G37+H37</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1653,16 +1673,16 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38">
-        <f>C38+D38+E38+F38+G38+H38</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1673,106 +1693,104 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39">
-        <f>C39+D39+E39+F39+G39+H39</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>123</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>122</v>
+        <v>83</v>
       </c>
       <c r="C40" s="2"/>
-      <c r="D40" s="1">
-        <v>2</v>
-      </c>
-      <c r="E40" s="1">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2">
+        <v>8</v>
+      </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40">
-        <f>C40+D40+E40+F40+G40+H40</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>1</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>124</v>
+        <v>86</v>
       </c>
       <c r="C41" s="2"/>
-      <c r="D41" s="1">
-        <v>2</v>
-      </c>
-      <c r="E41" s="1">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2">
+        <v>8</v>
+      </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41">
-        <f>C41+D41+E41+F41+G41+H41</f>
-        <v>6</v>
+        <f t="shared" si="1"/>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="B42" t="s">
-        <v>126</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
-      <c r="D42" s="2"/>
-      <c r="E42" s="2">
+        <v>114</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="1">
+        <v>2</v>
+      </c>
+      <c r="E42" s="1">
         <v>4</v>
       </c>
       <c r="F42" s="2"/>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42">
-        <f>C42+D42+E42+F42+G42+H42</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2">
+        <v>116</v>
+      </c>
+      <c r="C43" s="2"/>
+      <c r="D43" s="1">
+        <v>2</v>
+      </c>
+      <c r="E43" s="1">
         <v>4</v>
       </c>
       <c r="F43" s="2"/>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43">
-        <f>C43+D43+E43+F43+G43+H43</f>
-        <v>5</v>
+        <f t="shared" si="1"/>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>12</v>
+        <v>117</v>
       </c>
       <c r="B44" t="s">
-        <v>61</v>
-      </c>
-      <c r="C44" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2">
         <v>4</v>
@@ -1781,18 +1799,20 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44">
-        <f>C44+D44+E44+F44+G44+H44</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B45" t="s">
-        <v>63</v>
-      </c>
-      <c r="C45" s="2"/>
+        <v>113</v>
+      </c>
+      <c r="C45" s="2">
+        <v>1</v>
+      </c>
       <c r="D45" s="2"/>
       <c r="E45" s="2">
         <v>4</v>
@@ -1801,16 +1821,16 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45">
-        <f>C45+D45+E45+F45+G45+H45</f>
-        <v>4</v>
+        <f t="shared" si="1"/>
+        <v>5</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>21</v>
+        <v>123</v>
       </c>
       <c r="B46" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1821,16 +1841,16 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46">
-        <f>C46+D46+E46+F46+G46+H46</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>124</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1841,16 +1861,16 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47">
-        <f>C47+D47+E47+F47+G47+H47</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>125</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1861,62 +1881,60 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48">
-        <f>C48+D48+E48+F48+G48+H48</f>
+        <f t="shared" si="1"/>
         <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
-      <c r="D49" s="2">
-        <v>2</v>
-      </c>
-      <c r="E49" s="2"/>
+        <v>42</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
       <c r="F49" s="2"/>
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49">
-        <f>C49+D49+E49+F49+G49+H49</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
-      <c r="D50" s="2">
-        <v>2</v>
-      </c>
-      <c r="E50" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
       <c r="F50" s="2"/>
       <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50">
-        <f>C50+D50+E50+F50+G50+H50</f>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>4</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>44</v>
-      </c>
-      <c r="C51" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
       <c r="D51" s="2">
         <v>2</v>
       </c>
@@ -1925,18 +1943,20 @@
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51">
-        <f>C51+D51+E51+F51+G51+H51</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B52" t="s">
-        <v>59</v>
-      </c>
-      <c r="C52" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C52" s="2">
+        <v>1</v>
+      </c>
       <c r="D52" s="2">
         <v>2</v>
       </c>
@@ -1945,16 +1965,16 @@
       <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52">
-        <f>C52+D52+E52+F52+G52+H52</f>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>3</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>40</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2">
@@ -1965,16 +1985,16 @@
       <c r="G53" s="2"/>
       <c r="H53" s="2"/>
       <c r="I53">
-        <f>C53+D53+E53+F53+G53+H53</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>81</v>
+        <v>9</v>
       </c>
       <c r="B54" t="s">
-        <v>80</v>
+        <v>55</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
@@ -1985,16 +2005,16 @@
       <c r="G54" s="2"/>
       <c r="H54" s="2"/>
       <c r="I54">
-        <f>C54+D54+E54+F54+G54+H54</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>83</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>82</v>
+        <v>120</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
@@ -2005,16 +2025,16 @@
       <c r="G55" s="2"/>
       <c r="H55" s="2"/>
       <c r="I55">
-        <f>C55+D55+E55+F55+G55+H55</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="B56" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
@@ -2025,58 +2045,58 @@
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56">
-        <f>C56+D56+E56+F56+G56+H56</f>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>7</v>
+        <v>76</v>
       </c>
       <c r="B57" t="s">
-        <v>42</v>
-      </c>
-      <c r="C57" s="1">
-        <v>1</v>
-      </c>
-      <c r="D57" s="2"/>
+        <v>75</v>
+      </c>
+      <c r="C57" s="2"/>
+      <c r="D57" s="2">
+        <v>2</v>
+      </c>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
       <c r="H57" s="2"/>
       <c r="I57">
-        <f>C57+D57+E57+F57+G57+H57</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="B58" t="s">
-        <v>43</v>
-      </c>
-      <c r="C58" s="1">
-        <v>1</v>
-      </c>
-      <c r="D58" s="2"/>
+        <v>77</v>
+      </c>
+      <c r="C58" s="2"/>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2"/>
       <c r="I58">
-        <f>C58+D58+E58+F58+G58+H58</f>
-        <v>1</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>7</v>
       </c>
       <c r="B59" t="s">
-        <v>68</v>
-      </c>
-      <c r="C59" s="2">
+        <v>39</v>
+      </c>
+      <c r="C59" s="1">
         <v>1</v>
       </c>
       <c r="D59" s="2"/>
@@ -2085,18 +2105,18 @@
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59">
-        <f>C59+D59+E59+F59+G59+H59</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>35</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>77</v>
-      </c>
-      <c r="C60" s="2">
+        <v>128</v>
+      </c>
+      <c r="C60" s="1">
         <v>1</v>
       </c>
       <c r="D60" s="2"/>
@@ -2105,16 +2125,16 @@
       <c r="G60" s="2"/>
       <c r="H60" s="2"/>
       <c r="I60">
-        <f>C60+D60+E60+F60+G60+H60</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B61" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -2125,25 +2145,65 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
       <c r="I61">
-        <f>C61+D61+E61+F61+G61+H61</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B62" t="s">
-        <v>50</v>
-      </c>
-      <c r="C62" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
       <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2"/>
       <c r="I62">
-        <f>C62+D62+E62+F62+G62+H62</f>
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
+      <c r="A63" t="s">
+        <v>129</v>
+      </c>
+      <c r="B63" t="s">
+        <v>119</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
+      <c r="A64" t="s">
+        <v>28</v>
+      </c>
+      <c r="B64" t="s">
+        <v>46</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="137">
   <si>
     <t>时间结界</t>
   </si>
@@ -197,298 +197,307 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>lich_frost_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant_wolf_critical_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_troll_warlord_ensnare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forged_spirit_melting_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+  </si>
+  <si>
+    <t>huskar_life_break</t>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小技能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_shadow_word</t>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_creature_forge_spirit</t>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_bulldoze</t>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>gnoll_assassin_envenomed_weapon</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lich_frost_shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giant_wolf_critical_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_troll_warlord_ensnare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forged_spirit_melting_strike_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shredder_reactive_armor</t>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
-  </si>
-  <si>
-    <t>huskar_life_break</t>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_dota_creature_forge_spirit</t>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_bulldoze</t>
-  </si>
-  <si>
-    <t>威吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_seer_vacuum</t>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enigma_midnight_pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -845,11 +854,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J64"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E8" sqref="E8"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -878,10 +887,10 @@
         <v>54</v>
       </c>
       <c r="I1" t="s">
+        <v>90</v>
+      </c>
+      <c r="J1" t="s">
         <v>91</v>
-      </c>
-      <c r="J1" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -902,7 +911,7 @@
         <v>32</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I35" si="0">C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" ref="I2:I36" si="0">C2+D2+E2+F2+G2+H2</f>
         <v>48</v>
       </c>
     </row>
@@ -911,7 +920,7 @@
         <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
@@ -977,7 +986,7 @@
         <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
+        <v>133</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -994,12 +1003,12 @@
         <v>40</v>
       </c>
       <c r="J6" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B7" t="s">
         <v>134</v>
@@ -1021,10 +1030,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B8" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
@@ -1043,16 +1052,16 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>97</v>
+        <v>135</v>
       </c>
       <c r="B9" t="s">
-        <v>96</v>
+        <v>136</v>
       </c>
       <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
-      <c r="E9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2">
+        <v>4</v>
+      </c>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2">
@@ -1060,12 +1069,12 @@
       </c>
       <c r="I9">
         <f t="shared" si="0"/>
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B10" t="s">
         <v>95</v>
@@ -1087,15 +1096,15 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B11" t="s">
-        <v>98</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1</v>
-      </c>
-      <c r="D11" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2">
+        <v>2</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
@@ -1104,15 +1113,15 @@
       </c>
       <c r="I11">
         <f t="shared" si="0"/>
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>98</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>97</v>
       </c>
       <c r="C12" s="2">
         <v>1</v>
@@ -1131,12 +1140,14 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" s="2"/>
+        <v>64</v>
+      </c>
+      <c r="C13" s="2">
+        <v>1</v>
+      </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
@@ -1146,15 +1157,15 @@
       </c>
       <c r="I13">
         <f t="shared" si="0"/>
-        <v>32</v>
+        <v>33</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2"/>
@@ -1171,10 +1182,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
@@ -1191,10 +1202,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>47</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1211,40 +1222,38 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
+        <v>65</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="1">
-        <v>8</v>
-      </c>
-      <c r="G17" s="1">
-        <v>16</v>
-      </c>
-      <c r="H17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2">
+        <v>32</v>
+      </c>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>38</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="2">
-        <v>8</v>
-      </c>
-      <c r="G18" s="2">
+      <c r="F18" s="1">
+        <v>8</v>
+      </c>
+      <c r="G18" s="1">
         <v>16</v>
       </c>
       <c r="H18" s="2"/>
@@ -1255,40 +1264,40 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B19" t="s">
-        <v>33</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="1">
-        <v>4</v>
-      </c>
-      <c r="F19" s="2"/>
-      <c r="G19" s="1">
+      <c r="E19" s="2"/>
+      <c r="F19" s="2">
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
         <v>16</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19">
         <f t="shared" si="0"/>
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="B20" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="2"/>
-      <c r="E20" s="2">
+      <c r="E20" s="1">
         <v>4</v>
       </c>
       <c r="F20" s="2"/>
-      <c r="G20" s="2">
+      <c r="G20" s="1">
         <v>16</v>
       </c>
       <c r="H20" s="2"/>
@@ -1299,16 +1308,16 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C21" s="2"/>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2">
         <v>16</v>
@@ -1316,15 +1325,15 @@
       <c r="H21" s="2"/>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>88</v>
+        <v>16</v>
       </c>
       <c r="B22" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2">
@@ -1343,15 +1352,15 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>103</v>
+        <v>87</v>
       </c>
       <c r="B23" t="s">
-        <v>104</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C23" s="2"/>
+      <c r="D23" s="2">
+        <v>2</v>
+      </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2">
@@ -1360,7 +1369,7 @@
       <c r="H23" s="2"/>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="24" spans="1:9">
@@ -1368,7 +1377,7 @@
         <v>102</v>
       </c>
       <c r="B24" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="C24" s="2">
         <v>1</v>
@@ -1387,12 +1396,14 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>131</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>130</v>
-      </c>
-      <c r="C25" s="2"/>
+        <v>68</v>
+      </c>
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
       <c r="F25" s="2"/>
@@ -1402,15 +1413,15 @@
       <c r="H25" s="2"/>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1427,10 +1438,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B27" t="s">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1447,10 +1458,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>21</v>
       </c>
       <c r="B28" t="s">
-        <v>89</v>
+        <v>120</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1467,10 +1478,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>101</v>
+        <v>89</v>
       </c>
       <c r="B29" t="s">
-        <v>59</v>
+        <v>88</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1487,32 +1498,30 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>105</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
-      <c r="F30" s="2">
-        <v>8</v>
-      </c>
-      <c r="G30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2">
+        <v>16</v>
+      </c>
       <c r="H30" s="2"/>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>72</v>
+        <v>121</v>
       </c>
       <c r="B31" t="s">
-        <v>71</v>
+        <v>104</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1531,32 +1540,32 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>111</v>
+        <v>71</v>
       </c>
       <c r="B32" t="s">
-        <v>110</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
-      <c r="E32" s="2"/>
-      <c r="F32" s="1">
+        <v>70</v>
+      </c>
+      <c r="C32" s="2"/>
+      <c r="D32" s="2"/>
+      <c r="E32" s="2">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2">
         <v>8</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B33" t="s">
         <v>109</v>
-      </c>
-      <c r="B33" t="s">
-        <v>108</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2">
@@ -1575,39 +1584,39 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B34" t="s">
         <v>107</v>
       </c>
-      <c r="C34" s="2">
-        <v>1</v>
-      </c>
-      <c r="D34" s="2"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
       <c r="E34" s="2"/>
-      <c r="F34" s="2">
+      <c r="F34" s="1">
         <v>8</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>4</v>
+        <v>105</v>
       </c>
       <c r="B35" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="1">
+        <v>106</v>
+      </c>
+      <c r="C35" s="2">
         <v>1</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>8</v>
       </c>
       <c r="G35" s="2"/>
@@ -1619,30 +1628,32 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>4</v>
       </c>
       <c r="B36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C36" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="C36" s="1">
+        <v>1</v>
+      </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="2">
+      <c r="F36" s="1">
         <v>8</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f t="shared" ref="I36:I64" si="1">C36+D36+E36+F36+G36+H36</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>112</v>
+        <v>15</v>
       </c>
       <c r="B37" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1653,16 +1664,16 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I37:I65" si="1">C37+D37+E37+F37+G37+H37</f>
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>80</v>
+        <v>111</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>48</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1679,10 +1690,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1699,10 +1710,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1719,10 +1730,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B41" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1739,32 +1750,30 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>115</v>
+        <v>84</v>
       </c>
       <c r="B42" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="C42" s="2"/>
-      <c r="D42" s="1">
-        <v>2</v>
-      </c>
-      <c r="E42" s="1">
-        <v>4</v>
-      </c>
-      <c r="F42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
+        <v>8</v>
+      </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>1</v>
+        <v>114</v>
       </c>
       <c r="B43" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="1">
@@ -1783,16 +1792,16 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>117</v>
+        <v>1</v>
       </c>
       <c r="B44" t="s">
-        <v>118</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
+        <v>115</v>
+      </c>
+      <c r="C44" s="2"/>
+      <c r="D44" s="1">
+        <v>2</v>
+      </c>
+      <c r="E44" s="1">
         <v>4</v>
       </c>
       <c r="F44" s="2"/>
@@ -1800,15 +1809,15 @@
       <c r="H44" s="2"/>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>31</v>
+        <v>116</v>
       </c>
       <c r="B45" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="C45" s="2">
         <v>1</v>
@@ -1827,12 +1836,14 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>123</v>
+        <v>31</v>
       </c>
       <c r="B46" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2">
         <v>4</v>
@@ -1842,15 +1853,15 @@
       <c r="H46" s="2"/>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>12</v>
+        <v>122</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1867,10 +1878,10 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B48" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1887,10 +1898,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B49" t="s">
-        <v>42</v>
+        <v>124</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -1907,10 +1918,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B50" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1927,32 +1938,30 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="B51" t="s">
-        <v>58</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
-      <c r="E51" s="2"/>
+        <v>43</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
       <c r="F51" s="2"/>
       <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C52" s="2">
         <v>1</v>
@@ -1971,12 +1980,14 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B53" t="s">
-        <v>40</v>
-      </c>
-      <c r="C53" s="2"/>
+        <v>41</v>
+      </c>
+      <c r="C53" s="2">
+        <v>1</v>
+      </c>
       <c r="D53" s="2">
         <v>2</v>
       </c>
@@ -1986,15 +1997,15 @@
       <c r="H53" s="2"/>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B54" t="s">
-        <v>55</v>
+        <v>40</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2">
@@ -2011,10 +2022,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>55</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2">
@@ -2031,10 +2042,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="B56" t="s">
-        <v>73</v>
+        <v>119</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2">
@@ -2051,10 +2062,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="B57" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2">
@@ -2071,10 +2082,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B58" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2">
@@ -2091,30 +2102,30 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>7</v>
+        <v>77</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="1">
-        <v>1</v>
-      </c>
-      <c r="D59" s="2"/>
+        <v>76</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2"/>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>127</v>
+        <v>7</v>
       </c>
       <c r="B60" t="s">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="C60" s="1">
         <v>1</v>
@@ -2131,12 +2142,12 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>17</v>
+        <v>126</v>
       </c>
       <c r="B61" t="s">
-        <v>62</v>
-      </c>
-      <c r="C61" s="2">
+        <v>127</v>
+      </c>
+      <c r="C61" s="1">
         <v>1</v>
       </c>
       <c r="D61" s="2"/>
@@ -2151,10 +2162,10 @@
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>32</v>
+        <v>17</v>
       </c>
       <c r="B62" t="s">
-        <v>70</v>
+        <v>61</v>
       </c>
       <c r="C62" s="2">
         <v>1</v>
@@ -2171,10 +2182,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>119</v>
+        <v>69</v>
       </c>
       <c r="C63" s="2">
         <v>1</v>
@@ -2191,18 +2202,38 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>28</v>
+        <v>128</v>
       </c>
       <c r="B64" t="s">
-        <v>46</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>118</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2"/>
       <c r="I64">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
+      <c r="A65" t="s">
+        <v>28</v>
+      </c>
+      <c r="B65" t="s">
+        <v>46</v>
+      </c>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
   <si>
     <t>折射</t>
   </si>
@@ -507,6 +507,21 @@
   </si>
   <si>
     <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
   </si>
 </sst>
 </file>
@@ -863,17 +878,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J66"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A39" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B52" sqref="B52"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -1116,10 +1131,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>141</v>
       </c>
       <c r="B13" t="s">
-        <v>54</v>
+        <v>142</v>
       </c>
       <c r="C13" s="2">
         <v>1</v>
@@ -1138,10 +1153,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1160,30 +1175,32 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
-      </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2">
-        <v>4</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C15" s="2">
+        <v>1</v>
+      </c>
+      <c r="D15" s="2">
+        <v>2</v>
+      </c>
+      <c r="E15" s="2"/>
       <c r="F15" s="2"/>
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15">
         <f>C15+D15+E15+F15+G15+H15</f>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>119</v>
       </c>
       <c r="B16" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -1200,10 +1217,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1220,10 +1237,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>121</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1240,10 +1257,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1260,14 +1277,12 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>113</v>
+        <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2">
         <v>4</v>
@@ -1277,15 +1292,15 @@
       <c r="H20" s="2"/>
       <c r="I20">
         <f>C20+D20+E20+F20+G20+H20</f>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>29</v>
+        <v>113</v>
       </c>
       <c r="B21" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1304,16 +1319,16 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>111</v>
+        <v>29</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22" s="2"/>
-      <c r="D22" s="1">
-        <v>2</v>
-      </c>
-      <c r="E22" s="1">
+        <v>109</v>
+      </c>
+      <c r="C22" s="2">
+        <v>1</v>
+      </c>
+      <c r="D22" s="2"/>
+      <c r="E22" s="2">
         <v>4</v>
       </c>
       <c r="F22" s="2"/>
@@ -1321,15 +1336,15 @@
       <c r="H22" s="2"/>
       <c r="I22">
         <f>C22+D22+E22+F22+G22+H22</f>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="B23" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="1">
@@ -1348,30 +1363,32 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>112</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2">
-        <v>8</v>
-      </c>
+      <c r="D24" s="1">
+        <v>2</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="2"/>
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24">
         <f>C24+D24+E24+F24+G24+H24</f>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B25" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1388,10 +1405,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>76</v>
+        <v>108</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1408,10 +1425,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1428,10 +1445,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1448,10 +1465,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B29" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1468,14 +1485,12 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>102</v>
+        <v>81</v>
       </c>
       <c r="B30" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
       <c r="F30" s="2">
@@ -1485,22 +1500,22 @@
       <c r="H30" s="2"/>
       <c r="I30">
         <f>C30+D30+E30+F30+G30+H30</f>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>3</v>
+        <v>102</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="1">
+        <v>103</v>
+      </c>
+      <c r="C31" s="2">
         <v>1</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="1">
+      <c r="F31" s="2">
         <v>8</v>
       </c>
       <c r="G31" s="2"/>
@@ -1512,15 +1527,15 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="B32" t="s">
-        <v>106</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
+        <v>34</v>
+      </c>
+      <c r="C32" s="1">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="1">
         <v>8</v>
@@ -1529,15 +1544,15 @@
       <c r="H32" s="2"/>
       <c r="I32">
         <f>C32+D32+E32+F32+G32+H32</f>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B33" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="2">
@@ -1556,32 +1571,32 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="B34" t="s">
-        <v>101</v>
-      </c>
-      <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2">
-        <v>4</v>
-      </c>
-      <c r="F34" s="2">
+        <v>104</v>
+      </c>
+      <c r="C34" s="1"/>
+      <c r="D34" s="2">
+        <v>2</v>
+      </c>
+      <c r="E34" s="2"/>
+      <c r="F34" s="1">
         <v>8</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
         <f>C34+D34+E34+F34+G34+H34</f>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>68</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>101</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1600,30 +1615,32 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>127</v>
+        <v>68</v>
       </c>
       <c r="B36" t="s">
-        <v>126</v>
+        <v>67</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="2"/>
-      <c r="G36" s="2">
-        <v>16</v>
-      </c>
+      <c r="E36" s="2">
+        <v>4</v>
+      </c>
+      <c r="F36" s="2">
+        <v>8</v>
+      </c>
+      <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
         <f>C36+D36+E36+F36+G36+H36</f>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>59</v>
+        <v>127</v>
       </c>
       <c r="B37" t="s">
-        <v>60</v>
+        <v>126</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1640,10 +1657,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>117</v>
+        <v>60</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1660,10 +1677,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>86</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1680,10 +1697,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="B40" t="s">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1700,14 +1717,12 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
-        <v>100</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2"/>
@@ -1717,15 +1732,15 @@
       <c r="H41" s="2"/>
       <c r="I41">
         <f>C41+D41+E41+F41+G41+H41</f>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>100</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1744,15 +1759,15 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
-      </c>
-      <c r="C43" s="2"/>
-      <c r="D43" s="2">
-        <v>2</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="C43" s="2">
+        <v>1</v>
+      </c>
+      <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
       <c r="G43" s="2">
@@ -1761,15 +1776,15 @@
       <c r="H43" s="2"/>
       <c r="I43">
         <f>C43+D43+E43+F43+G43+H43</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B44" t="s">
-        <v>83</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2">
@@ -1788,14 +1803,12 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>134</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>135</v>
-      </c>
-      <c r="C45" s="2">
-        <v>1</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="C45" s="2"/>
       <c r="D45" s="2">
         <v>2</v>
       </c>
@@ -1807,21 +1820,23 @@
       <c r="H45" s="2"/>
       <c r="I45">
         <f>C45+D45+E45+F45+G45+H45</f>
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
-        <v>138</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
-      <c r="E46" s="2">
-        <v>4</v>
-      </c>
+        <v>135</v>
+      </c>
+      <c r="C46" s="2">
+        <v>1</v>
+      </c>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
+      <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
         <v>16</v>
@@ -1829,23 +1844,23 @@
       <c r="H46" s="2"/>
       <c r="I46">
         <f>C46+D46+E46+F46+G46+H46</f>
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B47" t="s">
-        <v>31</v>
-      </c>
-      <c r="C47" s="1"/>
+        <v>138</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="1">
+      <c r="E47" s="2">
         <v>4</v>
       </c>
       <c r="F47" s="2"/>
-      <c r="G47" s="1">
+      <c r="G47" s="2">
         <v>16</v>
       </c>
       <c r="H47" s="2"/>
@@ -1856,40 +1871,40 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>5</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>36</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>31</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="1">
-        <v>8</v>
-      </c>
+      <c r="E48" s="1">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2"/>
       <c r="G48" s="1">
         <v>16</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48">
         <f>C48+D48+E48+F48+G48+H48</f>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="49" spans="1:10">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B49" t="s">
-        <v>64</v>
+        <v>36</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>8</v>
       </c>
-      <c r="G49" s="2">
+      <c r="G49" s="1">
         <v>16</v>
       </c>
       <c r="H49" s="2"/>
@@ -1898,32 +1913,34 @@
         <v>24</v>
       </c>
     </row>
-    <row r="50" spans="1:10">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="B50" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2">
-        <v>32</v>
-      </c>
+      <c r="F50" s="2">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2">
+        <v>16</v>
+      </c>
+      <c r="H50" s="2"/>
       <c r="I50">
         <f>C50+D50+E50+F50+G50+H50</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:10">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="B51" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1938,12 +1955,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="52" spans="1:10">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1958,12 +1975,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="53" spans="1:10">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B53" t="s">
-        <v>62</v>
+        <v>45</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1978,16 +1995,14 @@
         <v>32</v>
       </c>
     </row>
-    <row r="54" spans="1:10">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>95</v>
+        <v>23</v>
       </c>
       <c r="B54" t="s">
-        <v>94</v>
-      </c>
-      <c r="C54" s="2">
-        <v>1</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
@@ -1997,19 +2012,17 @@
       </c>
       <c r="I54">
         <f>C54+D54+E54+F54+G54+H54</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="55" spans="1:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>140</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C55" s="2">
-        <v>1</v>
-      </c>
+        <v>139</v>
+      </c>
+      <c r="C55" s="2"/>
       <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
@@ -2019,20 +2032,20 @@
       </c>
       <c r="I55">
         <f>C55+D55+E55+F55+G55+H55</f>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="56" spans="1:10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B56" t="s">
-        <v>92</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="C56" s="2">
+        <v>1</v>
+      </c>
+      <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
@@ -2041,20 +2054,20 @@
       </c>
       <c r="I56">
         <f>C56+D56+E56+F56+G56+H56</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="57" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>90</v>
+        <v>22</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="2"/>
-      <c r="D57" s="2">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
+      <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2"/>
@@ -2063,21 +2076,21 @@
       </c>
       <c r="I57">
         <f>C57+D57+E57+F57+G57+H57</f>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="58" spans="1:10">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>128</v>
+        <v>93</v>
       </c>
       <c r="B58" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2">
-        <v>4</v>
-      </c>
+      <c r="D58" s="2">
+        <v>2</v>
+      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
       <c r="H58" s="2">
@@ -2085,21 +2098,21 @@
       </c>
       <c r="I58">
         <f>C58+D58+E58+F58+G58+H58</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="59" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>129</v>
+        <v>91</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2">
-        <v>4</v>
-      </c>
+      <c r="D59" s="2">
+        <v>2</v>
+      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
       <c r="H59" s="2">
@@ -2107,15 +2120,15 @@
       </c>
       <c r="I59">
         <f>C59+D59+E59+F59+G59+H59</f>
-        <v>36</v>
-      </c>
-    </row>
-    <row r="60" spans="1:10">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="B60" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2132,147 +2145,191 @@
         <v>36</v>
       </c>
     </row>
-    <row r="61" spans="1:10">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>1</v>
+        <v>96</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>129</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
-      <c r="E61" s="2"/>
-      <c r="F61" s="1">
-        <v>8</v>
-      </c>
+      <c r="E61" s="2">
+        <v>4</v>
+      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2"/>
-      <c r="H61" s="1">
+      <c r="H61" s="2">
         <v>32</v>
       </c>
       <c r="I61">
         <f>C61+D61+E61+F61+G61+H61</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>4</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2"/>
-      <c r="F62" s="1">
-        <v>8</v>
-      </c>
+      <c r="E62" s="2">
+        <v>4</v>
+      </c>
+      <c r="F62" s="2"/>
       <c r="G62" s="2"/>
-      <c r="H62" s="1">
+      <c r="H62" s="2">
         <v>32</v>
       </c>
       <c r="I62">
         <f>C62+D62+E62+F62+G62+H62</f>
-        <v>40</v>
-      </c>
-    </row>
-    <row r="63" spans="1:10">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>32</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
-      <c r="F63" s="2">
+      <c r="F63" s="1">
         <v>8</v>
       </c>
       <c r="G63" s="2"/>
-      <c r="H63" s="2">
+      <c r="H63" s="1">
         <v>32</v>
       </c>
       <c r="I63">
         <f>C63+D63+E63+F63+G63+H63</f>
         <v>40</v>
       </c>
-      <c r="J63" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10">
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="1">
-        <v>16</v>
-      </c>
+      <c r="F64" s="1">
+        <v>8</v>
+      </c>
+      <c r="G64" s="2"/>
       <c r="H64" s="1">
         <v>32</v>
       </c>
       <c r="I64">
         <f>C64+D64+E64+F64+G64+H64</f>
-        <v>48</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B65" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2">
-        <v>16</v>
-      </c>
+      <c r="F65" s="2">
+        <v>8</v>
+      </c>
+      <c r="G65" s="2"/>
       <c r="H65" s="2">
         <v>32</v>
       </c>
       <c r="I65">
         <f>C65+D65+E65+F65+G65+H65</f>
+        <v>40</v>
+      </c>
+      <c r="J65" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>2</v>
+      </c>
+      <c r="B66" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="2"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="2"/>
+      <c r="F66" s="2"/>
+      <c r="G66" s="1">
+        <v>16</v>
+      </c>
+      <c r="H66" s="1">
+        <v>32</v>
+      </c>
+      <c r="I66">
+        <f>C66+D66+E66+F66+G66+H66</f>
         <v>48</v>
       </c>
     </row>
-    <row r="66" spans="1:10">
-      <c r="C66" t="s">
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>24</v>
+      </c>
+      <c r="B67" t="s">
+        <v>63</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
+        <v>16</v>
+      </c>
+      <c r="H67" s="2">
+        <v>32</v>
+      </c>
+      <c r="I67">
+        <f>C67+D67+E67+F67+G67+H67</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="C68" t="s">
         <v>47</v>
       </c>
-      <c r="D66" t="s">
+      <c r="D68" t="s">
         <v>48</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E68" t="s">
         <v>49</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F68" t="s">
         <v>50</v>
       </c>
-      <c r="G66" t="s">
+      <c r="G68" t="s">
         <v>51</v>
       </c>
-      <c r="H66" t="s">
+      <c r="H68" t="s">
         <v>52</v>
       </c>
-      <c r="I66" t="s">
+      <c r="I68" t="s">
         <v>87</v>
       </c>
-      <c r="J66" t="s">
+      <c r="J68" t="s">
         <v>88</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A1:J66">
+  <sortState ref="A1:J67">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2287,7 +2344,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2300,7 +2357,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
   <si>
     <t>折射</t>
   </si>
@@ -63,465 +63,474 @@
     <t>践踏</t>
   </si>
   <si>
+    <t>幽鬼之刃</t>
+  </si>
+  <si>
+    <t>奔腾</t>
+  </si>
+  <si>
+    <t>降临</t>
+  </si>
+  <si>
+    <t>怒意狂击</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>召唤冥界士兵</t>
+  </si>
+  <si>
+    <t>幽冥爆裂</t>
+  </si>
+  <si>
+    <t>召唤骷髅法师</t>
+  </si>
+  <si>
+    <t>本命一击</t>
+  </si>
+  <si>
+    <t>死亡契约</t>
+  </si>
+  <si>
+    <t>黑暗仪式</t>
+  </si>
+  <si>
+    <t>墓碑</t>
+  </si>
+  <si>
+    <t>暗影冲刺</t>
+  </si>
+  <si>
+    <t>雷云</t>
+  </si>
+  <si>
+    <t>连环霜冻</t>
+  </si>
+  <si>
+    <t>faceless_void_chronosphere</t>
+  </si>
+  <si>
+    <t>pudge_meat_hook</t>
+  </si>
+  <si>
+    <t>life_stealer_rage</t>
+  </si>
+  <si>
+    <t>razor_eye_of_the_storm</t>
+  </si>
+  <si>
+    <t>venomancer_poison_nova</t>
+  </si>
+  <si>
+    <t>troll_warlord_battle_trance</t>
+  </si>
+  <si>
+    <t>morphling_waveform</t>
+  </si>
+  <si>
+    <t>granite_golem_hp_aura</t>
+  </si>
+  <si>
+    <t>ogre_magi_frost_armor</t>
+  </si>
+  <si>
+    <t>dark_seer_surge</t>
+  </si>
+  <si>
+    <t>wisp_relocate</t>
+  </si>
+  <si>
+    <t>decay_summon_wraith_warrior</t>
+  </si>
+  <si>
+    <t>clinkz_death_pact</t>
+  </si>
+  <si>
+    <t>decay_dark_ritual_datadriven</t>
+  </si>
+  <si>
+    <t>decay_tombstone</t>
+  </si>
+  <si>
+    <t>hunt_thirst_lua</t>
+  </si>
+  <si>
+    <t>元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎杀8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mud_golem_hurl_boulder_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_frost_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant_wolf_critical_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_troll_warlord_ensnare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forged_spirit_melting_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+  </si>
+  <si>
+    <t>huskar_life_break</t>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小技能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_shadow_word</t>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_creature_forge_spirit</t>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_bulldoze</t>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enigma_midnight_pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼人重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
+  </si>
+  <si>
     <t>融化攻击</t>
-  </si>
-  <si>
-    <t>幽鬼之刃</t>
-  </si>
-  <si>
-    <t>奔腾</t>
-  </si>
-  <si>
-    <t>降临</t>
-  </si>
-  <si>
-    <t>怒意狂击</t>
-  </si>
-  <si>
-    <t>反伤</t>
-  </si>
-  <si>
-    <t>召唤冥界士兵</t>
-  </si>
-  <si>
-    <t>幽冥爆裂</t>
-  </si>
-  <si>
-    <t>召唤骷髅法师</t>
-  </si>
-  <si>
-    <t>本命一击</t>
-  </si>
-  <si>
-    <t>死亡契约</t>
-  </si>
-  <si>
-    <t>黑暗仪式</t>
-  </si>
-  <si>
-    <t>墓碑</t>
-  </si>
-  <si>
-    <t>暗影冲刺</t>
-  </si>
-  <si>
-    <t>雷云</t>
-  </si>
-  <si>
-    <t>连环霜冻</t>
-  </si>
-  <si>
-    <t>faceless_void_chronosphere</t>
-  </si>
-  <si>
-    <t>pudge_meat_hook</t>
-  </si>
-  <si>
-    <t>life_stealer_rage</t>
-  </si>
-  <si>
-    <t>razor_eye_of_the_storm</t>
-  </si>
-  <si>
-    <t>venomancer_poison_nova</t>
-  </si>
-  <si>
-    <t>troll_warlord_battle_trance</t>
-  </si>
-  <si>
-    <t>morphling_waveform</t>
-  </si>
-  <si>
-    <t>granite_golem_hp_aura</t>
-  </si>
-  <si>
-    <t>ogre_magi_frost_armor</t>
-  </si>
-  <si>
-    <t>dark_seer_surge</t>
-  </si>
-  <si>
-    <t>wisp_relocate</t>
-  </si>
-  <si>
-    <t>decay_summon_wraith_warrior</t>
-  </si>
-  <si>
-    <t>clinkz_death_pact</t>
-  </si>
-  <si>
-    <t>decay_dark_ritual_datadriven</t>
-  </si>
-  <si>
-    <t>decay_tombstone</t>
-  </si>
-  <si>
-    <t>hunt_thirst_lua</t>
-  </si>
-  <si>
-    <t>元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎杀8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mud_golem_hurl_boulder_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_frost_shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giant_wolf_critical_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_troll_warlord_ensnare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forged_spirit_melting_strike_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shredder_reactive_armor</t>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
-  </si>
-  <si>
-    <t>huskar_life_break</t>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_dota_creature_forge_spirit</t>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_bulldoze</t>
-  </si>
-  <si>
-    <t>威吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_seer_vacuum</t>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazzle_bad_juju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午夜凋零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enigma_midnight_pulse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼人重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_amplify_damage</t>
-  </si>
-  <si>
-    <t>sandking_caustic_finale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -878,11 +887,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
+      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -893,10 +902,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -905,7 +914,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1">
-        <f>C1+D1+E1+F1+G1+H1</f>
+        <f t="shared" ref="I1:I33" si="0">C1+D1+E1+F1+G1+H1</f>
         <v>0</v>
       </c>
     </row>
@@ -914,7 +923,7 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -925,16 +934,16 @@
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
       <c r="I2">
-        <f>C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>143</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>144</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -945,18 +954,17 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3">
-        <f>C3+D3+E3+F3+G3+H3</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>122</v>
       </c>
       <c r="B4" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="2">
+        <v>123</v>
+      </c>
+      <c r="C4" s="1">
         <v>1</v>
       </c>
       <c r="D4" s="2"/>
@@ -965,16 +973,16 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4">
-        <f>C4+D4+E4+F4+G4+H4</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -985,16 +993,16 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5">
-        <f>C5+D5+E5+F5+G5+H5</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>125</v>
+        <v>29</v>
       </c>
       <c r="B6" t="s">
-        <v>115</v>
+        <v>65</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1005,36 +1013,36 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
-        <f>C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
-      </c>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2">
-        <v>2</v>
-      </c>
+        <v>114</v>
+      </c>
+      <c r="C7" s="2">
+        <v>1</v>
+      </c>
+      <c r="D7" s="2"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7">
-        <f>C7+D7+E7+F7+G7+H7</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>53</v>
+        <v>37</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -1045,16 +1053,16 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8">
-        <f>C8+D8+E8+F8+G8+H8</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>52</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -1065,16 +1073,16 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9">
-        <f>C9+D9+E9+F9+G9+H9</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>70</v>
+        <v>19</v>
       </c>
       <c r="B10" t="s">
-        <v>69</v>
+        <v>115</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -1085,16 +1093,16 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10">
-        <f>C10+D10+E10+F10+G10+H10</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B11" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -1105,16 +1113,16 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11">
-        <f>C11+D11+E11+F11+G11+H11</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1125,20 +1133,18 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12">
-        <f>C12+D12+E12+F12+G12+H12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>141</v>
+        <v>73</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
-      </c>
-      <c r="C13" s="2">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C13" s="2"/>
       <c r="D13" s="2">
         <v>2</v>
       </c>
@@ -1147,16 +1153,16 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13">
-        <f>C13+D13+E13+F13+G13+H13</f>
-        <v>3</v>
+        <f t="shared" si="0"/>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>140</v>
       </c>
       <c r="B14" t="s">
-        <v>54</v>
+        <v>141</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1169,16 +1175,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14">
-        <f>C14+D14+E14+F14+G14+H14</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1191,36 +1197,38 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15">
-        <f>C15+D15+E15+F15+G15+H15</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>12</v>
       </c>
       <c r="B16" t="s">
-        <v>122</v>
-      </c>
-      <c r="C16" s="2"/>
-      <c r="D16" s="2"/>
-      <c r="E16" s="2">
-        <v>4</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="C16" s="2">
+        <v>1</v>
+      </c>
+      <c r="D16" s="2">
+        <v>2</v>
+      </c>
+      <c r="E16" s="2"/>
       <c r="F16" s="2"/>
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16">
-        <f>C16+D16+E16+F16+G16+H16</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>3</v>
       </c>
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>118</v>
       </c>
       <c r="B17" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1231,16 +1239,16 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17">
-        <f>C17+D17+E17+F17+G17+H17</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B18" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1251,16 +1259,16 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18">
-        <f>C18+D18+E18+F18+G18+H18</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1271,16 +1279,16 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19">
-        <f>C19+D19+E19+F19+G19+H19</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B20" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1291,20 +1299,18 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20">
-        <f>C20+D20+E20+F20+G20+H20</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>113</v>
+        <v>17</v>
       </c>
       <c r="B21" t="s">
-        <v>114</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
+        <v>40</v>
+      </c>
+      <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2">
         <v>4</v>
@@ -1313,16 +1319,16 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21">
-        <f>C21+D21+E21+F21+G21+H21</f>
-        <v>5</v>
+        <f t="shared" si="0"/>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>29</v>
+        <v>112</v>
       </c>
       <c r="B22" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1335,38 +1341,38 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22">
-        <f>C22+D22+E22+F22+G22+H22</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="B23" t="s">
-        <v>110</v>
-      </c>
-      <c r="C23" s="2"/>
-      <c r="D23" s="1">
-        <v>2</v>
-      </c>
-      <c r="E23" s="1">
+        <v>108</v>
+      </c>
+      <c r="C23" s="2">
+        <v>1</v>
+      </c>
+      <c r="D23" s="2"/>
+      <c r="E23" s="2">
         <v>4</v>
       </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23">
-        <f>C23+D23+E23+F23+G23+H23</f>
-        <v>6</v>
+        <f t="shared" si="0"/>
+        <v>5</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="B24" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1">
@@ -1379,36 +1385,38 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24">
-        <f>C24+D24+E24+F24+G24+H24</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="D25" s="2"/>
-      <c r="E25" s="2"/>
-      <c r="F25" s="2">
-        <v>8</v>
-      </c>
+      <c r="D25" s="1">
+        <v>2</v>
+      </c>
+      <c r="E25" s="1">
+        <v>4</v>
+      </c>
+      <c r="F25" s="2"/>
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25">
-        <f>C25+D25+E25+F25+G25+H25</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>108</v>
+        <v>13</v>
       </c>
       <c r="B26" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1419,16 +1427,16 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26">
-        <f>C26+D26+E26+F26+G26+H26</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>107</v>
       </c>
       <c r="B27" t="s">
-        <v>75</v>
+        <v>45</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1439,16 +1447,16 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27">
-        <f>C27+D27+E27+F27+G27+H27</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="B28" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1459,16 +1467,16 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28">
-        <f>C28+D28+E28+F28+G28+H28</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="B29" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1479,16 +1487,16 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29">
-        <f>C29+D29+E29+F29+G29+H29</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B30" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1499,20 +1507,18 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30">
-        <f>C30+D30+E30+F30+G30+H30</f>
+        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>102</v>
+        <v>80</v>
       </c>
       <c r="B31" t="s">
-        <v>103</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
       <c r="F31" s="2">
@@ -1521,43 +1527,43 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31">
-        <f>C31+D31+E31+F31+G31+H31</f>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>3</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="1">
+        <v>102</v>
+      </c>
+      <c r="C32" s="2">
         <v>1</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="1">
+      <c r="F32" s="2">
         <v>8</v>
       </c>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32">
-        <f>C32+D32+E32+F32+G32+H32</f>
+        <f t="shared" si="0"/>
         <v>9</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>107</v>
+        <v>3</v>
       </c>
       <c r="B33" t="s">
-        <v>106</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="2">
-        <v>2</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1</v>
+      </c>
+      <c r="D33" s="2"/>
       <c r="E33" s="2"/>
       <c r="F33" s="1">
         <v>8</v>
@@ -1565,16 +1571,16 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33">
-        <f>C33+D33+E33+F33+G33+H33</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" t="s">
         <v>105</v>
-      </c>
-      <c r="B34" t="s">
-        <v>104</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2">
@@ -1587,38 +1593,38 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <f>C34+D34+E34+F34+G34+H34</f>
+        <f t="shared" ref="I34:I65" si="1">C34+D34+E34+F34+G34+H34</f>
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2">
-        <v>4</v>
-      </c>
-      <c r="F35" s="2">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1"/>
+      <c r="D35" s="2">
+        <v>2</v>
+      </c>
+      <c r="E35" s="2"/>
+      <c r="F35" s="1">
         <v>8</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f>C35+D35+E35+F35+G35+H35</f>
-        <v>12</v>
+        <f t="shared" si="1"/>
+        <v>10</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>68</v>
+        <v>117</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1631,36 +1637,38 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f>C36+D36+E36+F36+G36+H36</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>127</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>126</v>
+        <v>66</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="2"/>
-      <c r="G37" s="2">
-        <v>16</v>
-      </c>
+      <c r="E37" s="2">
+        <v>4</v>
+      </c>
+      <c r="F37" s="2">
+        <v>8</v>
+      </c>
+      <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f>C37+D37+E37+F37+G37+H37</f>
-        <v>16</v>
+        <f t="shared" si="1"/>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>60</v>
+        <v>125</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1671,16 +1679,16 @@
       </c>
       <c r="H38" s="2"/>
       <c r="I38">
-        <f>C38+D38+E38+F38+G38+H38</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>19</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s">
-        <v>117</v>
+        <v>59</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1691,16 +1699,16 @@
       </c>
       <c r="H39" s="2"/>
       <c r="I39">
-        <f>C39+D39+E39+F39+G39+H39</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>18</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>116</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1711,16 +1719,16 @@
       </c>
       <c r="H40" s="2"/>
       <c r="I40">
-        <f>C40+D40+E40+F40+G40+H40</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1731,20 +1739,18 @@
       </c>
       <c r="H41" s="2"/>
       <c r="I41">
-        <f>C41+D41+E41+F41+G41+H41</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B42" t="s">
-        <v>100</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2"/>
@@ -1753,8 +1759,8 @@
       </c>
       <c r="H42" s="2"/>
       <c r="I42">
-        <f>C42+D42+E42+F42+G42+H42</f>
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -1762,7 +1768,7 @@
         <v>98</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>99</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1775,21 +1781,21 @@
       </c>
       <c r="H43" s="2"/>
       <c r="I43">
-        <f>C43+D43+E43+F43+G43+H43</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C44" s="2">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
       <c r="G44" s="2">
@@ -1797,16 +1803,16 @@
       </c>
       <c r="H44" s="2"/>
       <c r="I44">
-        <f>C44+D44+E44+F44+G44+H44</f>
-        <v>18</v>
+        <f t="shared" si="1"/>
+        <v>17</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="B45" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
@@ -1819,20 +1825,18 @@
       </c>
       <c r="H45" s="2"/>
       <c r="I45">
-        <f>C45+D45+E45+F45+G45+H45</f>
+        <f t="shared" si="1"/>
         <v>18</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>135</v>
-      </c>
-      <c r="C46" s="2">
-        <v>1</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="C46" s="2"/>
       <c r="D46" s="2">
         <v>2</v>
       </c>
@@ -1843,30 +1847,32 @@
       </c>
       <c r="H46" s="2"/>
       <c r="I46">
-        <f>C46+D46+E46+F46+G46+H46</f>
-        <v>19</v>
+        <f t="shared" si="1"/>
+        <v>18</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B47" t="s">
-        <v>138</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>4</v>
-      </c>
+        <v>134</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2">
         <v>16</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47">
-        <f>C47+D47+E47+F47+G47+H47</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>19</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -1874,93 +1880,95 @@
         <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>31</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="1">
+      <c r="E48" s="2">
         <v>4</v>
       </c>
       <c r="F48" s="2"/>
-      <c r="G48" s="1">
+      <c r="G48" s="2">
         <v>16</v>
       </c>
       <c r="H48" s="2"/>
       <c r="I48">
-        <f>C48+D48+E48+F48+G48+H48</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>5</v>
+        <v>135</v>
       </c>
       <c r="B49" t="s">
-        <v>36</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="1">
-        <v>8</v>
-      </c>
+      <c r="E49" s="1">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2"/>
       <c r="G49" s="1">
         <v>16</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49">
-        <f>C49+D49+E49+F49+G49+H49</f>
-        <v>24</v>
+        <f t="shared" si="1"/>
+        <v>20</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="B50" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
-      <c r="F50" s="2">
+      <c r="F50" s="1">
         <v>8</v>
       </c>
-      <c r="G50" s="2">
+      <c r="G50" s="1">
         <v>16</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50">
-        <f>C50+D50+E50+F50+G50+H50</f>
+        <f t="shared" si="1"/>
         <v>24</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B51" t="s">
-        <v>42</v>
+        <v>63</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2">
-        <v>32</v>
-      </c>
+      <c r="F51" s="2">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2">
+        <v>16</v>
+      </c>
+      <c r="H51" s="2"/>
       <c r="I51">
-        <f>C51+D51+E51+F51+G51+H51</f>
-        <v>32</v>
+        <f t="shared" si="1"/>
+        <v>24</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="B52" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1971,16 +1979,16 @@
         <v>32</v>
       </c>
       <c r="I52">
-        <f>C52+D52+E52+F52+G52+H52</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B53" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -1991,16 +1999,16 @@
         <v>32</v>
       </c>
       <c r="I53">
-        <f>C53+D53+E53+F53+G53+H53</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2011,16 +2019,16 @@
         <v>32</v>
       </c>
       <c r="I54">
-        <f>C54+D54+E54+F54+G54+H54</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>140</v>
+        <v>22</v>
       </c>
       <c r="B55" t="s">
-        <v>139</v>
+        <v>61</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2031,20 +2039,18 @@
         <v>32</v>
       </c>
       <c r="I55">
-        <f>C55+D55+E55+F55+G55+H55</f>
+        <f t="shared" si="1"/>
         <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B56" t="s">
-        <v>94</v>
-      </c>
-      <c r="C56" s="2">
-        <v>1</v>
-      </c>
+        <v>138</v>
+      </c>
+      <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
       <c r="F56" s="2"/>
@@ -2053,16 +2059,16 @@
         <v>32</v>
       </c>
       <c r="I56">
-        <f>C56+D56+E56+F56+G56+H56</f>
-        <v>33</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>22</v>
+        <v>94</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>93</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -2075,21 +2081,21 @@
         <v>32</v>
       </c>
       <c r="I57">
-        <f>C57+D57+E57+F57+G57+H57</f>
+        <f t="shared" si="1"/>
         <v>33</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>93</v>
+        <v>21</v>
       </c>
       <c r="B58" t="s">
-        <v>92</v>
-      </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
+      <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
       <c r="G58" s="2"/>
@@ -2097,13 +2103,13 @@
         <v>32</v>
       </c>
       <c r="I58">
-        <f>C58+D58+E58+F58+G58+H58</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B59" t="s">
         <v>91</v>
@@ -2119,38 +2125,38 @@
         <v>32</v>
       </c>
       <c r="I59">
-        <f>C59+D59+E59+F59+G59+H59</f>
+        <f t="shared" si="1"/>
         <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="B60" t="s">
-        <v>131</v>
+        <v>90</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
-      <c r="E60" s="2">
-        <v>4</v>
-      </c>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
+      <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
       <c r="H60" s="2">
         <v>32</v>
       </c>
       <c r="I60">
-        <f>C60+D60+E60+F60+G60+H60</f>
-        <v>36</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>96</v>
+        <v>127</v>
       </c>
       <c r="B61" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2163,16 +2169,16 @@
         <v>32</v>
       </c>
       <c r="I61">
-        <f>C61+D61+E61+F61+G61+H61</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="B62" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2185,38 +2191,38 @@
         <v>32</v>
       </c>
       <c r="I62">
-        <f>C62+D62+E62+F62+G62+H62</f>
+        <f t="shared" si="1"/>
         <v>36</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>1</v>
+        <v>131</v>
       </c>
       <c r="B63" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
-      <c r="F63" s="1">
-        <v>8</v>
-      </c>
+      <c r="E63" s="2">
+        <v>4</v>
+      </c>
+      <c r="F63" s="2"/>
       <c r="G63" s="2"/>
-      <c r="H63" s="1">
+      <c r="H63" s="2">
         <v>32</v>
       </c>
       <c r="I63">
-        <f>C63+D63+E63+F63+G63+H63</f>
-        <v>40</v>
+        <f t="shared" si="1"/>
+        <v>36</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B64" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2229,103 +2235,125 @@
         <v>32</v>
       </c>
       <c r="I64">
-        <f>C64+D64+E64+F64+G64+H64</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B65" t="s">
-        <v>130</v>
+        <v>34</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
-      <c r="F65" s="2">
+      <c r="F65" s="1">
         <v>8</v>
       </c>
       <c r="G65" s="2"/>
-      <c r="H65" s="2">
+      <c r="H65" s="1">
         <v>32</v>
       </c>
       <c r="I65">
-        <f>C65+D65+E65+F65+G65+H65</f>
+        <f t="shared" si="1"/>
         <v>40</v>
-      </c>
-      <c r="J65" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="1">
-        <v>16</v>
-      </c>
-      <c r="H66" s="1">
+      <c r="F66" s="2">
+        <v>8</v>
+      </c>
+      <c r="G66" s="2"/>
+      <c r="H66" s="2">
         <v>32</v>
       </c>
       <c r="I66">
-        <f>C66+D66+E66+F66+G66+H66</f>
-        <v>48</v>
+        <f t="shared" ref="I66:I97" si="2">C66+D66+E66+F66+G66+H66</f>
+        <v>40</v>
+      </c>
+      <c r="J66" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>24</v>
+        <v>2</v>
       </c>
       <c r="B67" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
-      <c r="G67" s="2">
+      <c r="G67" s="1">
         <v>16</v>
       </c>
-      <c r="H67" s="2">
+      <c r="H67" s="1">
         <v>32</v>
       </c>
       <c r="I67">
-        <f>C67+D67+E67+F67+G67+H67</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
     <row r="68" spans="1:10">
-      <c r="C68" t="s">
+      <c r="A68" t="s">
+        <v>23</v>
+      </c>
+      <c r="B68" t="s">
+        <v>62</v>
+      </c>
+      <c r="C68" s="2"/>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2">
+        <v>16</v>
+      </c>
+      <c r="H68" s="2">
+        <v>32</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="C69" t="s">
+        <v>46</v>
+      </c>
+      <c r="D69" t="s">
         <v>47</v>
       </c>
-      <c r="D68" t="s">
+      <c r="E69" t="s">
         <v>48</v>
       </c>
-      <c r="E68" t="s">
+      <c r="F69" t="s">
         <v>49</v>
       </c>
-      <c r="F68" t="s">
+      <c r="G69" t="s">
         <v>50</v>
       </c>
-      <c r="G68" t="s">
+      <c r="H69" t="s">
         <v>51</v>
       </c>
-      <c r="H68" t="s">
-        <v>52</v>
-      </c>
-      <c r="I68" t="s">
+      <c r="I69" t="s">
+        <v>86</v>
+      </c>
+      <c r="J69" t="s">
         <v>87</v>
-      </c>
-      <c r="J68" t="s">
-        <v>88</v>
       </c>
     </row>
   </sheetData>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -891,13 +891,13 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -2279,7 +2279,7 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I97" si="2">C66+D66+E66+F66+G66+H66</f>
+        <f t="shared" ref="I66:I68" si="2">C66+D66+E66+F66+G66+H66</f>
         <v>40</v>
       </c>
       <c r="J66" t="s">
@@ -2372,7 +2372,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2385,7 +2385,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
   <si>
     <t>折射</t>
   </si>
@@ -24,9 +24,6 @@
     <t>肉钩</t>
   </si>
   <si>
-    <t>狂霸</t>
-  </si>
-  <si>
     <t>风暴之眼</t>
   </si>
   <si>
@@ -325,211 +322,224 @@
     <t>warlock_shadow_word</t>
   </si>
   <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_creature_forge_spirit</t>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_bulldoze</t>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enigma_midnight_pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>visage_gravekeepers_cloak_lua</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_dota_creature_forge_spirit</t>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_bulldoze</t>
-  </si>
-  <si>
-    <t>威吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_seer_vacuum</t>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazzle_bad_juju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午夜凋零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enigma_midnight_pulse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鱼人重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_amplify_damage</t>
-  </si>
-  <si>
-    <t>sandking_caustic_finale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像形态</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -887,11 +897,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J69"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -902,10 +912,10 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -920,10 +930,10 @@
     </row>
     <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -940,10 +950,10 @@
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -959,10 +969,10 @@
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -979,10 +989,10 @@
     </row>
     <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -999,10 +1009,10 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1019,10 +1029,10 @@
     </row>
     <row r="7" spans="1:9">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1039,10 +1049,10 @@
     </row>
     <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" s="2">
@@ -1059,10 +1069,10 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -1079,10 +1089,10 @@
     </row>
     <row r="10" spans="1:9">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -1099,10 +1109,10 @@
     </row>
     <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -1119,10 +1129,10 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1139,10 +1149,10 @@
     </row>
     <row r="13" spans="1:9">
       <c r="A13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1159,10 +1169,10 @@
     </row>
     <row r="14" spans="1:9">
       <c r="A14" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="B14" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C14" s="2">
         <v>1</v>
@@ -1181,10 +1191,10 @@
     </row>
     <row r="15" spans="1:9">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1203,10 +1213,10 @@
     </row>
     <row r="16" spans="1:9">
       <c r="A16" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1225,10 +1235,10 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
@@ -1245,10 +1255,10 @@
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B18" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
@@ -1265,10 +1275,10 @@
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1285,10 +1295,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1305,10 +1315,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B21" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1325,10 +1335,10 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C22" s="2">
         <v>1</v>
@@ -1347,10 +1357,10 @@
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C23" s="2">
         <v>1</v>
@@ -1369,10 +1379,10 @@
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B24" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="1">
@@ -1394,7 +1404,7 @@
         <v>0</v>
       </c>
       <c r="B25" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="1">
@@ -1413,10 +1423,10 @@
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1433,10 +1443,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B27" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1453,10 +1463,10 @@
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1473,10 +1483,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
@@ -1493,10 +1503,10 @@
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B30" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1513,10 +1523,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
+        <v>79</v>
+      </c>
+      <c r="B31" t="s">
         <v>80</v>
-      </c>
-      <c r="B31" t="s">
-        <v>81</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1533,10 +1543,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B32" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2">
         <v>1</v>
@@ -1555,10 +1565,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B33" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C33" s="1">
         <v>1</v>
@@ -1577,10 +1587,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B34" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="2">
@@ -1593,16 +1603,16 @@
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <f t="shared" ref="I34:I65" si="1">C34+D34+E34+F34+G34+H34</f>
+        <f t="shared" ref="I34:I66" si="1">C34+D34+E34+F34+G34+H34</f>
         <v>10</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" s="1"/>
       <c r="D35" s="2">
@@ -1621,10 +1631,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1643,10 +1653,10 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B37" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1665,10 +1675,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1685,10 +1695,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s">
         <v>58</v>
-      </c>
-      <c r="B39" t="s">
-        <v>59</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1705,10 +1715,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B40" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1725,10 +1735,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B41" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1745,10 +1755,10 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B42" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1765,10 +1775,10 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B43" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -1787,10 +1797,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B44" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2">
         <v>1</v>
@@ -1809,10 +1819,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2">
@@ -1831,10 +1841,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2">
@@ -1853,18 +1863,18 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>133</v>
+        <v>143</v>
       </c>
       <c r="B47" t="s">
-        <v>134</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2">
         <v>2</v>
       </c>
-      <c r="E47" s="2"/>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
       <c r="F47" s="2"/>
       <c r="G47" s="2">
         <v>16</v>
@@ -1872,15 +1882,15 @@
       <c r="H47" s="2"/>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -1899,10 +1909,10 @@
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B49" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C49" s="1"/>
       <c r="D49" s="2"/>
@@ -1921,10 +1931,10 @@
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B50" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -1943,10 +1953,10 @@
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B51" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -1965,10 +1975,10 @@
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B52" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -1985,10 +1995,10 @@
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B53" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2005,10 +2015,10 @@
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2025,10 +2035,10 @@
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B55" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2045,10 +2055,10 @@
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2065,10 +2075,10 @@
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B57" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -2087,10 +2097,10 @@
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B58" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -2109,10 +2119,10 @@
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B59" t="s">
-        <v>91</v>
+        <v>144</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2">
@@ -2125,16 +2135,16 @@
         <v>32</v>
       </c>
       <c r="I59">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I59" si="2">C59+D59+E59+F59+G59+H59</f>
         <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>90</v>
+        <v>145</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
@@ -2153,16 +2163,16 @@
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>127</v>
+        <v>88</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>89</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
-      <c r="E61" s="2">
-        <v>4</v>
-      </c>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
+      <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
       <c r="H61" s="2">
@@ -2170,12 +2180,12 @@
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>95</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
         <v>128</v>
@@ -2197,10 +2207,10 @@
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2219,32 +2229,32 @@
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>1</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>31</v>
+        <v>130</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="1">
-        <v>8</v>
-      </c>
+      <c r="E64" s="2">
+        <v>4</v>
+      </c>
+      <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="1">
+      <c r="H64" s="2">
         <v>32</v>
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B65" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2263,97 +2273,119 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>33</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2"/>
       <c r="E66" s="2"/>
-      <c r="F66" s="2">
+      <c r="F66" s="1">
         <v>8</v>
       </c>
       <c r="G66" s="2"/>
-      <c r="H66" s="2">
+      <c r="H66" s="1">
         <v>32</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66:I97" si="2">C66+D66+E66+F66+G66+H66</f>
+        <f t="shared" si="1"/>
         <v>40</v>
-      </c>
-      <c r="J66" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="B67" t="s">
-        <v>32</v>
+        <v>127</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
       <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="1">
-        <v>16</v>
-      </c>
-      <c r="H67" s="1">
+      <c r="F67" s="2">
+        <v>8</v>
+      </c>
+      <c r="G67" s="2"/>
+      <c r="H67" s="2">
         <v>32</v>
       </c>
       <c r="I67">
-        <f t="shared" si="2"/>
-        <v>48</v>
+        <f t="shared" ref="I67:I69" si="3">C67+D67+E67+F67+G67+H67</f>
+        <v>40</v>
+      </c>
+      <c r="J67" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>23</v>
+        <v>142</v>
       </c>
       <c r="B68" t="s">
-        <v>62</v>
+        <v>31</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
-      <c r="G68" s="2">
+      <c r="G68" s="1">
         <v>16</v>
       </c>
-      <c r="H68" s="2">
+      <c r="H68" s="1">
         <v>32</v>
       </c>
       <c r="I68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
     <row r="69" spans="1:10">
-      <c r="C69" t="s">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69" t="s">
+        <v>61</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
+        <v>16</v>
+      </c>
+      <c r="H69" s="2">
+        <v>32</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="C70" t="s">
+        <v>45</v>
+      </c>
+      <c r="D70" t="s">
         <v>46</v>
       </c>
-      <c r="D69" t="s">
+      <c r="E70" t="s">
         <v>47</v>
       </c>
-      <c r="E69" t="s">
+      <c r="F70" t="s">
         <v>48</v>
       </c>
-      <c r="F69" t="s">
+      <c r="G70" t="s">
         <v>49</v>
       </c>
-      <c r="G69" t="s">
+      <c r="H70" t="s">
         <v>50</v>
       </c>
-      <c r="H69" t="s">
-        <v>51</v>
-      </c>
-      <c r="I69" t="s">
+      <c r="I70" t="s">
+        <v>85</v>
+      </c>
+      <c r="J70" t="s">
         <v>86</v>
-      </c>
-      <c r="J69" t="s">
-        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -901,7 +901,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B62" sqref="B62"/>
+      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
   <si>
     <t>折射</t>
   </si>
@@ -117,429 +117,484 @@
     <t>razor_eye_of_the_storm</t>
   </si>
   <si>
+    <t>troll_warlord_battle_trance</t>
+  </si>
+  <si>
+    <t>morphling_waveform</t>
+  </si>
+  <si>
+    <t>granite_golem_hp_aura</t>
+  </si>
+  <si>
+    <t>ogre_magi_frost_armor</t>
+  </si>
+  <si>
+    <t>dark_seer_surge</t>
+  </si>
+  <si>
+    <t>wisp_relocate</t>
+  </si>
+  <si>
+    <t>decay_summon_wraith_warrior</t>
+  </si>
+  <si>
+    <t>clinkz_death_pact</t>
+  </si>
+  <si>
+    <t>decay_dark_ritual_datadriven</t>
+  </si>
+  <si>
+    <t>decay_tombstone</t>
+  </si>
+  <si>
+    <t>hunt_thirst_lua</t>
+  </si>
+  <si>
+    <t>元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎杀8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mud_golem_hurl_boulder_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_frost_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant_wolf_critical_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_troll_warlord_ensnare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forged_spirit_melting_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+  </si>
+  <si>
+    <t>huskar_life_break</t>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_shadow_word</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>npc_dota_creature_forge_spirit</t>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_bulldoze</t>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enigma_midnight_pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_golem_flaming_fists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰之拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_frostbite</t>
+  </si>
+  <si>
+    <t>冰封禁制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_spin_web</t>
+  </si>
+  <si>
+    <t>织网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_insatiable_hunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小技能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_poison_sting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>venomancer_poison_nova</t>
-  </si>
-  <si>
-    <t>troll_warlord_battle_trance</t>
-  </si>
-  <si>
-    <t>morphling_waveform</t>
-  </si>
-  <si>
-    <t>granite_golem_hp_aura</t>
-  </si>
-  <si>
-    <t>ogre_magi_frost_armor</t>
-  </si>
-  <si>
-    <t>dark_seer_surge</t>
-  </si>
-  <si>
-    <t>wisp_relocate</t>
-  </si>
-  <si>
-    <t>decay_summon_wraith_warrior</t>
-  </si>
-  <si>
-    <t>clinkz_death_pact</t>
-  </si>
-  <si>
-    <t>decay_dark_ritual_datadriven</t>
-  </si>
-  <si>
-    <t>decay_tombstone</t>
-  </si>
-  <si>
-    <t>hunt_thirst_lua</t>
-  </si>
-  <si>
-    <t>元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎杀8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mud_golem_hurl_boulder_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_frost_shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giant_wolf_critical_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_troll_warlord_ensnare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forged_spirit_melting_strike_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shredder_reactive_armor</t>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
-  </si>
-  <si>
-    <t>huskar_life_break</t>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>npc_dota_creature_forge_spirit</t>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_bulldoze</t>
-  </si>
-  <si>
-    <t>威吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_seer_vacuum</t>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazzle_bad_juju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午夜凋零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enigma_midnight_pulse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_amplify_damage</t>
-  </si>
-  <si>
-    <t>sandking_caustic_finale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoker_tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_summon_familiars_stone_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石像形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -897,63 +952,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B65" sqref="B65"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1">
-        <f t="shared" ref="I1:I33" si="0">C1+D1+E1+F1+G1+H1</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9">
+    <row r="1" spans="1:10">
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" t="s">
+        <v>47</v>
+      </c>
+      <c r="G1" t="s">
+        <v>48</v>
+      </c>
+      <c r="H1" t="s">
+        <v>49</v>
+      </c>
+      <c r="I1" t="s">
+        <v>84</v>
+      </c>
+      <c r="J1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>149</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>148</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
       <c r="I2">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="I2:I37" si="0">C2+D2+E2+F2+G2+H2</f>
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>140</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -964,15 +1022,16 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B4" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -983,18 +1042,17 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="B5" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="2">
+        <v>119</v>
+      </c>
+      <c r="C5" s="1">
         <v>1</v>
       </c>
       <c r="D5" s="2"/>
@@ -1007,12 +1065,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>28</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1027,12 +1085,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>112</v>
+        <v>63</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1047,32 +1105,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>120</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
-      </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2">
-        <v>2</v>
-      </c>
+        <v>110</v>
+      </c>
+      <c r="C8" s="2">
+        <v>1</v>
+      </c>
+      <c r="D8" s="2"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8">
         <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>35</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -1087,12 +1145,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>113</v>
+        <v>50</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -1107,12 +1165,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -1127,12 +1185,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B12" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1147,12 +1205,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1167,16 +1225,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="B14" t="s">
-        <v>138</v>
-      </c>
-      <c r="C14" s="2">
-        <v>1</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C14" s="2"/>
       <c r="D14" s="2">
         <v>2</v>
       </c>
@@ -1186,19 +1242,17 @@
       <c r="H14" s="2"/>
       <c r="I14">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>71</v>
       </c>
       <c r="B15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C15" s="2">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C15" s="2"/>
       <c r="D15" s="2">
         <v>2</v>
       </c>
@@ -1208,15 +1262,15 @@
       <c r="H15" s="2"/>
       <c r="I15">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>11</v>
+        <v>134</v>
       </c>
       <c r="B16" t="s">
-        <v>37</v>
+        <v>135</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1235,70 +1289,72 @@
     </row>
     <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="C17" s="2"/>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2">
-        <v>4</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C17" s="2">
+        <v>1</v>
+      </c>
+      <c r="D17" s="2">
+        <v>2</v>
+      </c>
+      <c r="E17" s="2"/>
       <c r="F17" s="2"/>
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>117</v>
-      </c>
-      <c r="C18" s="2"/>
-      <c r="D18" s="2"/>
-      <c r="E18" s="2">
-        <v>4</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <v>2</v>
+      </c>
+      <c r="E18" s="2"/>
       <c r="F18" s="2"/>
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>118</v>
+        <v>41</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
-      <c r="E19" s="2">
-        <v>4</v>
-      </c>
+      <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19">
-        <f t="shared" si="0"/>
-        <v>4</v>
+        <f>C19+D19+E19+F19+G19+H19</f>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
+        <v>117</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1315,10 +1371,10 @@
     </row>
     <row r="21" spans="1:9">
       <c r="A21" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>115</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1335,14 +1391,12 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" t="s">
-        <v>110</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>111</v>
-      </c>
-      <c r="C22" s="2">
-        <v>1</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2">
         <v>4</v>
@@ -1352,19 +1406,17 @@
       <c r="H22" s="2"/>
       <c r="I22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
-      </c>
-      <c r="C23" s="2">
-        <v>1</v>
-      </c>
+        <v>37</v>
+      </c>
+      <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2">
         <v>4</v>
@@ -1374,21 +1426,19 @@
       <c r="H23" s="2"/>
       <c r="I23">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" t="s">
-        <v>108</v>
+        <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="C24" s="2"/>
-      <c r="D24" s="1">
-        <v>2</v>
-      </c>
-      <c r="E24" s="1">
+      <c r="D24" s="2"/>
+      <c r="E24" s="2">
         <v>4</v>
       </c>
       <c r="F24" s="2"/>
@@ -1396,21 +1446,21 @@
       <c r="H24" s="2"/>
       <c r="I24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>0</v>
+        <v>108</v>
       </c>
       <c r="B25" t="s">
         <v>109</v>
       </c>
-      <c r="C25" s="2"/>
-      <c r="D25" s="1">
-        <v>2</v>
-      </c>
-      <c r="E25" s="1">
+      <c r="C25" s="2">
+        <v>1</v>
+      </c>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2">
         <v>4</v>
       </c>
       <c r="F25" s="2"/>
@@ -1418,95 +1468,100 @@
       <c r="H25" s="2"/>
       <c r="I25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
-      </c>
-      <c r="C26" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C26" s="2">
+        <v>1</v>
+      </c>
       <c r="D26" s="2"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="2">
-        <v>8</v>
-      </c>
+      <c r="E26" s="2">
+        <v>4</v>
+      </c>
+      <c r="F26" s="2"/>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s">
         <v>105</v>
       </c>
-      <c r="B27" t="s">
-        <v>44</v>
-      </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2">
-        <v>8</v>
-      </c>
+      <c r="D27" s="1">
+        <v>2</v>
+      </c>
+      <c r="E27" s="1">
+        <v>4</v>
+      </c>
+      <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9">
       <c r="A28" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>73</v>
+        <v>107</v>
       </c>
       <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2">
-        <v>8</v>
-      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>76</v>
+        <v>151</v>
       </c>
       <c r="B29" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="2">
         <v>8</v>
       </c>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="30" spans="1:9">
       <c r="A30" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>77</v>
+        <v>53</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1523,10 +1578,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>43</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1543,14 +1598,12 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>99</v>
+        <v>73</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
-      </c>
-      <c r="C32" s="2">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
       <c r="F32" s="2">
@@ -1560,205 +1613,207 @@
       <c r="H32" s="2"/>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="1">
-        <v>1</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="1">
+      <c r="F33" s="2">
         <v>8</v>
       </c>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="1"/>
-      <c r="D34" s="2">
-        <v>2</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C34" s="2"/>
+      <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="1">
+      <c r="F34" s="2">
         <v>8</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <f t="shared" ref="I34:I66" si="1">C34+D34+E34+F34+G34+H34</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="B35" t="s">
-        <v>101</v>
-      </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="2">
-        <v>2</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C35" s="2"/>
+      <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="1">
+      <c r="F35" s="2">
         <v>8</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>115</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
         <v>98</v>
       </c>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2">
+        <v>1</v>
+      </c>
       <c r="D36" s="2"/>
-      <c r="E36" s="2">
-        <v>4</v>
-      </c>
+      <c r="E36" s="2"/>
       <c r="F36" s="2">
         <v>8</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>66</v>
+        <v>2</v>
       </c>
       <c r="B37" t="s">
-        <v>65</v>
-      </c>
-      <c r="C37" s="2"/>
+        <v>32</v>
+      </c>
+      <c r="C37" s="1">
+        <v>1</v>
+      </c>
       <c r="D37" s="2"/>
-      <c r="E37" s="2">
-        <v>4</v>
-      </c>
-      <c r="F37" s="2">
+      <c r="E37" s="2"/>
+      <c r="F37" s="1">
         <v>8</v>
       </c>
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f t="shared" si="0"/>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
       <c r="B38" t="s">
-        <v>123</v>
-      </c>
-      <c r="C38" s="2"/>
-      <c r="D38" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="C38" s="1"/>
+      <c r="D38" s="2">
+        <v>2</v>
+      </c>
       <c r="E38" s="2"/>
-      <c r="F38" s="2"/>
-      <c r="G38" s="2">
-        <v>16</v>
-      </c>
+      <c r="F38" s="1">
+        <v>8</v>
+      </c>
+      <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f t="shared" ref="I38:I73" si="1">C38+D38+E38+F38+G38+H38</f>
+        <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>57</v>
+        <v>100</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
-      </c>
-      <c r="C39" s="2"/>
-      <c r="D39" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C39" s="1"/>
+      <c r="D39" s="2">
+        <v>2</v>
+      </c>
       <c r="E39" s="2"/>
-      <c r="F39" s="2"/>
-      <c r="G39" s="2">
-        <v>16</v>
-      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="B40" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
-      <c r="E40" s="2"/>
-      <c r="F40" s="2"/>
-      <c r="G40" s="2">
-        <v>16</v>
-      </c>
+      <c r="E40" s="2">
+        <v>4</v>
+      </c>
+      <c r="F40" s="2">
+        <v>8</v>
+      </c>
+      <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>84</v>
+        <v>65</v>
       </c>
       <c r="B41" t="s">
-        <v>83</v>
+        <v>64</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
-      <c r="E41" s="2"/>
-      <c r="F41" s="2"/>
-      <c r="G41" s="2">
-        <v>16</v>
-      </c>
+      <c r="E41" s="2">
+        <v>4</v>
+      </c>
+      <c r="F41" s="2">
+        <v>8</v>
+      </c>
+      <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>94</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
-        <v>53</v>
+        <v>121</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
@@ -1775,14 +1830,12 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>96</v>
+        <v>56</v>
       </c>
       <c r="B43" t="s">
-        <v>97</v>
-      </c>
-      <c r="C43" s="2">
-        <v>1</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C43" s="2"/>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
       <c r="F43" s="2"/>
@@ -1792,19 +1845,17 @@
       <c r="H43" s="2"/>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="2">
-        <v>1</v>
-      </c>
+        <v>112</v>
+      </c>
+      <c r="C44" s="2"/>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="2"/>
@@ -1814,20 +1865,18 @@
       <c r="H44" s="2"/>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>13</v>
+        <v>83</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>82</v>
       </c>
       <c r="C45" s="2"/>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="2"/>
       <c r="G45" s="2">
@@ -1836,20 +1885,18 @@
       <c r="H45" s="2"/>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>82</v>
+        <v>92</v>
       </c>
       <c r="B46" t="s">
-        <v>81</v>
+        <v>52</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="2">
-        <v>2</v>
-      </c>
+      <c r="D46" s="2"/>
       <c r="E46" s="2"/>
       <c r="F46" s="2"/>
       <c r="G46" s="2">
@@ -1858,45 +1905,42 @@
       <c r="H46" s="2"/>
       <c r="I46">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B47" t="s">
-        <v>131</v>
-      </c>
-      <c r="C47" s="2"/>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2">
-        <v>4</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C47" s="2">
+        <v>1</v>
+      </c>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2"/>
       <c r="F47" s="2"/>
       <c r="G47" s="2">
         <v>16</v>
       </c>
       <c r="H47" s="2"/>
       <c r="I47">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <v>17</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="B48" t="s">
-        <v>134</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>95</v>
+      </c>
+      <c r="C48" s="2">
+        <v>1</v>
+      </c>
       <c r="D48" s="2"/>
-      <c r="E48" s="2">
-        <v>4</v>
-      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="2"/>
       <c r="G48" s="2">
         <v>16</v>
@@ -1904,207 +1948,217 @@
       <c r="H48" s="2"/>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:9">
       <c r="A49" t="s">
-        <v>132</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="C49" s="2">
+        <v>1</v>
+      </c>
       <c r="D49" s="2"/>
-      <c r="E49" s="1">
-        <v>4</v>
-      </c>
+      <c r="E49" s="2"/>
       <c r="F49" s="2"/>
-      <c r="G49" s="1">
+      <c r="G49" s="2">
         <v>16</v>
       </c>
       <c r="H49" s="2"/>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="B50" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
+      <c r="D50" s="2">
+        <v>2</v>
+      </c>
       <c r="E50" s="2"/>
-      <c r="F50" s="1">
-        <v>8</v>
-      </c>
-      <c r="G50" s="1">
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
         <v>16</v>
       </c>
       <c r="H50" s="2"/>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="1:9">
       <c r="A51" t="s">
-        <v>26</v>
+        <v>81</v>
       </c>
       <c r="B51" t="s">
-        <v>62</v>
+        <v>80</v>
       </c>
       <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
+      <c r="D51" s="2">
+        <v>2</v>
+      </c>
       <c r="E51" s="2"/>
-      <c r="F51" s="2">
-        <v>8</v>
-      </c>
+      <c r="F51" s="2"/>
       <c r="G51" s="2">
         <v>16</v>
       </c>
       <c r="H51" s="2"/>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52" spans="1:9">
       <c r="A52" t="s">
-        <v>19</v>
+        <v>140</v>
       </c>
       <c r="B52" t="s">
-        <v>40</v>
+        <v>128</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
+      <c r="D52" s="2">
+        <v>2</v>
+      </c>
+      <c r="E52" s="2">
+        <v>4</v>
+      </c>
       <c r="F52" s="2"/>
-      <c r="G52" s="2"/>
-      <c r="H52" s="2">
-        <v>32</v>
-      </c>
+      <c r="G52" s="2">
+        <v>16</v>
+      </c>
+      <c r="H52" s="2"/>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>22</v>
       </c>
     </row>
     <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>130</v>
       </c>
       <c r="B53" t="s">
-        <v>41</v>
+        <v>131</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
-      <c r="E53" s="2"/>
+      <c r="E53" s="2">
+        <v>4</v>
+      </c>
       <c r="F53" s="2"/>
-      <c r="G53" s="2"/>
-      <c r="H53" s="2">
-        <v>32</v>
-      </c>
+      <c r="G53" s="2">
+        <v>16</v>
+      </c>
+      <c r="H53" s="2"/>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" spans="1:9">
       <c r="A54" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B54" t="s">
-        <v>43</v>
-      </c>
-      <c r="C54" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="2"/>
+      <c r="E54" s="1">
+        <v>4</v>
+      </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="2"/>
-      <c r="H54" s="2">
-        <v>32</v>
-      </c>
+      <c r="G54" s="1">
+        <v>16</v>
+      </c>
+      <c r="H54" s="2"/>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" spans="1:9">
       <c r="A55" t="s">
-        <v>21</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
-        <v>60</v>
-      </c>
-      <c r="C55" s="2"/>
+        <v>152</v>
+      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="2"/>
-      <c r="E55" s="2"/>
+      <c r="E55" s="1">
+        <v>4</v>
+      </c>
       <c r="F55" s="2"/>
-      <c r="G55" s="2"/>
-      <c r="H55" s="2">
-        <v>32</v>
-      </c>
+      <c r="G55" s="1">
+        <v>16</v>
+      </c>
+      <c r="H55" s="2"/>
       <c r="I55">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C55+D55+E55+F55+G55+H55</f>
+        <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>136</v>
+        <v>4</v>
       </c>
       <c r="B56" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
       <c r="E56" s="2"/>
-      <c r="F56" s="2"/>
-      <c r="G56" s="2"/>
-      <c r="H56" s="2">
-        <v>32</v>
-      </c>
+      <c r="F56" s="1">
+        <v>8</v>
+      </c>
+      <c r="G56" s="1">
+        <v>16</v>
+      </c>
+      <c r="H56" s="2"/>
       <c r="I56">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:9">
       <c r="A57" t="s">
-        <v>92</v>
+        <v>26</v>
       </c>
       <c r="B57" t="s">
-        <v>91</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2"/>
-      <c r="G57" s="2"/>
-      <c r="H57" s="2">
-        <v>32</v>
-      </c>
+      <c r="F57" s="2">
+        <v>8</v>
+      </c>
+      <c r="G57" s="2">
+        <v>16</v>
+      </c>
+      <c r="H57" s="2"/>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:9">
       <c r="A58" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2114,20 +2168,18 @@
       </c>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>40</v>
       </c>
       <c r="C59" s="2"/>
-      <c r="D59" s="2">
-        <v>2</v>
-      </c>
+      <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
       <c r="G59" s="2"/>
@@ -2135,21 +2187,19 @@
         <v>32</v>
       </c>
       <c r="I59">
-        <f t="shared" ref="I59" si="2">C59+D59+E59+F59+G59+H59</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
     </row>
     <row r="60" spans="1:9">
       <c r="A60" t="s">
-        <v>146</v>
+        <v>25</v>
       </c>
       <c r="B60" t="s">
-        <v>145</v>
+        <v>42</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2">
-        <v>2</v>
-      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2"/>
@@ -2158,20 +2208,18 @@
       </c>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="61" spans="1:9">
       <c r="A61" t="s">
-        <v>88</v>
+        <v>21</v>
       </c>
       <c r="B61" t="s">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2"/>
@@ -2180,21 +2228,19 @@
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
-      <c r="E62" s="2">
-        <v>4</v>
-      </c>
+      <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2"/>
       <c r="H62" s="2">
@@ -2202,21 +2248,21 @@
       </c>
       <c r="I62">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>32</v>
       </c>
     </row>
     <row r="63" spans="1:9">
       <c r="A63" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B63" t="s">
-        <v>126</v>
-      </c>
-      <c r="C63" s="2"/>
+        <v>89</v>
+      </c>
+      <c r="C63" s="2">
+        <v>1</v>
+      </c>
       <c r="D63" s="2"/>
-      <c r="E63" s="2">
-        <v>4</v>
-      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2"/>
       <c r="H63" s="2">
@@ -2224,21 +2270,21 @@
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="64" spans="1:9">
       <c r="A64" t="s">
-        <v>129</v>
+        <v>20</v>
       </c>
       <c r="B64" t="s">
-        <v>130</v>
-      </c>
-      <c r="C64" s="2"/>
+        <v>58</v>
+      </c>
+      <c r="C64" s="2">
+        <v>1</v>
+      </c>
       <c r="D64" s="2"/>
-      <c r="E64" s="2">
-        <v>4</v>
-      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
       <c r="H64" s="2">
@@ -2246,146 +2292,280 @@
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>1</v>
+        <v>88</v>
       </c>
       <c r="B65" t="s">
-        <v>30</v>
+        <v>141</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
       <c r="E65" s="2"/>
-      <c r="F65" s="1">
-        <v>8</v>
-      </c>
+      <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="1">
+      <c r="H65" s="2">
         <v>32</v>
       </c>
       <c r="I65">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f t="shared" ref="I65" si="2">C65+D65+E65+F65+G65+H65</f>
+        <v>34</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>3</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
-        <v>33</v>
+        <v>142</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
       <c r="E66" s="2"/>
-      <c r="F66" s="1">
-        <v>8</v>
-      </c>
+      <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="1">
+      <c r="H66" s="2">
         <v>32</v>
       </c>
       <c r="I66">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>86</v>
       </c>
       <c r="B67" t="s">
-        <v>127</v>
+        <v>87</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="2"/>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
       <c r="E67" s="2"/>
-      <c r="F67" s="2">
-        <v>8</v>
-      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="2"/>
       <c r="H67" s="2">
         <v>32</v>
       </c>
       <c r="I67">
-        <f t="shared" ref="I67:I69" si="3">C67+D67+E67+F67+G67+H67</f>
-        <v>40</v>
-      </c>
-      <c r="J67" t="s">
-        <v>87</v>
+        <f t="shared" si="1"/>
+        <v>34</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="B68" t="s">
-        <v>31</v>
+        <v>125</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
+      <c r="E68" s="2">
+        <v>4</v>
+      </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="1">
+      <c r="G68" s="2"/>
+      <c r="H68" s="2">
+        <v>32</v>
+      </c>
+      <c r="I68">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>91</v>
+      </c>
+      <c r="B69" t="s">
+        <v>124</v>
+      </c>
+      <c r="C69" s="2"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="2">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2"/>
+      <c r="H69" s="2">
+        <v>32</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" t="s">
+        <v>127</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2">
+        <v>32</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>1</v>
+      </c>
+      <c r="B71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="1">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2"/>
+      <c r="H71" s="1">
+        <v>32</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J71" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>3</v>
+      </c>
+      <c r="B72" t="s">
+        <v>159</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="1">
+        <v>8</v>
+      </c>
+      <c r="G72" s="2"/>
+      <c r="H72" s="1">
+        <v>32</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>154</v>
+      </c>
+      <c r="B73" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="1">
+        <v>8</v>
+      </c>
+      <c r="G73" s="2"/>
+      <c r="H73" s="1">
+        <v>32</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J73" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>8</v>
+      </c>
+      <c r="B74" t="s">
+        <v>158</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2">
+        <v>8</v>
+      </c>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2">
+        <v>32</v>
+      </c>
+      <c r="I74">
+        <f t="shared" ref="I74:I76" si="3">C74+D74+E74+F74+G74+H74</f>
+        <v>40</v>
+      </c>
+      <c r="J74" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>139</v>
+      </c>
+      <c r="B75" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="1">
         <v>16</v>
       </c>
-      <c r="H68" s="1">
+      <c r="H75" s="1">
         <v>32</v>
       </c>
-      <c r="I68">
+      <c r="I75">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
     </row>
-    <row r="69" spans="1:10">
-      <c r="A69" t="s">
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
         <v>22</v>
       </c>
-      <c r="B69" t="s">
-        <v>61</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2">
+      <c r="B76" t="s">
+        <v>60</v>
+      </c>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2">
         <v>16</v>
       </c>
-      <c r="H69" s="2">
+      <c r="H76" s="2">
         <v>32</v>
       </c>
-      <c r="I69">
+      <c r="I76">
         <f t="shared" si="3"/>
         <v>48</v>
-      </c>
-    </row>
-    <row r="70" spans="1:10">
-      <c r="C70" t="s">
-        <v>45</v>
-      </c>
-      <c r="D70" t="s">
-        <v>46</v>
-      </c>
-      <c r="E70" t="s">
-        <v>47</v>
-      </c>
-      <c r="F70" t="s">
-        <v>48</v>
-      </c>
-      <c r="G70" t="s">
-        <v>49</v>
-      </c>
-      <c r="H70" t="s">
-        <v>50</v>
-      </c>
-      <c r="I70" t="s">
-        <v>85</v>
-      </c>
-      <c r="J70" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>
@@ -2404,7 +2584,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2417,7 +2597,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
   <si>
     <t>折射</t>
   </si>
@@ -595,6 +595,10 @@
   </si>
   <si>
     <t>大技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -955,14 +959,14 @@
   <dimension ref="A1:J76"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1951,7 +1955,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:10">
       <c r="A49" t="s">
         <v>93</v>
       </c>
@@ -1973,7 +1977,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:10">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -1995,7 +1999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:10">
       <c r="A51" t="s">
         <v>81</v>
       </c>
@@ -2017,7 +2021,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:10">
       <c r="A52" t="s">
         <v>140</v>
       </c>
@@ -2041,7 +2045,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:10">
       <c r="A53" t="s">
         <v>130</v>
       </c>
@@ -2063,7 +2067,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:10">
       <c r="A54" t="s">
         <v>129</v>
       </c>
@@ -2085,7 +2089,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:10">
       <c r="A55" t="s">
         <v>153</v>
       </c>
@@ -2107,7 +2111,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:10">
       <c r="A56" t="s">
         <v>4</v>
       </c>
@@ -2128,8 +2132,11 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
-    </row>
-    <row r="57" spans="1:9">
+      <c r="J56" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" t="s">
         <v>26</v>
       </c>
@@ -2151,7 +2158,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:10">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -2171,7 +2178,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:10">
       <c r="A59" t="s">
         <v>23</v>
       </c>
@@ -2191,7 +2198,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:10">
       <c r="A60" t="s">
         <v>25</v>
       </c>
@@ -2211,7 +2218,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:10">
       <c r="A61" t="s">
         <v>21</v>
       </c>
@@ -2231,7 +2238,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:10">
       <c r="A62" t="s">
         <v>133</v>
       </c>
@@ -2251,7 +2258,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:10">
       <c r="A63" t="s">
         <v>90</v>
       </c>
@@ -2273,7 +2280,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:10">
       <c r="A64" t="s">
         <v>20</v>
       </c>
@@ -2584,7 +2591,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2597,7 +2604,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
   <si>
     <t>折射</t>
   </si>
@@ -599,6 +599,14 @@
   </si>
   <si>
     <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_blur</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -956,17 +964,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J77"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H42" sqref="H42"/>
+      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1006,7 +1014,7 @@
         <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I37" si="0">C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" ref="I2:I38" si="0">C2+D2+E2+F2+G2+H2</f>
         <v>1</v>
       </c>
     </row>
@@ -1726,10 +1734,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>102</v>
+        <v>162</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>163</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="2">
@@ -1742,16 +1750,16 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38">
-        <f t="shared" ref="I38:I73" si="1">C38+D38+E38+F38+G38+H38</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B39" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2">
@@ -1764,38 +1772,38 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I39:I74" si="1">C39+D39+E39+F39+G39+H39</f>
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>113</v>
+        <v>100</v>
       </c>
       <c r="B40" t="s">
-        <v>96</v>
-      </c>
-      <c r="C40" s="2"/>
-      <c r="D40" s="2"/>
-      <c r="E40" s="2">
-        <v>4</v>
-      </c>
-      <c r="F40" s="2">
+        <v>99</v>
+      </c>
+      <c r="C40" s="1"/>
+      <c r="D40" s="2">
+        <v>2</v>
+      </c>
+      <c r="E40" s="2"/>
+      <c r="F40" s="1">
         <v>8</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>65</v>
+        <v>113</v>
       </c>
       <c r="B41" t="s">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1814,30 +1822,32 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>65</v>
       </c>
       <c r="B42" t="s">
-        <v>121</v>
+        <v>64</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" s="2"/>
-      <c r="E42" s="2"/>
-      <c r="F42" s="2"/>
-      <c r="G42" s="2">
-        <v>16</v>
-      </c>
+      <c r="E42" s="2">
+        <v>4</v>
+      </c>
+      <c r="F42" s="2">
+        <v>8</v>
+      </c>
+      <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>56</v>
+        <v>122</v>
       </c>
       <c r="B43" t="s">
-        <v>57</v>
+        <v>121</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
@@ -1854,10 +1864,10 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>17</v>
+        <v>56</v>
       </c>
       <c r="B44" t="s">
-        <v>112</v>
+        <v>57</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
@@ -1874,10 +1884,10 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>17</v>
       </c>
       <c r="B45" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1894,10 +1904,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1914,14 +1924,12 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>145</v>
+        <v>92</v>
       </c>
       <c r="B47" t="s">
-        <v>144</v>
-      </c>
-      <c r="C47" s="2">
-        <v>1</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="C47" s="2"/>
       <c r="D47" s="2"/>
       <c r="E47" s="2"/>
       <c r="F47" s="2"/>
@@ -1930,15 +1938,16 @@
       </c>
       <c r="H47" s="2"/>
       <c r="I47">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>94</v>
+        <v>145</v>
       </c>
       <c r="B48" t="s">
-        <v>95</v>
+        <v>144</v>
       </c>
       <c r="C48" s="2">
         <v>1</v>
@@ -1951,16 +1960,15 @@
       </c>
       <c r="H48" s="2"/>
       <c r="I48">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="C49" s="2">
         <v>1</v>
@@ -1979,15 +1987,15 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>93</v>
       </c>
       <c r="B50" t="s">
-        <v>54</v>
-      </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2">
-        <v>2</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="C50" s="2">
+        <v>1</v>
+      </c>
+      <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
       <c r="G50" s="2">
@@ -1996,15 +2004,15 @@
       <c r="H50" s="2"/>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>81</v>
+        <v>13</v>
       </c>
       <c r="B51" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2">
@@ -2023,18 +2031,16 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="B52" t="s">
-        <v>128</v>
+        <v>80</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2">
         <v>2</v>
       </c>
-      <c r="E52" s="2">
-        <v>4</v>
-      </c>
+      <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2">
         <v>16</v>
@@ -2042,18 +2048,20 @@
       <c r="H52" s="2"/>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>130</v>
+        <v>140</v>
       </c>
       <c r="B53" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2"/>
+      <c r="D53" s="2">
+        <v>2</v>
+      </c>
       <c r="E53" s="2">
         <v>4</v>
       </c>
@@ -2064,23 +2072,23 @@
       <c r="H53" s="2"/>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" s="1"/>
+        <v>131</v>
+      </c>
+      <c r="C54" s="2"/>
       <c r="D54" s="2"/>
-      <c r="E54" s="1">
+      <c r="E54" s="2">
         <v>4</v>
       </c>
       <c r="F54" s="2"/>
-      <c r="G54" s="1">
+      <c r="G54" s="2">
         <v>16</v>
       </c>
       <c r="H54" s="2"/>
@@ -2091,10 +2099,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>29</v>
       </c>
       <c r="C55" s="1"/>
       <c r="D55" s="2"/>
@@ -2107,49 +2115,46 @@
       </c>
       <c r="H55" s="2"/>
       <c r="I55">
-        <f>C55+D55+E55+F55+G55+H55</f>
+        <f t="shared" si="1"/>
         <v>20</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
+        <v>153</v>
+      </c>
+      <c r="B56" t="s">
+        <v>152</v>
+      </c>
+      <c r="C56" s="1"/>
+      <c r="D56" s="2"/>
+      <c r="E56" s="1">
         <v>4</v>
       </c>
-      <c r="B56" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="2"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="2"/>
-      <c r="F56" s="1">
-        <v>8</v>
-      </c>
+      <c r="F56" s="2"/>
       <c r="G56" s="1">
         <v>16</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J56" t="s">
-        <v>161</v>
+        <f>C56+D56+E56+F56+G56+H56</f>
+        <v>20</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B57" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
-      <c r="F57" s="2">
-        <v>8</v>
-      </c>
-      <c r="G57" s="2">
+      <c r="F57" s="1">
+        <v>8</v>
+      </c>
+      <c r="G57" s="1">
         <v>16</v>
       </c>
       <c r="H57" s="2"/>
@@ -2157,33 +2162,38 @@
         <f t="shared" si="1"/>
         <v>24</v>
       </c>
+      <c r="J57" t="s">
+        <v>161</v>
+      </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="B58" t="s">
-        <v>39</v>
+        <v>61</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2">
-        <v>32</v>
-      </c>
+      <c r="F58" s="2">
+        <v>8</v>
+      </c>
+      <c r="G58" s="2">
+        <v>16</v>
+      </c>
+      <c r="H58" s="2"/>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="B59" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" s="2"/>
@@ -2200,10 +2210,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B60" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
@@ -2220,10 +2230,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B61" t="s">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
@@ -2240,10 +2250,10 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>133</v>
+        <v>21</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>59</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2260,14 +2270,12 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>90</v>
+        <v>133</v>
       </c>
       <c r="B63" t="s">
-        <v>89</v>
-      </c>
-      <c r="C63" s="2">
-        <v>1</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C63" s="2"/>
       <c r="D63" s="2"/>
       <c r="E63" s="2"/>
       <c r="F63" s="2"/>
@@ -2277,15 +2285,15 @@
       </c>
       <c r="I63">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>90</v>
       </c>
       <c r="B64" t="s">
-        <v>58</v>
+        <v>89</v>
       </c>
       <c r="C64" s="2">
         <v>1</v>
@@ -2304,15 +2312,15 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>88</v>
+        <v>20</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
-      </c>
-      <c r="C65" s="2"/>
-      <c r="D65" s="2">
-        <v>2</v>
-      </c>
+        <v>58</v>
+      </c>
+      <c r="C65" s="2">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
@@ -2320,16 +2328,16 @@
         <v>32</v>
       </c>
       <c r="I65">
-        <f t="shared" ref="I65" si="2">C65+D65+E65+F65+G65+H65</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>33</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>143</v>
+        <v>88</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2">
@@ -2342,16 +2350,16 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I66" si="2">C66+D66+E66+F66+G66+H66</f>
         <v>34</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>86</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>87</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2">
@@ -2370,16 +2378,16 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>123</v>
+        <v>86</v>
       </c>
       <c r="B68" t="s">
-        <v>125</v>
+        <v>87</v>
       </c>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
-      <c r="E68" s="2">
-        <v>4</v>
-      </c>
+      <c r="D68" s="2">
+        <v>2</v>
+      </c>
+      <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
       <c r="H68" s="2">
@@ -2387,15 +2395,15 @@
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>91</v>
+        <v>123</v>
       </c>
       <c r="B69" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2414,10 +2422,10 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="B70" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2436,35 +2444,32 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="B71" t="s">
-        <v>30</v>
+        <v>127</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="1">
-        <v>8</v>
-      </c>
+      <c r="E71" s="2">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2"/>
       <c r="G71" s="2"/>
-      <c r="H71" s="1">
+      <c r="H71" s="2">
         <v>32</v>
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J71" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B72" t="s">
-        <v>159</v>
+        <v>30</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2480,13 +2485,16 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
+      <c r="J72" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>154</v>
+        <v>3</v>
       </c>
       <c r="B73" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2502,75 +2510,97 @@
         <f t="shared" si="1"/>
         <v>40</v>
       </c>
-      <c r="J73" t="s">
-        <v>156</v>
-      </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>8</v>
+        <v>154</v>
       </c>
       <c r="B74" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
       <c r="E74" s="2"/>
-      <c r="F74" s="2">
+      <c r="F74" s="1">
         <v>8</v>
       </c>
       <c r="G74" s="2"/>
-      <c r="H74" s="2">
+      <c r="H74" s="1">
         <v>32</v>
       </c>
       <c r="I74">
-        <f t="shared" ref="I74:I76" si="3">C74+D74+E74+F74+G74+H74</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J74" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>139</v>
+        <v>8</v>
       </c>
       <c r="B75" t="s">
-        <v>31</v>
+        <v>158</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="1">
-        <v>16</v>
-      </c>
-      <c r="H75" s="1">
+      <c r="F75" s="2">
+        <v>8</v>
+      </c>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2">
         <v>32</v>
       </c>
       <c r="I75">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f t="shared" ref="I75:I77" si="3">C75+D75+E75+F75+G75+H75</f>
+        <v>40</v>
+      </c>
+      <c r="J75" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>22</v>
+        <v>139</v>
       </c>
       <c r="B76" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
       <c r="F76" s="2"/>
-      <c r="G76" s="2">
+      <c r="G76" s="1">
         <v>16</v>
       </c>
-      <c r="H76" s="2">
+      <c r="H76" s="1">
         <v>32</v>
       </c>
       <c r="I76">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>22</v>
+      </c>
+      <c r="B77" t="s">
+        <v>60</v>
+      </c>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2">
+        <v>16</v>
+      </c>
+      <c r="H77" s="2">
+        <v>32</v>
+      </c>
+      <c r="I77">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -2591,7 +2621,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2604,7 +2634,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
   <si>
     <t>折射</t>
   </si>
@@ -114,499 +114,522 @@
     <t>life_stealer_rage</t>
   </si>
   <si>
+    <t>troll_warlord_battle_trance</t>
+  </si>
+  <si>
+    <t>morphling_waveform</t>
+  </si>
+  <si>
+    <t>granite_golem_hp_aura</t>
+  </si>
+  <si>
+    <t>ogre_magi_frost_armor</t>
+  </si>
+  <si>
+    <t>dark_seer_surge</t>
+  </si>
+  <si>
+    <t>wisp_relocate</t>
+  </si>
+  <si>
+    <t>decay_summon_wraith_warrior</t>
+  </si>
+  <si>
+    <t>clinkz_death_pact</t>
+  </si>
+  <si>
+    <t>decay_dark_ritual_datadriven</t>
+  </si>
+  <si>
+    <t>decay_tombstone</t>
+  </si>
+  <si>
+    <t>hunt_thirst_lua</t>
+  </si>
+  <si>
+    <t>元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎杀8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mud_golem_hurl_boulder_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_frost_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant_wolf_critical_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_troll_warlord_ensnare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forged_spirit_melting_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+  </si>
+  <si>
+    <t>huskar_life_break</t>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_shadow_word</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_bulldoze</t>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enigma_midnight_pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_golem_flaming_fists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰之拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_frostbite</t>
+  </si>
+  <si>
+    <t>冰封禁制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_spin_web</t>
+  </si>
+  <si>
+    <t>织网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_insatiable_hunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">小技能 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_poison_sting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venomancer_poison_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_smoke_screen</t>
+  </si>
+  <si>
+    <t>烟雾弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>razor_eye_of_the_storm</t>
-  </si>
-  <si>
-    <t>troll_warlord_battle_trance</t>
-  </si>
-  <si>
-    <t>morphling_waveform</t>
-  </si>
-  <si>
-    <t>granite_golem_hp_aura</t>
-  </si>
-  <si>
-    <t>ogre_magi_frost_armor</t>
-  </si>
-  <si>
-    <t>dark_seer_surge</t>
-  </si>
-  <si>
-    <t>wisp_relocate</t>
-  </si>
-  <si>
-    <t>decay_summon_wraith_warrior</t>
-  </si>
-  <si>
-    <t>clinkz_death_pact</t>
-  </si>
-  <si>
-    <t>decay_dark_ritual_datadriven</t>
-  </si>
-  <si>
-    <t>decay_tombstone</t>
-  </si>
-  <si>
-    <t>hunt_thirst_lua</t>
-  </si>
-  <si>
-    <t>元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎杀8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mud_golem_hurl_boulder_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_frost_shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giant_wolf_critical_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_troll_warlord_ensnare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forged_spirit_melting_strike_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shredder_reactive_armor</t>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
-  </si>
-  <si>
-    <t>huskar_life_break</t>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎阳索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_searing_chains</t>
   </si>
   <si>
     <t>火焰吐息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>npc_dota_creature_forge_spirit</t>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_bulldoze</t>
-  </si>
-  <si>
-    <t>威吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_seer_vacuum</t>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazzle_bad_juju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午夜凋零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>enigma_midnight_pulse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_amplify_damage</t>
-  </si>
-  <si>
-    <t>sandking_caustic_finale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoker_tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_summon_familiars_stone_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石像形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_golem_flaming_fists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰之拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiny_grow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_frostbite</t>
-  </si>
-  <si>
-    <t>冰封禁制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_spin_web</t>
-  </si>
-  <si>
-    <t>织网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_insatiable_hunger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极度饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_poison_sting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>venomancer_poison_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phantom_assassin_blur</t>
+    <t>dragon_knight_breathe_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_searing_arrows</t>
+  </si>
+  <si>
+    <t>灼热之箭</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -964,57 +987,57 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J77"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A35" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J38" sqref="J38"/>
+      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D1" t="s">
         <v>44</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>45</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>46</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>47</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>48</v>
       </c>
-      <c r="H1" t="s">
-        <v>49</v>
-      </c>
       <c r="I1" t="s">
+        <v>83</v>
+      </c>
+      <c r="J1" t="s">
         <v>84</v>
-      </c>
-      <c r="J1" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="B2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I38" si="0">C2+D2+E2+F2+G2+H2</f>
+        <f t="shared" ref="I2:I39" si="0">C2+D2+E2+F2+G2+H2</f>
         <v>1</v>
       </c>
     </row>
@@ -1023,7 +1046,7 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1040,10 +1063,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1059,10 +1082,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1079,10 +1102,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -1102,7 +1125,7 @@
         <v>28</v>
       </c>
       <c r="B7" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1119,10 +1142,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1142,7 +1165,7 @@
         <v>6</v>
       </c>
       <c r="B9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="2">
@@ -1162,7 +1185,7 @@
         <v>7</v>
       </c>
       <c r="B10" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="2">
@@ -1182,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="2">
@@ -1199,10 +1222,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B12" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1219,10 +1242,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1239,10 +1262,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B14" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -1259,10 +1282,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B15" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -1279,10 +1302,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B16" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1304,7 +1327,7 @@
         <v>10</v>
       </c>
       <c r="B17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1326,7 +1349,7 @@
         <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1348,7 +1371,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
@@ -1363,10 +1386,10 @@
     </row>
     <row r="20" spans="1:9">
       <c r="A20" t="s">
+        <v>111</v>
+      </c>
+      <c r="B20" t="s">
         <v>114</v>
-      </c>
-      <c r="B20" t="s">
-        <v>117</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
@@ -1386,7 +1409,7 @@
         <v>9</v>
       </c>
       <c r="B21" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1406,7 +1429,7 @@
         <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1426,7 +1449,7 @@
         <v>15</v>
       </c>
       <c r="B23" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1446,7 +1469,7 @@
         <v>16</v>
       </c>
       <c r="B24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1463,10 +1486,10 @@
     </row>
     <row r="25" spans="1:9">
       <c r="A25" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B25" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C25" s="2">
         <v>1</v>
@@ -1488,7 +1511,7 @@
         <v>27</v>
       </c>
       <c r="B26" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C26" s="2">
         <v>1</v>
@@ -1507,10 +1530,10 @@
     </row>
     <row r="27" spans="1:9">
       <c r="A27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B27" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="1">
@@ -1532,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="1">
@@ -1551,10 +1574,10 @@
     </row>
     <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B29" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" s="1"/>
@@ -1573,7 +1596,7 @@
         <v>12</v>
       </c>
       <c r="B30" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
@@ -1590,10 +1613,10 @@
     </row>
     <row r="31" spans="1:9">
       <c r="A31" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B31" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
@@ -1610,10 +1633,10 @@
     </row>
     <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
@@ -1630,10 +1653,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B33" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
@@ -1650,10 +1673,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
@@ -1670,10 +1693,10 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
         <v>78</v>
-      </c>
-      <c r="B35" t="s">
-        <v>79</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1690,10 +1713,10 @@
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="B36" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="C36" s="2">
         <v>1</v>
@@ -1712,17 +1735,17 @@
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>2</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" s="1">
+        <v>95</v>
+      </c>
+      <c r="C37" s="2">
         <v>1</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="1">
+      <c r="F37" s="2">
         <v>8</v>
       </c>
       <c r="G37" s="2"/>
@@ -1734,15 +1757,15 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="B38" t="s">
         <v>163</v>
       </c>
-      <c r="C38" s="1"/>
-      <c r="D38" s="2">
-        <v>2</v>
-      </c>
+      <c r="C38" s="1">
+        <v>1</v>
+      </c>
+      <c r="D38" s="2"/>
       <c r="E38" s="2"/>
       <c r="F38" s="1">
         <v>8</v>
@@ -1751,15 +1774,15 @@
       <c r="H38" s="2"/>
       <c r="I38">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>159</v>
       </c>
       <c r="B39" t="s">
-        <v>101</v>
+        <v>160</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="2">
@@ -1772,16 +1795,16 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39">
-        <f t="shared" ref="I39:I74" si="1">C39+D39+E39+F39+G39+H39</f>
+        <f t="shared" si="0"/>
         <v>10</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="2">
@@ -1794,45 +1817,45 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I40:I77" si="1">C40+D40+E40+F40+G40+H40</f>
         <v>10</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>113</v>
+        <v>97</v>
       </c>
       <c r="B41" t="s">
         <v>96</v>
       </c>
-      <c r="C41" s="2"/>
-      <c r="D41" s="2"/>
-      <c r="E41" s="2">
-        <v>4</v>
-      </c>
-      <c r="F41" s="2">
+      <c r="C41" s="1"/>
+      <c r="D41" s="2">
+        <v>2</v>
+      </c>
+      <c r="E41" s="2"/>
+      <c r="F41" s="1">
         <v>8</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>65</v>
+        <v>162</v>
       </c>
       <c r="B42" t="s">
-        <v>64</v>
-      </c>
-      <c r="C42" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2">
         <v>4</v>
       </c>
-      <c r="F42" s="2">
+      <c r="F42" s="1">
         <v>8</v>
       </c>
       <c r="G42" s="2"/>
@@ -1844,50 +1867,54 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="B43" t="s">
-        <v>121</v>
+        <v>93</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" s="2"/>
-      <c r="E43" s="2"/>
-      <c r="F43" s="2"/>
-      <c r="G43" s="2">
-        <v>16</v>
-      </c>
+      <c r="E43" s="2">
+        <v>4</v>
+      </c>
+      <c r="F43" s="2">
+        <v>8</v>
+      </c>
+      <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>56</v>
+        <v>64</v>
       </c>
       <c r="B44" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="2"/>
-      <c r="E44" s="2"/>
-      <c r="F44" s="2"/>
-      <c r="G44" s="2">
-        <v>16</v>
-      </c>
+      <c r="E44" s="2">
+        <v>4</v>
+      </c>
+      <c r="F44" s="2">
+        <v>8</v>
+      </c>
+      <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>17</v>
+        <v>119</v>
       </c>
       <c r="B45" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="2"/>
@@ -1904,10 +1931,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="B46" t="s">
-        <v>82</v>
+        <v>56</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="2"/>
@@ -1924,10 +1951,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>92</v>
+        <v>17</v>
       </c>
       <c r="B47" t="s">
-        <v>52</v>
+        <v>109</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1944,14 +1971,12 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>145</v>
+        <v>82</v>
       </c>
       <c r="B48" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="2">
-        <v>1</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2"/>
       <c r="F48" s="2"/>
@@ -1960,19 +1985,18 @@
       </c>
       <c r="H48" s="2"/>
       <c r="I48">
-        <v>17</v>
+        <f t="shared" si="1"/>
+        <v>16</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B49" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="2">
-        <v>1</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="C49" s="2"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2"/>
       <c r="F49" s="2"/>
@@ -1982,15 +2006,15 @@
       <c r="H49" s="2"/>
       <c r="I49">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>93</v>
+        <v>169</v>
       </c>
       <c r="B50" t="s">
-        <v>62</v>
+        <v>168</v>
       </c>
       <c r="C50" s="2">
         <v>1</v>
@@ -2009,15 +2033,15 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>13</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
-        <v>54</v>
-      </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2">
-        <v>2</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="C51" s="2">
+        <v>1</v>
+      </c>
+      <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
       <c r="G51" s="2">
@@ -2025,21 +2049,18 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>81</v>
+        <v>166</v>
       </c>
       <c r="B52" t="s">
-        <v>80</v>
+        <v>167</v>
       </c>
       <c r="C52" s="2"/>
-      <c r="D52" s="2">
-        <v>2</v>
-      </c>
+      <c r="D52" s="2"/>
       <c r="E52" s="2"/>
       <c r="F52" s="2"/>
       <c r="G52" s="2">
@@ -2048,23 +2069,19 @@
       <c r="H52" s="2"/>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>140</v>
+        <v>92</v>
       </c>
       <c r="B53" t="s">
-        <v>128</v>
+        <v>61</v>
       </c>
       <c r="C53" s="2"/>
-      <c r="D53" s="2">
-        <v>2</v>
-      </c>
-      <c r="E53" s="2">
-        <v>4</v>
-      </c>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
       <c r="F53" s="2"/>
       <c r="G53" s="2">
         <v>16</v>
@@ -2072,21 +2089,21 @@
       <c r="H53" s="2"/>
       <c r="I53">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>130</v>
+        <v>13</v>
       </c>
       <c r="B54" t="s">
-        <v>131</v>
+        <v>53</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2"/>
-      <c r="E54" s="2">
-        <v>4</v>
-      </c>
+      <c r="D54" s="2">
+        <v>2</v>
+      </c>
+      <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
         <v>16</v>
@@ -2094,166 +2111,174 @@
       <c r="H54" s="2"/>
       <c r="I54">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>129</v>
+        <v>80</v>
       </c>
       <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" s="1"/>
-      <c r="D55" s="2"/>
-      <c r="E55" s="1">
-        <v>4</v>
-      </c>
+        <v>79</v>
+      </c>
+      <c r="C55" s="2"/>
+      <c r="D55" s="2">
+        <v>2</v>
+      </c>
+      <c r="E55" s="2"/>
       <c r="F55" s="2"/>
-      <c r="G55" s="1">
+      <c r="G55" s="2">
         <v>16</v>
       </c>
       <c r="H55" s="2"/>
       <c r="I55">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>137</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
-      </c>
-      <c r="C56" s="1"/>
-      <c r="D56" s="2"/>
-      <c r="E56" s="1">
+        <v>125</v>
+      </c>
+      <c r="C56" s="2"/>
+      <c r="D56" s="2">
+        <v>2</v>
+      </c>
+      <c r="E56" s="2">
         <v>4</v>
       </c>
       <c r="F56" s="2"/>
-      <c r="G56" s="1">
+      <c r="G56" s="2">
         <v>16</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56">
-        <f>C56+D56+E56+F56+G56+H56</f>
-        <v>20</v>
+        <f t="shared" si="1"/>
+        <v>22</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>4</v>
+        <v>127</v>
       </c>
       <c r="B57" t="s">
-        <v>33</v>
+        <v>128</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
-      <c r="E57" s="2"/>
-      <c r="F57" s="1">
-        <v>8</v>
-      </c>
-      <c r="G57" s="1">
+      <c r="E57" s="2">
+        <v>4</v>
+      </c>
+      <c r="F57" s="2"/>
+      <c r="G57" s="2">
         <v>16</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J57" t="s">
-        <v>161</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>26</v>
+        <v>126</v>
       </c>
       <c r="B58" t="s">
-        <v>61</v>
-      </c>
-      <c r="C58" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2">
-        <v>8</v>
-      </c>
-      <c r="G58" s="2">
+      <c r="E58" s="1">
+        <v>4</v>
+      </c>
+      <c r="F58" s="2"/>
+      <c r="G58" s="1">
         <v>16</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>19</v>
+        <v>150</v>
       </c>
       <c r="B59" t="s">
-        <v>39</v>
-      </c>
-      <c r="C59" s="2"/>
+        <v>149</v>
+      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
+      <c r="E59" s="1">
+        <v>4</v>
+      </c>
       <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2">
-        <v>32</v>
-      </c>
+      <c r="G59" s="1">
+        <v>16</v>
+      </c>
+      <c r="H59" s="2"/>
       <c r="I59">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C59+D59+E59+F59+G59+H59</f>
+        <v>20</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B60" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
-      <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
-      <c r="H60" s="2">
-        <v>32</v>
-      </c>
+      <c r="F60" s="1">
+        <v>8</v>
+      </c>
+      <c r="G60" s="1">
+        <v>16</v>
+      </c>
+      <c r="H60" s="2"/>
       <c r="I60">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>24</v>
+      </c>
+      <c r="J60" t="s">
+        <v>158</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B61" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2"/>
       <c r="E61" s="2"/>
-      <c r="F61" s="2"/>
-      <c r="G61" s="2"/>
-      <c r="H61" s="2">
-        <v>32</v>
-      </c>
+      <c r="F61" s="2">
+        <v>8</v>
+      </c>
+      <c r="G61" s="2">
+        <v>16</v>
+      </c>
+      <c r="H61" s="2"/>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>32</v>
+        <v>24</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B62" t="s">
-        <v>59</v>
+        <v>38</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2"/>
@@ -2270,10 +2295,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>133</v>
+        <v>23</v>
       </c>
       <c r="B63" t="s">
-        <v>132</v>
+        <v>39</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2290,14 +2315,12 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>90</v>
+        <v>25</v>
       </c>
       <c r="B64" t="s">
-        <v>89</v>
-      </c>
-      <c r="C64" s="2">
-        <v>1</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="C64" s="2"/>
       <c r="D64" s="2"/>
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
@@ -2307,19 +2330,17 @@
       </c>
       <c r="I64">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B65" t="s">
         <v>58</v>
       </c>
-      <c r="C65" s="2">
-        <v>1</v>
-      </c>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
@@ -2329,20 +2350,18 @@
       </c>
       <c r="I65">
         <f t="shared" si="1"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>88</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2">
-        <v>2</v>
-      </c>
+      <c r="D66" s="2"/>
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
@@ -2350,21 +2369,21 @@
         <v>32</v>
       </c>
       <c r="I66">
-        <f t="shared" ref="I66" si="2">C66+D66+E66+F66+G66+H66</f>
-        <v>34</v>
+        <f t="shared" si="1"/>
+        <v>32</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>89</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="2"/>
-      <c r="D67" s="2">
-        <v>2</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="C67" s="2">
+        <v>1</v>
+      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="2"/>
       <c r="F67" s="2"/>
       <c r="G67" s="2"/>
@@ -2373,20 +2392,20 @@
       </c>
       <c r="I67">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>86</v>
+        <v>20</v>
       </c>
       <c r="B68" t="s">
-        <v>87</v>
-      </c>
-      <c r="C68" s="2"/>
-      <c r="D68" s="2">
-        <v>2</v>
-      </c>
+        <v>57</v>
+      </c>
+      <c r="C68" s="2">
+        <v>1</v>
+      </c>
+      <c r="D68" s="2"/>
       <c r="E68" s="2"/>
       <c r="F68" s="2"/>
       <c r="G68" s="2"/>
@@ -2395,43 +2414,43 @@
       </c>
       <c r="I68">
         <f t="shared" si="1"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>123</v>
+        <v>87</v>
       </c>
       <c r="B69" t="s">
-        <v>125</v>
+        <v>138</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2">
-        <v>4</v>
-      </c>
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2"/>
       <c r="F69" s="2"/>
       <c r="G69" s="2"/>
       <c r="H69" s="2">
         <v>32</v>
       </c>
       <c r="I69">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f t="shared" ref="I69" si="2">C69+D69+E69+F69+G69+H69</f>
+        <v>34</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>91</v>
+        <v>140</v>
       </c>
       <c r="B70" t="s">
-        <v>124</v>
+        <v>139</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2">
-        <v>4</v>
-      </c>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2"/>
       <c r="G70" s="2"/>
       <c r="H70" s="2">
@@ -2439,21 +2458,21 @@
       </c>
       <c r="I70">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="B71" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2"/>
-      <c r="E71" s="2">
-        <v>4</v>
-      </c>
+      <c r="D71" s="2">
+        <v>2</v>
+      </c>
+      <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
       <c r="H71" s="2">
@@ -2461,146 +2480,212 @@
       </c>
       <c r="I71">
         <f t="shared" si="1"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>1</v>
+        <v>120</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>122</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2"/>
-      <c r="F72" s="1">
-        <v>8</v>
-      </c>
+      <c r="E72" s="2">
+        <v>4</v>
+      </c>
+      <c r="F72" s="2"/>
       <c r="G72" s="2"/>
-      <c r="H72" s="1">
+      <c r="H72" s="2">
         <v>32</v>
       </c>
       <c r="I72">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J72" t="s">
-        <v>160</v>
+        <v>36</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>3</v>
+        <v>90</v>
       </c>
       <c r="B73" t="s">
-        <v>159</v>
+        <v>121</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="1">
-        <v>8</v>
-      </c>
+      <c r="E73" s="2">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2"/>
       <c r="G73" s="2"/>
-      <c r="H73" s="1">
+      <c r="H73" s="2">
         <v>32</v>
       </c>
       <c r="I73">
         <f t="shared" si="1"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>154</v>
+        <v>123</v>
       </c>
       <c r="B74" t="s">
-        <v>157</v>
+        <v>124</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="1">
-        <v>8</v>
-      </c>
+      <c r="E74" s="2">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2"/>
       <c r="G74" s="2"/>
-      <c r="H74" s="1">
+      <c r="H74" s="2">
         <v>32</v>
       </c>
       <c r="I74">
         <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J74" t="s">
-        <v>156</v>
+        <v>36</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="B75" t="s">
-        <v>158</v>
+        <v>30</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="2">
+      <c r="F75" s="1">
         <v>8</v>
       </c>
       <c r="G75" s="2"/>
-      <c r="H75" s="2">
+      <c r="H75" s="1">
         <v>32</v>
       </c>
       <c r="I75">
-        <f t="shared" ref="I75:I77" si="3">C75+D75+E75+F75+G75+H75</f>
+        <f t="shared" si="1"/>
         <v>40</v>
       </c>
       <c r="J75" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>139</v>
+        <v>3</v>
       </c>
       <c r="B76" t="s">
-        <v>31</v>
+        <v>156</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="2"/>
-      <c r="G76" s="1">
-        <v>16</v>
-      </c>
+      <c r="F76" s="1">
+        <v>8</v>
+      </c>
+      <c r="G76" s="2"/>
       <c r="H76" s="1">
         <v>32</v>
       </c>
       <c r="I76">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f t="shared" si="1"/>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>151</v>
       </c>
       <c r="B77" t="s">
-        <v>60</v>
+        <v>154</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2">
+      <c r="F77" s="1">
+        <v>8</v>
+      </c>
+      <c r="G77" s="2"/>
+      <c r="H77" s="1">
+        <v>32</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="1"/>
+        <v>40</v>
+      </c>
+      <c r="J77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>8</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+      <c r="C78" s="2"/>
+      <c r="D78" s="2"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2">
+        <v>8</v>
+      </c>
+      <c r="G78" s="2"/>
+      <c r="H78" s="2">
+        <v>32</v>
+      </c>
+      <c r="I78">
+        <f t="shared" ref="I78:I80" si="3">C78+D78+E78+F78+G78+H78</f>
+        <v>40</v>
+      </c>
+      <c r="J78" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>136</v>
+      </c>
+      <c r="B79" t="s">
+        <v>31</v>
+      </c>
+      <c r="C79" s="2"/>
+      <c r="D79" s="2"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1">
         <v>16</v>
       </c>
-      <c r="H77" s="2">
+      <c r="H79" s="1">
         <v>32</v>
       </c>
-      <c r="I77">
+      <c r="I79">
+        <f t="shared" si="3"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>22</v>
+      </c>
+      <c r="B80" t="s">
+        <v>59</v>
+      </c>
+      <c r="C80" s="2"/>
+      <c r="D80" s="2"/>
+      <c r="E80" s="2"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="2">
+        <v>16</v>
+      </c>
+      <c r="H80" s="2">
+        <v>32</v>
+      </c>
+      <c r="I80">
         <f t="shared" si="3"/>
         <v>48</v>
       </c>
@@ -2621,7 +2706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2634,7 +2719,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t>折射</t>
   </si>
@@ -187,450 +187,563 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>forged_spirit_melting_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+  </si>
+  <si>
+    <t>huskar_life_break</t>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_shadow_word</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_bulldoze</t>
+  </si>
+  <si>
+    <t>威吓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_golem_flaming_fists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰之拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_frostbite</t>
+  </si>
+  <si>
+    <t>冰封禁制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_spin_web</t>
+  </si>
+  <si>
+    <t>织网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_insatiable_hunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毒刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_smoke_screen</t>
+  </si>
+  <si>
+    <t>烟雾弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>razor_eye_of_the_storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎阳索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_searing_chains</t>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_knight_breathe_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_searing_arrows</t>
+  </si>
+  <si>
+    <t>灼热之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_sleight_of_fist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩赐解脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_coup_de_grace</t>
+  </si>
+  <si>
+    <t>双刃剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>centaur_khan_war_stomp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>forged_spirit_melting_strike_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
+    <t>centaur_double_edge</t>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>闪烁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shredder_reactive_armor</t>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
-  </si>
-  <si>
-    <t>huskar_life_break</t>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_bulldoze</t>
-  </si>
-  <si>
-    <t>威吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
+    <t>antimage_blink</t>
+  </si>
+  <si>
+    <t>灵能陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_psionic_trap</t>
+  </si>
+  <si>
+    <t>中大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storm_spirit_ball_lightning</t>
+  </si>
+  <si>
+    <t>球状闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大  5 10 15 20 25 30 35 99</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>dark_seer_vacuum</t>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazzle_bad_juju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午夜凋零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_desolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alchemist_chemical_rage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 12 18 24 30 36</t>
+  </si>
+  <si>
+    <t>15 30 45 60 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥火暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_hellfire_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venomancer_poison_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 16 24 32 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_poison_sting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1 2 3 4 5 6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 3 4 5 6 7</t>
   </si>
   <si>
     <t>enigma_midnight_pulse</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>slardar_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_amplify_damage</t>
-  </si>
-  <si>
-    <t>sandking_caustic_finale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoker_tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_summon_familiars_stone_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石像形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_golem_flaming_fists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰之拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiny_grow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_frostbite</t>
-  </si>
-  <si>
-    <t>冰封禁制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_spin_web</t>
-  </si>
-  <si>
-    <t>织网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_insatiable_hunger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极度饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">小技能 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_poison_sting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>venomancer_poison_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phantom_assassin_blur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_smoke_screen</t>
-  </si>
-  <si>
-    <t>烟雾弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>razor_eye_of_the_storm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎阳索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ember_spirit_searing_chains</t>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_knight_breathe_fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinkz_searing_arrows</t>
-  </si>
-  <si>
-    <t>灼热之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>5 10 15 20 25 30</t>
+  </si>
+  <si>
+    <t>5 10 15 20 25 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_strafe</t>
+  </si>
+  <si>
+    <t>阎刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doom_bringer_infernal_blade</t>
+  </si>
+  <si>
+    <t>骨球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undead_tusk_bone_ball</t>
+  </si>
+  <si>
+    <t>4 8 12 16 20 24 28 32</t>
   </si>
 </sst>
 </file>
@@ -987,17 +1100,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A26" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+    <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="10" max="10" width="88.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1020,53 +1134,45 @@
         <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="J1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>146</v>
+        <v>24</v>
       </c>
       <c r="B2" t="s">
-        <v>145</v>
-      </c>
-      <c r="C2" s="1">
-        <v>1</v>
+        <v>40</v>
       </c>
       <c r="I2">
-        <f t="shared" ref="I2:I39" si="0">C2+D2+E2+F2+G2+H2</f>
-        <v>1</v>
+        <f>C2+D2+E2+F2+G2+H2</f>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>142</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>141</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
       <c r="I3">
-        <f t="shared" si="0"/>
+        <f>C3+D3+E3+F3+G3+H3</f>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>134</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>135</v>
+        <v>33</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1077,15 +1183,16 @@
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4">
+        <f>C4+D4+E4+F4+G4+H4</f>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>115</v>
+        <v>130</v>
       </c>
       <c r="B5" t="s">
-        <v>116</v>
+        <v>131</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1096,18 +1203,17 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5">
-        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
       <c r="B6" t="s">
-        <v>54</v>
-      </c>
-      <c r="C6" s="2">
+        <v>113</v>
+      </c>
+      <c r="C6" s="1">
         <v>1</v>
       </c>
       <c r="D6" s="2"/>
@@ -1116,16 +1222,16 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
-        <f t="shared" si="0"/>
+        <f>C6+D6+E6+F6+G6+H6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>129</v>
       </c>
       <c r="B7" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1136,16 +1242,16 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7">
-        <f t="shared" si="0"/>
+        <f>C7+D7+E7+F7+G7+H7</f>
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>117</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>107</v>
+        <v>61</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1156,76 +1262,76 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8">
-        <f t="shared" si="0"/>
+        <f>C8+D8+E8+F8+G8+H8</f>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>114</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2">
-        <v>2</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="C9" s="2">
+        <v>1</v>
+      </c>
+      <c r="D9" s="2"/>
       <c r="E9" s="2"/>
       <c r="F9" s="2"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C9+D9+E9+F9+G9+H9</f>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>156</v>
       </c>
       <c r="B10" t="s">
-        <v>49</v>
-      </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2">
-        <v>2</v>
-      </c>
+        <v>157</v>
+      </c>
+      <c r="C10" s="2">
+        <v>1</v>
+      </c>
+      <c r="D10" s="2"/>
       <c r="E10" s="2"/>
       <c r="F10" s="2"/>
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C10+D10+E10+F10+G10+H10</f>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>90</v>
       </c>
       <c r="B11" t="s">
-        <v>108</v>
-      </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2">
-        <v>2</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2"/>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11">
-        <f t="shared" si="0"/>
-        <v>2</v>
+        <f>C11+D11+E11+F11+G11+H11</f>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>66</v>
+        <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1236,16 +1342,16 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12">
-        <f t="shared" si="0"/>
+        <f>C12+D12+E12+F12+G12+H12</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>68</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>67</v>
+        <v>49</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1256,16 +1362,16 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13">
-        <f t="shared" si="0"/>
+        <f>C13+D13+E13+F13+G13+H13</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>143</v>
+        <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>144</v>
+        <v>106</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -1276,16 +1382,16 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14">
-        <f t="shared" si="0"/>
+        <f>C14+D14+E14+F14+G14+H14</f>
         <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -1296,20 +1402,18 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15">
-        <f t="shared" si="0"/>
+        <f>C15+D15+E15+F15+G15+H15</f>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>131</v>
+        <v>67</v>
       </c>
       <c r="B16" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="2">
-        <v>1</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="C16" s="2"/>
       <c r="D16" s="2">
         <v>2</v>
       </c>
@@ -1318,20 +1422,18 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <f>C16+D16+E16+F16+G16+H16</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>139</v>
       </c>
       <c r="B17" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="2">
-        <v>1</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="C17" s="2"/>
       <c r="D17" s="2">
         <v>2</v>
       </c>
@@ -1340,20 +1442,18 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <f>C17+D17+E17+F17+G17+H17</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>69</v>
       </c>
       <c r="B18" t="s">
-        <v>35</v>
-      </c>
-      <c r="C18" s="2">
-        <v>1</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="C18" s="2"/>
       <c r="D18" s="2">
         <v>2</v>
       </c>
@@ -1362,74 +1462,82 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <f>C18+D18+E18+F18+G18+H18</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>127</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C19" s="2">
+        <v>1</v>
+      </c>
+      <c r="D19" s="2">
+        <v>2</v>
+      </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19">
         <f>C19+D19+E19+F19+G19+H19</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="B20" t="s">
-        <v>114</v>
-      </c>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-      <c r="E20" s="2">
-        <v>4</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C20" s="2">
+        <v>1</v>
+      </c>
+      <c r="D20" s="2">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2"/>
       <c r="F20" s="2"/>
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <f>C20+D20+E20+F20+G20+H20</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>112</v>
-      </c>
-      <c r="C21" s="2"/>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2">
-        <v>4</v>
-      </c>
+        <v>35</v>
+      </c>
+      <c r="C21" s="2">
+        <v>1</v>
+      </c>
+      <c r="D21" s="2">
+        <v>2</v>
+      </c>
+      <c r="E21" s="2"/>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <f>C21+D21+E21+F21+G21+H21</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1440,16 +1548,16 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22">
-        <f t="shared" si="0"/>
+        <f>C22+D22+E22+F22+G22+H22</f>
         <v>4</v>
       </c>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>36</v>
+        <v>111</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1460,16 +1568,16 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23">
-        <f t="shared" si="0"/>
+        <f>C23+D23+E23+F23+G23+H23</f>
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1480,20 +1588,18 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24">
-        <f t="shared" si="0"/>
+        <f>C24+D24+E24+F24+G24+H24</f>
         <v>4</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
-      </c>
-      <c r="C25" s="2">
-        <v>1</v>
-      </c>
+        <v>169</v>
+      </c>
+      <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2">
         <v>4</v>
@@ -1502,20 +1608,18 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <f>C25+D25+E25+F25+G25+H25</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>170</v>
       </c>
       <c r="B26" t="s">
-        <v>101</v>
-      </c>
-      <c r="C26" s="2">
-        <v>1</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2">
         <v>4</v>
@@ -1524,179 +1628,193 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <f>C26+D26+E26+F26+G26+H26</f>
+        <v>4</v>
+      </c>
+      <c r="J26" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="B27" t="s">
-        <v>102</v>
+        <v>37</v>
       </c>
       <c r="C27" s="2"/>
-      <c r="D27" s="1">
-        <v>2</v>
-      </c>
-      <c r="E27" s="1">
+      <c r="D27" s="2"/>
+      <c r="E27" s="2">
         <v>4</v>
       </c>
       <c r="F27" s="2"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <f>C27+D27+E27+F27+G27+H27</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="B28" t="s">
         <v>104</v>
       </c>
-      <c r="C28" s="2"/>
-      <c r="D28" s="1">
-        <v>2</v>
-      </c>
-      <c r="E28" s="1">
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2">
         <v>4</v>
       </c>
       <c r="F28" s="2"/>
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <f>C28+D28+E28+F28+G28+H28</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>148</v>
+        <v>174</v>
       </c>
       <c r="B29" t="s">
-        <v>147</v>
-      </c>
-      <c r="C29" s="2"/>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-      <c r="F29" s="2">
-        <v>8</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="C29" s="2">
+        <v>1</v>
+      </c>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2">
+        <v>4</v>
+      </c>
+      <c r="F29" s="2"/>
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <f>C29+D29+E29+F29+G29+H29</f>
+        <v>5</v>
+      </c>
+      <c r="J29" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.8" customHeight="1">
       <c r="A30" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
-      </c>
-      <c r="C30" s="2"/>
+        <v>99</v>
+      </c>
+      <c r="C30" s="2">
+        <v>1</v>
+      </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2">
-        <v>8</v>
-      </c>
+      <c r="E30" s="2">
+        <v>4</v>
+      </c>
+      <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <f>C30+D30+E30+F30+G30+H30</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="B31" t="s">
-        <v>42</v>
+        <v>176</v>
       </c>
       <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2">
-        <v>8</v>
-      </c>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4</v>
+      </c>
+      <c r="F31" s="2"/>
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <f>C31+D31+E31+F31+G31+H31</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>72</v>
+        <v>101</v>
       </c>
       <c r="B32" t="s">
-        <v>71</v>
+        <v>100</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2">
-        <v>8</v>
-      </c>
+      <c r="D32" s="1">
+        <v>2</v>
+      </c>
+      <c r="E32" s="1">
+        <v>4</v>
+      </c>
+      <c r="F32" s="2"/>
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C32+D32+E32+F32+G32+H32</f>
+        <v>6</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>73</v>
+        <v>102</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2"/>
-      <c r="F33" s="2">
-        <v>8</v>
-      </c>
+      <c r="D33" s="1">
+        <v>2</v>
+      </c>
+      <c r="E33" s="1">
+        <v>4</v>
+      </c>
+      <c r="F33" s="2"/>
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33">
-        <f t="shared" si="0"/>
-        <v>8</v>
+        <f>C33+D33+E33+F33+G33+H33</f>
+        <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>76</v>
+        <v>144</v>
       </c>
       <c r="B34" t="s">
-        <v>75</v>
+        <v>143</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="2"/>
-      <c r="E34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="2">
         <v>8</v>
       </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <f t="shared" si="0"/>
         <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>52</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
@@ -1707,20 +1825,18 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f t="shared" si="0"/>
+        <f>C35+D35+E35+F35+G35+H35</f>
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>164</v>
+        <v>98</v>
       </c>
       <c r="B36" t="s">
-        <v>165</v>
-      </c>
-      <c r="C36" s="2">
-        <v>1</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
       <c r="F36" s="2">
@@ -1729,20 +1845,18 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C36+D36+E36+F36+G36+H36</f>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C37" s="2">
-        <v>1</v>
-      </c>
+        <v>70</v>
+      </c>
+      <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
       <c r="F37" s="2">
@@ -1751,274 +1865,276 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C37+D37+E37+F37+G37+H37</f>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>2</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>163</v>
-      </c>
-      <c r="C38" s="1">
-        <v>1</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="C38" s="2"/>
       <c r="D38" s="2"/>
       <c r="E38" s="2"/>
-      <c r="F38" s="1">
+      <c r="F38" s="2">
         <v>8</v>
       </c>
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38">
-        <f t="shared" si="0"/>
-        <v>9</v>
+        <f>C38+D38+E38+F38+G38+H38</f>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>159</v>
+        <v>75</v>
       </c>
       <c r="B39" t="s">
-        <v>160</v>
-      </c>
-      <c r="C39" s="1"/>
-      <c r="D39" s="2">
-        <v>2</v>
-      </c>
+        <v>74</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
       <c r="E39" s="2"/>
-      <c r="F39" s="1">
+      <c r="F39" s="2">
         <v>8</v>
       </c>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39">
-        <f t="shared" si="0"/>
-        <v>10</v>
+        <f>C39+D39+E39+F39+G39+H39</f>
+        <v>8</v>
       </c>
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B40" t="s">
-        <v>98</v>
-      </c>
-      <c r="C40" s="1"/>
-      <c r="D40" s="2">
-        <v>2</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
       <c r="E40" s="2"/>
-      <c r="F40" s="1">
+      <c r="F40" s="2">
         <v>8</v>
       </c>
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40">
-        <f t="shared" ref="I40:I77" si="1">C40+D40+E40+F40+G40+H40</f>
-        <v>10</v>
+        <f>C40+D40+E40+F40+G40+H40</f>
+        <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>97</v>
+        <v>154</v>
       </c>
       <c r="B41" t="s">
-        <v>96</v>
-      </c>
-      <c r="C41" s="1"/>
-      <c r="D41" s="2">
-        <v>2</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
+      <c r="D41" s="2"/>
       <c r="E41" s="2"/>
-      <c r="F41" s="1">
+      <c r="F41" s="2">
         <v>8</v>
       </c>
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41">
-        <f t="shared" si="1"/>
-        <v>10</v>
+        <f>C41+D41+E41+F41+G41+H41</f>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>162</v>
+        <v>92</v>
       </c>
       <c r="B42" t="s">
-        <v>161</v>
-      </c>
-      <c r="C42" s="1"/>
+        <v>93</v>
+      </c>
+      <c r="C42" s="2">
+        <v>1</v>
+      </c>
       <c r="D42" s="2"/>
-      <c r="E42" s="2">
-        <v>4</v>
-      </c>
-      <c r="F42" s="1">
+      <c r="E42" s="2"/>
+      <c r="F42" s="2">
         <v>8</v>
       </c>
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>C42+D42+E42+F42+G42+H42</f>
+        <v>9</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>93</v>
-      </c>
-      <c r="C43" s="2"/>
+        <v>153</v>
+      </c>
+      <c r="C43" s="1">
+        <v>1</v>
+      </c>
       <c r="D43" s="2"/>
-      <c r="E43" s="2">
-        <v>4</v>
-      </c>
-      <c r="F43" s="2">
+      <c r="E43" s="2"/>
+      <c r="F43" s="1">
         <v>8</v>
       </c>
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>C43+D43+E43+F43+G43+H43</f>
+        <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>64</v>
+        <v>149</v>
       </c>
       <c r="B44" t="s">
-        <v>63</v>
-      </c>
-      <c r="C44" s="2"/>
-      <c r="D44" s="2"/>
-      <c r="E44" s="2">
-        <v>4</v>
-      </c>
-      <c r="F44" s="2">
+        <v>150</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2">
+        <v>2</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="1">
         <v>8</v>
       </c>
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44">
-        <f t="shared" si="1"/>
-        <v>12</v>
+        <f>C44+D44+E44+F44+G44+H44</f>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>119</v>
+        <v>97</v>
       </c>
       <c r="B45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C45" s="2"/>
-      <c r="D45" s="2"/>
+        <v>96</v>
+      </c>
+      <c r="C45" s="1"/>
+      <c r="D45" s="2">
+        <v>2</v>
+      </c>
       <c r="E45" s="2"/>
-      <c r="F45" s="2"/>
-      <c r="G45" s="2">
-        <v>16</v>
-      </c>
+      <c r="F45" s="1">
+        <v>8</v>
+      </c>
+      <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>C45+D45+E45+F45+G45+H45</f>
+        <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="B46" t="s">
-        <v>56</v>
-      </c>
-      <c r="C46" s="2"/>
-      <c r="D46" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="C46" s="1"/>
+      <c r="D46" s="2">
+        <v>2</v>
+      </c>
       <c r="E46" s="2"/>
-      <c r="F46" s="2"/>
-      <c r="G46" s="2">
-        <v>16</v>
-      </c>
+      <c r="F46" s="1">
+        <v>8</v>
+      </c>
+      <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>C46+D46+E46+F46+G46+H46</f>
+        <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>17</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>109</v>
-      </c>
-      <c r="C47" s="2"/>
+        <v>151</v>
+      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="2"/>
-      <c r="E47" s="2"/>
-      <c r="F47" s="2"/>
-      <c r="G47" s="2">
-        <v>16</v>
-      </c>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
+      <c r="F47" s="1">
+        <v>8</v>
+      </c>
+      <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>C47+D47+E47+F47+G47+H47</f>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>82</v>
+        <v>108</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
-      <c r="E48" s="2"/>
-      <c r="F48" s="2"/>
-      <c r="G48" s="2">
-        <v>16</v>
-      </c>
+      <c r="E48" s="2">
+        <v>4</v>
+      </c>
+      <c r="F48" s="2">
+        <v>8</v>
+      </c>
+      <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>C48+D48+E48+F48+G48+H48</f>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>91</v>
+        <v>63</v>
       </c>
       <c r="B49" t="s">
-        <v>51</v>
+        <v>62</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2">
-        <v>16</v>
-      </c>
+      <c r="E49" s="2">
+        <v>4</v>
+      </c>
+      <c r="F49" s="2">
+        <v>8</v>
+      </c>
+      <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <f>C49+D49+E49+F49+G49+H49</f>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B50" t="s">
-        <v>168</v>
-      </c>
-      <c r="C50" s="2">
-        <v>1</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="C50" s="2"/>
       <c r="D50" s="2"/>
       <c r="E50" s="2"/>
       <c r="F50" s="2"/>
@@ -2027,20 +2143,21 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50">
-        <f t="shared" si="1"/>
-        <v>17</v>
+        <f>C50+D50+E50+F50+G50+H50</f>
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>192</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>162</v>
       </c>
       <c r="B51" t="s">
-        <v>141</v>
-      </c>
-      <c r="C51" s="2">
-        <v>1</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="C51" s="2"/>
       <c r="D51" s="2"/>
       <c r="E51" s="2"/>
       <c r="F51" s="2"/>
@@ -2049,15 +2166,19 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51">
-        <v>17</v>
+        <f>C51+D51+E51+F51+G51+H51</f>
+        <v>16</v>
+      </c>
+      <c r="J51" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>166</v>
+        <v>116</v>
       </c>
       <c r="B52" t="s">
-        <v>167</v>
+        <v>115</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2068,16 +2189,16 @@
       </c>
       <c r="H52" s="2"/>
       <c r="I52">
-        <f t="shared" si="1"/>
+        <f>C52+D52+E52+F52+G52+H52</f>
         <v>16</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>92</v>
+        <v>54</v>
       </c>
       <c r="B53" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2088,21 +2209,19 @@
       </c>
       <c r="H53" s="2"/>
       <c r="I53">
-        <f t="shared" si="1"/>
+        <f>C53+D53+E53+F53+G53+H53</f>
         <v>16</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2"/>
-      <c r="D54" s="2">
-        <v>2</v>
-      </c>
+      <c r="D54" s="2"/>
       <c r="E54" s="2"/>
       <c r="F54" s="2"/>
       <c r="G54" s="2">
@@ -2110,21 +2229,19 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>C54+D54+E54+F54+G54+H54</f>
+        <v>16</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
+        <v>81</v>
+      </c>
+      <c r="B55" t="s">
         <v>80</v>
       </c>
-      <c r="B55" t="s">
-        <v>79</v>
-      </c>
       <c r="C55" s="2"/>
-      <c r="D55" s="2">
-        <v>2</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2"/>
       <c r="F55" s="2"/>
       <c r="G55" s="2">
@@ -2132,346 +2249,356 @@
       </c>
       <c r="H55" s="2"/>
       <c r="I55">
-        <f t="shared" si="1"/>
-        <v>18</v>
+        <f>C55+D55+E55+F55+G55+H55</f>
+        <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>89</v>
       </c>
       <c r="B56" t="s">
-        <v>125</v>
+        <v>51</v>
       </c>
       <c r="C56" s="2"/>
-      <c r="D56" s="2">
-        <v>2</v>
-      </c>
-      <c r="E56" s="2">
-        <v>4</v>
-      </c>
+      <c r="D56" s="2"/>
+      <c r="E56" s="2"/>
       <c r="F56" s="2"/>
       <c r="G56" s="2">
         <v>16</v>
       </c>
       <c r="H56" s="2"/>
       <c r="I56">
-        <f t="shared" si="1"/>
-        <v>22</v>
+        <f>C56+D56+E56+F56+G56+H56</f>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>127</v>
+        <v>160</v>
       </c>
       <c r="B57" t="s">
-        <v>128</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>161</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
       <c r="D57" s="2"/>
-      <c r="E57" s="2">
-        <v>4</v>
-      </c>
+      <c r="E57" s="2"/>
       <c r="F57" s="2"/>
       <c r="G57" s="2">
         <v>16</v>
       </c>
       <c r="H57" s="2"/>
       <c r="I57">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>C57+D57+E57+F57+G57+H57</f>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>126</v>
+        <v>159</v>
       </c>
       <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" s="1"/>
+        <v>158</v>
+      </c>
+      <c r="C58" s="2">
+        <v>1</v>
+      </c>
       <c r="D58" s="2"/>
-      <c r="E58" s="1">
-        <v>4</v>
-      </c>
+      <c r="E58" s="2"/>
       <c r="F58" s="2"/>
-      <c r="G58" s="1">
+      <c r="G58" s="2">
         <v>16</v>
       </c>
       <c r="H58" s="2"/>
       <c r="I58">
-        <f t="shared" si="1"/>
-        <v>20</v>
+        <f>C58+D58+E58+F58+G58+H58</f>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="B59" t="s">
-        <v>149</v>
-      </c>
-      <c r="C59" s="1"/>
+        <v>137</v>
+      </c>
+      <c r="C59" s="2">
+        <v>1</v>
+      </c>
       <c r="D59" s="2"/>
-      <c r="E59" s="1">
-        <v>4</v>
-      </c>
+      <c r="E59" s="2"/>
       <c r="F59" s="2"/>
-      <c r="G59" s="1">
+      <c r="G59" s="2">
         <v>16</v>
       </c>
       <c r="H59" s="2"/>
       <c r="I59">
-        <f>C59+D59+E59+F59+G59+H59</f>
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>4</v>
+        <v>164</v>
       </c>
       <c r="B60" t="s">
-        <v>32</v>
+        <v>166</v>
       </c>
       <c r="C60" s="2"/>
-      <c r="D60" s="2"/>
+      <c r="D60" s="2">
+        <v>2</v>
+      </c>
       <c r="E60" s="2"/>
-      <c r="F60" s="1">
-        <v>8</v>
-      </c>
-      <c r="G60" s="1">
+      <c r="F60" s="2"/>
+      <c r="G60" s="2">
         <v>16</v>
       </c>
       <c r="H60" s="2"/>
       <c r="I60">
-        <f t="shared" si="1"/>
-        <v>24</v>
-      </c>
-      <c r="J60" t="s">
-        <v>158</v>
+        <f>C60+D60+E60+F60+G60+H60</f>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
+        <v>165</v>
       </c>
       <c r="C61" s="2"/>
-      <c r="D61" s="2"/>
+      <c r="D61" s="2">
+        <v>2</v>
+      </c>
       <c r="E61" s="2"/>
-      <c r="F61" s="2">
-        <v>8</v>
-      </c>
+      <c r="F61" s="2"/>
       <c r="G61" s="2">
         <v>16</v>
       </c>
       <c r="H61" s="2"/>
       <c r="I61">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <f>C61+D61+E61+F61+G61+H61</f>
+        <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>78</v>
       </c>
       <c r="C62" s="2"/>
-      <c r="D62" s="2"/>
+      <c r="D62" s="2">
+        <v>2</v>
+      </c>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
-      <c r="G62" s="2"/>
-      <c r="H62" s="2">
-        <v>32</v>
-      </c>
+      <c r="G62" s="2">
+        <v>16</v>
+      </c>
+      <c r="H62" s="2"/>
       <c r="I62">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C62+D62+E62+F62+G62+H62</f>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>23</v>
+        <v>179</v>
       </c>
       <c r="B63" t="s">
-        <v>39</v>
+        <v>180</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
-      <c r="E63" s="2"/>
+      <c r="E63" s="2">
+        <v>4</v>
+      </c>
       <c r="F63" s="2"/>
-      <c r="G63" s="2"/>
-      <c r="H63" s="2">
-        <v>32</v>
-      </c>
+      <c r="G63" s="2">
+        <v>16</v>
+      </c>
+      <c r="H63" s="2"/>
       <c r="I63">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C63+D63+E63+F63+G63+H63</f>
+        <v>20</v>
+      </c>
+      <c r="J63" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>25</v>
+        <v>123</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>124</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
-      <c r="E64" s="2"/>
+      <c r="E64" s="2">
+        <v>4</v>
+      </c>
       <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="2">
-        <v>32</v>
-      </c>
+      <c r="G64" s="2">
+        <v>16</v>
+      </c>
+      <c r="H64" s="2"/>
       <c r="I64">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C64+D64+E64+F64+G64+H64</f>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="B65" t="s">
-        <v>58</v>
-      </c>
-      <c r="C65" s="2"/>
+        <v>29</v>
+      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="2"/>
+      <c r="E65" s="1">
+        <v>4</v>
+      </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="2">
-        <v>32</v>
-      </c>
+      <c r="G65" s="1">
+        <v>16</v>
+      </c>
+      <c r="H65" s="2"/>
       <c r="I65">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C65+D65+E65+F65+G65+H65</f>
+        <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B66" t="s">
-        <v>129</v>
+        <v>121</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2"/>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2">
+        <v>4</v>
+      </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="2">
-        <v>32</v>
-      </c>
+      <c r="G66" s="2">
+        <v>16</v>
+      </c>
+      <c r="H66" s="2"/>
       <c r="I66">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <f>C66+D66+E66+F66+G66+H66</f>
+        <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>89</v>
+        <v>146</v>
       </c>
       <c r="B67" t="s">
-        <v>88</v>
-      </c>
-      <c r="C67" s="2">
-        <v>1</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C67" s="1"/>
       <c r="D67" s="2"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="2">
-        <v>32</v>
-      </c>
+      <c r="E67" s="1"/>
+      <c r="F67" s="2">
+        <v>8</v>
+      </c>
+      <c r="G67" s="1">
+        <v>16</v>
+      </c>
+      <c r="H67" s="2"/>
       <c r="I67">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f>C67+D67+E67+F67+G67+H67</f>
+        <v>24</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B68" t="s">
-        <v>57</v>
-      </c>
-      <c r="C68" s="2">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="2">
-        <v>32</v>
-      </c>
+      <c r="F68" s="1">
+        <v>8</v>
+      </c>
+      <c r="G68" s="1">
+        <v>16</v>
+      </c>
+      <c r="H68" s="2"/>
       <c r="I68">
-        <f t="shared" si="1"/>
-        <v>33</v>
+        <f>C68+D68+E68+F68+G68+H68</f>
+        <v>24</v>
+      </c>
+      <c r="J68" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
       <c r="B69" t="s">
-        <v>138</v>
+        <v>59</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>2</v>
-      </c>
+      <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="2"/>
-      <c r="G69" s="2"/>
-      <c r="H69" s="2">
-        <v>32</v>
-      </c>
+      <c r="F69" s="2">
+        <v>8</v>
+      </c>
+      <c r="G69" s="2">
+        <v>16</v>
+      </c>
+      <c r="H69" s="2"/>
       <c r="I69">
-        <f t="shared" ref="I69" si="2">C69+D69+E69+F69+G69+H69</f>
-        <v>34</v>
+        <f>C69+D69+E69+F69+G69+H69</f>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="B70" t="s">
-        <v>139</v>
+        <v>178</v>
       </c>
       <c r="C70" s="2"/>
-      <c r="D70" s="2">
-        <v>2</v>
-      </c>
-      <c r="E70" s="2"/>
-      <c r="F70" s="2"/>
-      <c r="G70" s="2"/>
-      <c r="H70" s="2">
-        <v>32</v>
-      </c>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2">
+        <v>8</v>
+      </c>
+      <c r="G70" s="2">
+        <v>16</v>
+      </c>
+      <c r="H70" s="2"/>
       <c r="I70">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f>C70+D70+E70+F70+G70+H70</f>
+        <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>85</v>
+        <v>198</v>
       </c>
       <c r="B71" t="s">
-        <v>86</v>
+        <v>199</v>
       </c>
       <c r="C71" s="2"/>
-      <c r="D71" s="2">
-        <v>2</v>
-      </c>
+      <c r="D71" s="2"/>
       <c r="E71" s="2"/>
       <c r="F71" s="2"/>
       <c r="G71" s="2"/>
@@ -2479,219 +2606,505 @@
         <v>32</v>
       </c>
       <c r="I71">
-        <f t="shared" si="1"/>
-        <v>34</v>
+        <f>C71+D71+E71+F71+G71+H71</f>
+        <v>32</v>
+      </c>
+      <c r="J71" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="B72" t="s">
-        <v>122</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
-      <c r="E72" s="2">
-        <v>4</v>
-      </c>
+      <c r="E72" s="2"/>
       <c r="F72" s="2"/>
       <c r="G72" s="2"/>
       <c r="H72" s="2">
         <v>32</v>
       </c>
       <c r="I72">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f>C72+D72+E72+F72+G72+H72</f>
+        <v>32</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>90</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2">
-        <v>4</v>
-      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2"/>
       <c r="G73" s="2"/>
       <c r="H73" s="2">
         <v>32</v>
       </c>
       <c r="I73">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f>C73+D73+E73+F73+G73+H73</f>
+        <v>32</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>123</v>
+        <v>25</v>
       </c>
       <c r="B74" t="s">
-        <v>124</v>
+        <v>41</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2">
-        <v>4</v>
-      </c>
+      <c r="E74" s="2"/>
       <c r="F74" s="2"/>
       <c r="G74" s="2"/>
       <c r="H74" s="2">
         <v>32</v>
       </c>
       <c r="I74">
-        <f t="shared" si="1"/>
-        <v>36</v>
+        <f>C74+D74+E74+F74+G74+H74</f>
+        <v>32</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B75" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
       <c r="E75" s="2"/>
-      <c r="F75" s="1">
-        <v>8</v>
-      </c>
+      <c r="F75" s="2"/>
       <c r="G75" s="2"/>
-      <c r="H75" s="1">
+      <c r="H75" s="2">
         <v>32</v>
       </c>
       <c r="I75">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J75" t="s">
-        <v>157</v>
+        <f>C75+D75+E75+F75+G75+H75</f>
+        <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>3</v>
+        <v>126</v>
       </c>
       <c r="B76" t="s">
-        <v>156</v>
+        <v>125</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
       <c r="E76" s="2"/>
-      <c r="F76" s="1">
-        <v>8</v>
-      </c>
+      <c r="F76" s="2"/>
       <c r="G76" s="2"/>
-      <c r="H76" s="1">
+      <c r="H76" s="2">
         <v>32</v>
       </c>
       <c r="I76">
-        <f t="shared" si="1"/>
-        <v>40</v>
+        <f>C76+D76+E76+F76+G76+H76</f>
+        <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>151</v>
+        <v>87</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
-      </c>
-      <c r="C77" s="2"/>
+        <v>86</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="1">
-        <v>8</v>
-      </c>
+      <c r="F77" s="2"/>
       <c r="G77" s="2"/>
-      <c r="H77" s="1">
+      <c r="H77" s="2">
         <v>32</v>
       </c>
       <c r="I77">
-        <f t="shared" si="1"/>
-        <v>40</v>
-      </c>
-      <c r="J77" t="s">
-        <v>153</v>
+        <f>C77+D77+E77+F77+G77+H77</f>
+        <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>8</v>
+        <v>183</v>
       </c>
       <c r="B78" t="s">
-        <v>155</v>
-      </c>
-      <c r="C78" s="2"/>
+        <v>184</v>
+      </c>
+      <c r="C78" s="2">
+        <v>1</v>
+      </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
-      <c r="F78" s="2">
-        <v>8</v>
-      </c>
+      <c r="F78" s="2"/>
       <c r="G78" s="2"/>
       <c r="H78" s="2">
         <v>32</v>
       </c>
       <c r="I78">
-        <f t="shared" ref="I78:I80" si="3">C78+D78+E78+F78+G78+H78</f>
-        <v>40</v>
-      </c>
-      <c r="J78" t="s">
-        <v>152</v>
+        <f>C78+D78+E78+F78+G78+H78</f>
+        <v>33</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="B79" t="s">
-        <v>31</v>
-      </c>
-      <c r="C79" s="2"/>
+        <v>56</v>
+      </c>
+      <c r="C79" s="2">
+        <v>1</v>
+      </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
-      <c r="G79" s="1">
-        <v>16</v>
-      </c>
-      <c r="H79" s="1">
+      <c r="G79" s="2"/>
+      <c r="H79" s="2">
         <v>32</v>
       </c>
       <c r="I79">
-        <f t="shared" si="3"/>
-        <v>48</v>
+        <f>C79+D79+E79+F79+G79+H79</f>
+        <v>33</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>22</v>
+        <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>59</v>
+        <v>134</v>
       </c>
       <c r="C80" s="2"/>
-      <c r="D80" s="2"/>
+      <c r="D80" s="2">
+        <v>2</v>
+      </c>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
-      <c r="G80" s="2">
-        <v>16</v>
-      </c>
+      <c r="G80" s="2"/>
       <c r="H80" s="2">
         <v>32</v>
       </c>
       <c r="I80">
-        <f t="shared" si="3"/>
+        <f>C80+D80+E80+F80+G80+H80</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" t="s">
+        <v>136</v>
+      </c>
+      <c r="B81" t="s">
+        <v>135</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2">
+        <v>2</v>
+      </c>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2">
+        <v>32</v>
+      </c>
+      <c r="I81">
+        <f>C81+D81+E81+F81+G81+H81</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" t="s">
+        <v>83</v>
+      </c>
+      <c r="B82" t="s">
+        <v>84</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2">
+        <v>2</v>
+      </c>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2">
+        <v>32</v>
+      </c>
+      <c r="I82">
+        <f>C82+D82+E82+F82+G82+H82</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" t="s">
+        <v>119</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2">
+        <v>4</v>
+      </c>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2">
+        <v>32</v>
+      </c>
+      <c r="I83">
+        <f>C83+D83+E83+F83+G83+H83</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" t="s">
+        <v>88</v>
+      </c>
+      <c r="B84" t="s">
+        <v>118</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2">
+        <v>4</v>
+      </c>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2">
+        <v>32</v>
+      </c>
+      <c r="I84">
+        <f>C84+D84+E84+F84+G84+H84</f>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" t="s">
+        <v>120</v>
+      </c>
+      <c r="B85" t="s">
+        <v>191</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2">
+        <v>4</v>
+      </c>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2">
+        <v>32</v>
+      </c>
+      <c r="I85">
+        <f>C85+D85+E85+F85+G85+H85</f>
+        <v>36</v>
+      </c>
+      <c r="J85" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B86" t="s">
+        <v>30</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="1">
+        <v>8</v>
+      </c>
+      <c r="G86" s="2"/>
+      <c r="H86" s="1">
+        <v>32</v>
+      </c>
+      <c r="I86">
+        <f>C86+D86+E86+F86+G86+H86</f>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" t="s">
+        <v>3</v>
+      </c>
+      <c r="B87" t="s">
+        <v>185</v>
+      </c>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="1">
+        <v>8</v>
+      </c>
+      <c r="G87" s="2"/>
+      <c r="H87" s="1">
+        <v>32</v>
+      </c>
+      <c r="I87">
+        <f>C87+D87+E87+F87+G87+H87</f>
+        <v>40</v>
+      </c>
+      <c r="J87" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" t="s">
+        <v>147</v>
+      </c>
+      <c r="B88" t="s">
+        <v>187</v>
+      </c>
+      <c r="C88" s="2"/>
+      <c r="D88" s="2"/>
+      <c r="E88" s="2"/>
+      <c r="F88" s="1">
+        <v>8</v>
+      </c>
+      <c r="G88" s="2"/>
+      <c r="H88" s="1">
+        <v>32</v>
+      </c>
+      <c r="I88">
+        <f>C88+D88+E88+F88+G88+H88</f>
+        <v>40</v>
+      </c>
+      <c r="J88" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" t="s">
+        <v>8</v>
+      </c>
+      <c r="B89" t="s">
+        <v>189</v>
+      </c>
+      <c r="C89" s="2"/>
+      <c r="D89" s="2"/>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2">
+        <v>8</v>
+      </c>
+      <c r="G89" s="2"/>
+      <c r="H89" s="2">
+        <v>32</v>
+      </c>
+      <c r="I89">
+        <f>C89+D89+E89+F89+G89+H89</f>
+        <v>40</v>
+      </c>
+      <c r="J89" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" t="s">
+        <v>196</v>
+      </c>
+      <c r="B90" t="s">
+        <v>197</v>
+      </c>
+      <c r="C90" s="2"/>
+      <c r="D90" s="2"/>
+      <c r="E90" s="2"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="2">
+        <v>16</v>
+      </c>
+      <c r="H90" s="2">
+        <v>32</v>
+      </c>
+      <c r="I90">
+        <f>C90+D90+E90+F90+G90+H90</f>
         <v>48</v>
       </c>
     </row>
+    <row r="91" spans="1:10">
+      <c r="A91" t="s">
+        <v>132</v>
+      </c>
+      <c r="B91" t="s">
+        <v>31</v>
+      </c>
+      <c r="C91" s="2"/>
+      <c r="D91" s="2"/>
+      <c r="E91" s="2"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1">
+        <v>16</v>
+      </c>
+      <c r="H91" s="1">
+        <v>32</v>
+      </c>
+      <c r="I91">
+        <f>C91+D91+E91+F91+G91+H91</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" t="s">
+        <v>22</v>
+      </c>
+      <c r="B92" t="s">
+        <v>58</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
+        <v>16</v>
+      </c>
+      <c r="H92" s="2">
+        <v>32</v>
+      </c>
+      <c r="I92">
+        <f>C92+D92+E92+F92+G92+H92</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="C93" t="s">
+        <v>43</v>
+      </c>
+      <c r="D93" t="s">
+        <v>44</v>
+      </c>
+      <c r="E93" t="s">
+        <v>45</v>
+      </c>
+      <c r="F93" t="s">
+        <v>46</v>
+      </c>
+      <c r="G93" t="s">
+        <v>47</v>
+      </c>
+      <c r="H93" t="s">
+        <v>48</v>
+      </c>
+      <c r="I93" t="s">
+        <v>167</v>
+      </c>
+      <c r="J93" t="s">
+        <v>82</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState ref="A1:J67">
+  <sortState ref="A1:J90">
     <sortCondition ref="I1"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2706,7 +3119,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2719,7 +3132,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
   <si>
     <t>折射</t>
   </si>
@@ -308,442 +308,431 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>satyr_soulstealer_mana_burn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_golem_flaming_fists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰之拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_frostbite</t>
+  </si>
+  <si>
+    <t>冰封禁制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_spin_web</t>
+  </si>
+  <si>
+    <t>织网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_insatiable_hunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_smoke_screen</t>
+  </si>
+  <si>
+    <t>烟雾弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>razor_eye_of_the_storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎阳索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_searing_chains</t>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_knight_breathe_fire</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_searing_arrows</t>
+  </si>
+  <si>
+    <t>灼热之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_sleight_of_fist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩赐解脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_coup_de_grace</t>
+  </si>
+  <si>
+    <t>双刃剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_double_edge</t>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_blink</t>
+  </si>
+  <si>
+    <t>灵能陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_psionic_trap</t>
+  </si>
+  <si>
+    <t>中大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storm_spirit_ball_lightning</t>
+  </si>
+  <si>
+    <t>球状闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大  5 10 15 20 25 30 35 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_desolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alchemist_chemical_rage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 12 18 24 30 36</t>
+  </si>
+  <si>
+    <t>15 30 45 60 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥火暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_hellfire_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venomancer_poison_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 16 24 32 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 3 4 5 6 7</t>
+  </si>
+  <si>
+    <t>enigma_midnight_pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 10 15 20 25 30</t>
+  </si>
+  <si>
+    <t>5 10 15 20 25 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_strafe</t>
+  </si>
+  <si>
+    <t>阎刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doom_bringer_infernal_blade</t>
+  </si>
+  <si>
+    <t>骨球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undead_tusk_bone_ball</t>
+  </si>
+  <si>
+    <t>4 8 12 16 20 24 28 32</t>
+  </si>
+  <si>
     <t>death_prophet_carrion_swarm</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_bulldoze</t>
-  </si>
-  <si>
-    <t>威吓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazzle_bad_juju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午夜凋零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_amplify_damage</t>
-  </si>
-  <si>
-    <t>sandking_caustic_finale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoker_tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_summon_familiars_stone_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石像形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_golem_flaming_fists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰之拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiny_grow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_frostbite</t>
-  </si>
-  <si>
-    <t>冰封禁制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_spin_web</t>
-  </si>
-  <si>
-    <t>织网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_insatiable_hunger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极度饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>毒刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phantom_assassin_blur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_smoke_screen</t>
-  </si>
-  <si>
-    <t>烟雾弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>razor_eye_of_the_storm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎阳索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ember_spirit_searing_chains</t>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_knight_breathe_fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinkz_searing_arrows</t>
-  </si>
-  <si>
-    <t>灼热之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无影拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ember_spirit_sleight_of_fist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩赐解脱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phantom_assassin_coup_de_grace</t>
-  </si>
-  <si>
-    <t>双刃剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_double_edge</t>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>antimage_blink</t>
-  </si>
-  <si>
-    <t>灵能陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_psionic_trap</t>
-  </si>
-  <si>
-    <t>中大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storm_spirit_ball_lightning</t>
-  </si>
-  <si>
-    <t>球状闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大  5 10 15 20 25 30 35 99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_seer_vacuum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_desolate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alchemist_chemical_rage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 12 18 24 30 36</t>
-  </si>
-  <si>
-    <t>15 30 45 60 75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥火暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_hellfire_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>venomancer_poison_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 16 24 32 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_poison_sting</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>1 2 3 4 5 6</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 3 4 5 6 7</t>
-  </si>
-  <si>
-    <t>enigma_midnight_pulse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 10 15 20 25 30</t>
-  </si>
-  <si>
-    <t>5 10 15 20 25 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinkz_strafe</t>
-  </si>
-  <si>
-    <t>阎刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doom_bringer_infernal_blade</t>
-  </si>
-  <si>
-    <t>骨球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>undead_tusk_bone_ball</t>
-  </si>
-  <si>
-    <t>4 8 12 16 20 24 28 32</t>
+    <t>sandking_burrowstrike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掘地穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1100,11 +1089,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A62" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B77" sqref="B77"/>
+      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1134,7 +1123,7 @@
         <v>48</v>
       </c>
       <c r="I1" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="J1" t="s">
         <v>82</v>
@@ -1154,10 +1143,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1189,10 +1178,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B5" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1208,10 +1197,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1222,13 +1211,13 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
-        <f>C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" ref="I6:I33" si="0">C6+D6+E6+F6+G6+H6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B7" t="s">
         <v>53</v>
@@ -1242,7 +1231,7 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7">
-        <f>C7+D7+E7+F7+G7+H7</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1262,16 +1251,16 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8">
-        <f>C8+D8+E8+F8+G8+H8</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1282,16 +1271,16 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9">
-        <f>C9+D9+E9+F9+G9+H9</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1302,13 +1291,13 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10">
-        <f>C10+D10+E10+F10+G10+H10</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B11" t="s">
         <v>60</v>
@@ -1322,7 +1311,7 @@
       <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11">
-        <f>C11+D11+E11+F11+G11+H11</f>
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
     </row>
@@ -1342,7 +1331,7 @@
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12">
-        <f>C12+D12+E12+F12+G12+H12</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1362,7 +1351,7 @@
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13">
-        <f>C13+D13+E13+F13+G13+H13</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1371,7 +1360,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -1382,7 +1371,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
       <c r="I14">
-        <f>C14+D14+E14+F14+G14+H14</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1402,7 +1391,7 @@
       <c r="G15" s="2"/>
       <c r="H15" s="2"/>
       <c r="I15">
-        <f>C15+D15+E15+F15+G15+H15</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1422,16 +1411,16 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16">
-        <f>C16+D16+E16+F16+G16+H16</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B17" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -1442,7 +1431,7 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17">
-        <f>C17+D17+E17+F17+G17+H17</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
@@ -1462,16 +1451,16 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18">
-        <f>C18+D18+E18+F18+G18+H18</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B19" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1484,7 +1473,7 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19">
-        <f>C19+D19+E19+F19+G19+H19</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1506,7 +1495,7 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20">
-        <f>C20+D20+E20+F20+G20+H20</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1528,7 +1517,7 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21">
-        <f>C21+D21+E21+F21+G21+H21</f>
+        <f t="shared" si="0"/>
         <v>3</v>
       </c>
     </row>
@@ -1537,7 +1526,7 @@
         <v>9</v>
       </c>
       <c r="B22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1548,7 +1537,7 @@
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22">
-        <f>C22+D22+E22+F22+G22+H22</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1557,7 +1546,7 @@
         <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1568,7 +1557,7 @@
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
       <c r="I23">
-        <f>C23+D23+E23+F23+G23+H23</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
@@ -1588,16 +1577,16 @@
       <c r="G24" s="2"/>
       <c r="H24" s="2"/>
       <c r="I24">
-        <f>C24+D24+E24+F24+G24+H24</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="B25" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1608,16 +1597,16 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
       <c r="I25">
-        <f>C25+D25+E25+F25+G25+H25</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="B26" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1628,11 +1617,11 @@
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
       <c r="I26">
-        <f>C26+D26+E26+F26+G26+H26</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="J26" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="27" spans="1:10">
@@ -1651,16 +1640,16 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27">
-        <f>C27+D27+E27+F27+G27+H27</f>
+        <f t="shared" si="0"/>
         <v>4</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B28" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C28" s="2">
         <v>1</v>
@@ -1673,16 +1662,16 @@
       <c r="G28" s="2"/>
       <c r="H28" s="2"/>
       <c r="I28">
-        <f>C28+D28+E28+F28+G28+H28</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="B29" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1695,11 +1684,11 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29">
-        <f>C29+D29+E29+F29+G29+H29</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="J29" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="30" spans="1:10" ht="13.8" customHeight="1">
@@ -1707,7 +1696,7 @@
         <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1720,16 +1709,16 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30">
-        <f>C30+D30+E30+F30+G30+H30</f>
+        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="2">
@@ -1742,16 +1731,16 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31">
-        <f>C31+D31+E31+F31+G31+H31</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" s="1">
@@ -1764,7 +1753,7 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32">
-        <f>C32+D32+E32+F32+G32+H32</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
@@ -1773,7 +1762,7 @@
         <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1">
@@ -1786,16 +1775,16 @@
       <c r="G33" s="2"/>
       <c r="H33" s="2"/>
       <c r="I33">
-        <f>C33+D33+E33+F33+G33+H33</f>
+        <f t="shared" si="0"/>
         <v>6</v>
       </c>
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="B34" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1"/>
@@ -1825,13 +1814,13 @@
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f>C35+D35+E35+F35+G35+H35</f>
+        <f t="shared" ref="I35:I58" si="1">C35+D35+E35+F35+G35+H35</f>
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -1845,7 +1834,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f>C36+D36+E36+F36+G36+H36</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1865,7 +1854,7 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f>C37+D37+E37+F37+G37+H37</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1885,7 +1874,7 @@
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38">
-        <f>C38+D38+E38+F38+G38+H38</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1905,7 +1894,7 @@
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39">
-        <f>C39+D39+E39+F39+G39+H39</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
@@ -1925,16 +1914,16 @@
       <c r="G40" s="2"/>
       <c r="H40" s="2"/>
       <c r="I40">
-        <f>C40+D40+E40+F40+G40+H40</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B41" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C41" s="2">
         <v>1</v>
@@ -1947,16 +1936,16 @@
       <c r="G41" s="2"/>
       <c r="H41" s="2"/>
       <c r="I41">
-        <f>C41+D41+E41+F41+G41+H41</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
+        <v>91</v>
+      </c>
+      <c r="B42" t="s">
         <v>92</v>
-      </c>
-      <c r="B42" t="s">
-        <v>93</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1969,7 +1958,7 @@
       <c r="G42" s="2"/>
       <c r="H42" s="2"/>
       <c r="I42">
-        <f>C42+D42+E42+F42+G42+H42</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
@@ -1978,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C43" s="1">
         <v>1</v>
@@ -1991,16 +1980,16 @@
       <c r="G43" s="2"/>
       <c r="H43" s="2"/>
       <c r="I43">
-        <f>C43+D43+E43+F43+G43+H43</f>
+        <f t="shared" si="1"/>
         <v>9</v>
       </c>
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B44" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="2">
@@ -2013,16 +2002,16 @@
       <c r="G44" s="2"/>
       <c r="H44" s="2"/>
       <c r="I44">
-        <f>C44+D44+E44+F44+G44+H44</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2">
@@ -2035,16 +2024,16 @@
       <c r="G45" s="2"/>
       <c r="H45" s="2"/>
       <c r="I45">
-        <f>C45+D45+E45+F45+G45+H45</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>95</v>
+        <v>197</v>
       </c>
       <c r="B46" t="s">
-        <v>94</v>
+        <v>196</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2">
@@ -2057,16 +2046,16 @@
       <c r="G46" s="2"/>
       <c r="H46" s="2"/>
       <c r="I46">
-        <f>C46+D46+E46+F46+G46+H46</f>
+        <f t="shared" si="1"/>
         <v>10</v>
       </c>
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="B47" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2"/>
@@ -2079,16 +2068,16 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
       <c r="I47">
-        <f>C47+D47+E47+F47+G47+H47</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B48" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="2"/>
@@ -2101,7 +2090,7 @@
       <c r="G48" s="2"/>
       <c r="H48" s="2"/>
       <c r="I48">
-        <f>C48+D48+E48+F48+G48+H48</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
@@ -2123,16 +2112,16 @@
       <c r="G49" s="2"/>
       <c r="H49" s="2"/>
       <c r="I49">
-        <f>C49+D49+E49+F49+G49+H49</f>
+        <f t="shared" si="1"/>
         <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="B50" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2143,19 +2132,19 @@
       </c>
       <c r="H50" s="2"/>
       <c r="I50">
-        <f>C50+D50+E50+F50+G50+H50</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J50" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B51" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2166,19 +2155,19 @@
       </c>
       <c r="H51" s="2"/>
       <c r="I51">
-        <f>C51+D51+E51+F51+G51+H51</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B52" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2189,7 +2178,7 @@
       </c>
       <c r="H52" s="2"/>
       <c r="I52">
-        <f>C52+D52+E52+F52+G52+H52</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -2209,7 +2198,7 @@
       </c>
       <c r="H53" s="2"/>
       <c r="I53">
-        <f>C53+D53+E53+F53+G53+H53</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -2218,7 +2207,7 @@
         <v>17</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2229,7 +2218,7 @@
       </c>
       <c r="H54" s="2"/>
       <c r="I54">
-        <f>C54+D54+E54+F54+G54+H54</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
@@ -2249,13 +2238,13 @@
       </c>
       <c r="H55" s="2"/>
       <c r="I55">
-        <f>C55+D55+E55+F55+G55+H55</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s">
         <v>51</v>
@@ -2269,16 +2258,16 @@
       </c>
       <c r="H56" s="2"/>
       <c r="I56">
-        <f>C56+D56+E56+F56+G56+H56</f>
+        <f t="shared" si="1"/>
         <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="B57" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C57" s="2">
         <v>1</v>
@@ -2291,16 +2280,16 @@
       </c>
       <c r="H57" s="2"/>
       <c r="I57">
-        <f>C57+D57+E57+F57+G57+H57</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B58" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -2313,16 +2302,16 @@
       </c>
       <c r="H58" s="2"/>
       <c r="I58">
-        <f>C58+D58+E58+F58+G58+H58</f>
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B59" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -2340,10 +2329,10 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" s="2">
@@ -2356,7 +2345,7 @@
       </c>
       <c r="H60" s="2"/>
       <c r="I60">
-        <f>C60+D60+E60+F60+G60+H60</f>
+        <f t="shared" ref="I60:I91" si="2">C60+D60+E60+F60+G60+H60</f>
         <v>18</v>
       </c>
     </row>
@@ -2365,7 +2354,7 @@
         <v>13</v>
       </c>
       <c r="B61" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
@@ -2378,7 +2367,7 @@
       </c>
       <c r="H61" s="2"/>
       <c r="I61">
-        <f>C61+D61+E61+F61+G61+H61</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
@@ -2400,16 +2389,16 @@
       </c>
       <c r="H62" s="2"/>
       <c r="I62">
-        <f>C62+D62+E62+F62+G62+H62</f>
+        <f t="shared" si="2"/>
         <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B63" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2"/>
@@ -2422,19 +2411,19 @@
       </c>
       <c r="H63" s="2"/>
       <c r="I63">
-        <f>C63+D63+E63+F63+G63+H63</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
       <c r="J63" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B64" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2447,13 +2436,13 @@
       </c>
       <c r="H64" s="2"/>
       <c r="I64">
-        <f>C64+D64+E64+F64+G64+H64</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B65" t="s">
         <v>29</v>
@@ -2469,16 +2458,16 @@
       </c>
       <c r="H65" s="2"/>
       <c r="I65">
-        <f>C65+D65+E65+F65+G65+H65</f>
+        <f t="shared" si="2"/>
         <v>20</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B66" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" s="2">
@@ -2493,16 +2482,16 @@
       </c>
       <c r="H66" s="2"/>
       <c r="I66">
-        <f>C66+D66+E66+F66+G66+H66</f>
+        <f t="shared" si="2"/>
         <v>22</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B67" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C67" s="1"/>
       <c r="D67" s="2"/>
@@ -2515,7 +2504,7 @@
       </c>
       <c r="H67" s="2"/>
       <c r="I67">
-        <f>C67+D67+E67+F67+G67+H67</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
@@ -2537,11 +2526,11 @@
       </c>
       <c r="H68" s="2"/>
       <c r="I68">
-        <f>C68+D68+E68+F68+G68+H68</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
       <c r="J68" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="69" spans="1:10">
@@ -2562,16 +2551,16 @@
       </c>
       <c r="H69" s="2"/>
       <c r="I69">
-        <f>C69+D69+E69+F69+G69+H69</f>
+        <f t="shared" si="2"/>
         <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B70" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2586,16 +2575,16 @@
       </c>
       <c r="H70" s="2"/>
       <c r="I70">
-        <f>C70+D70+E70+F70+G70+H70</f>
+        <f t="shared" si="2"/>
         <v>28</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2606,11 +2595,11 @@
         <v>32</v>
       </c>
       <c r="I71">
-        <f>C71+D71+E71+F71+G71+H71</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
       <c r="J71" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="72" spans="1:10">
@@ -2629,7 +2618,7 @@
         <v>32</v>
       </c>
       <c r="I72">
-        <f>C72+D72+E72+F72+G72+H72</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -2649,7 +2638,7 @@
         <v>32</v>
       </c>
       <c r="I73">
-        <f>C73+D73+E73+F73+G73+H73</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -2669,7 +2658,7 @@
         <v>32</v>
       </c>
       <c r="I74">
-        <f>C74+D74+E74+F74+G74+H74</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
@@ -2689,16 +2678,16 @@
         <v>32</v>
       </c>
       <c r="I75">
-        <f>C75+D75+E75+F75+G75+H75</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B76" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2709,16 +2698,16 @@
         <v>32</v>
       </c>
       <c r="I76">
-        <f>C76+D76+E76+F76+G76+H76</f>
+        <f t="shared" si="2"/>
         <v>32</v>
       </c>
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B77" t="s">
-        <v>86</v>
+        <v>195</v>
       </c>
       <c r="C77" s="2">
         <v>1</v>
@@ -2731,16 +2720,16 @@
         <v>32</v>
       </c>
       <c r="I77">
-        <f>C77+D77+E77+F77+G77+H77</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B78" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -2753,7 +2742,7 @@
         <v>32</v>
       </c>
       <c r="I78">
-        <f>C78+D78+E78+F78+G78+H78</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
@@ -2775,7 +2764,7 @@
         <v>32</v>
       </c>
       <c r="I79">
-        <f>C79+D79+E79+F79+G79+H79</f>
+        <f t="shared" si="2"/>
         <v>33</v>
       </c>
     </row>
@@ -2784,7 +2773,7 @@
         <v>85</v>
       </c>
       <c r="B80" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" s="2">
@@ -2797,16 +2786,16 @@
         <v>32</v>
       </c>
       <c r="I80">
-        <f>C80+D80+E80+F80+G80+H80</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B81" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2">
@@ -2819,7 +2808,7 @@
         <v>32</v>
       </c>
       <c r="I81">
-        <f>C81+D81+E81+F81+G81+H81</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
@@ -2841,16 +2830,16 @@
         <v>32</v>
       </c>
       <c r="I82">
-        <f>C82+D82+E82+F82+G82+H82</f>
+        <f t="shared" si="2"/>
         <v>34</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B83" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -2863,16 +2852,16 @@
         <v>32</v>
       </c>
       <c r="I83">
-        <f>C83+D83+E83+F83+G83+H83</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2885,16 +2874,16 @@
         <v>32</v>
       </c>
       <c r="I84">
-        <f>C84+D84+E84+F84+G84+H84</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="B85" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2907,11 +2896,11 @@
         <v>32</v>
       </c>
       <c r="I85">
-        <f>C85+D85+E85+F85+G85+H85</f>
+        <f t="shared" si="2"/>
         <v>36</v>
       </c>
       <c r="J85" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="86" spans="1:10">
@@ -2932,7 +2921,7 @@
         <v>32</v>
       </c>
       <c r="I86">
-        <f>C86+D86+E86+F86+G86+H86</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
     </row>
@@ -2941,7 +2930,7 @@
         <v>3</v>
       </c>
       <c r="B87" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2954,152 +2943,127 @@
         <v>32</v>
       </c>
       <c r="I87">
-        <f>C87+D87+E87+F87+G87+H87</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="J87" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>147</v>
+        <v>8</v>
       </c>
       <c r="B88" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="1">
+      <c r="F88" s="2">
         <v>8</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="1">
+      <c r="H88" s="2">
         <v>32</v>
       </c>
       <c r="I88">
-        <f>C88+D88+E88+F88+G88+H88</f>
+        <f t="shared" si="2"/>
         <v>40</v>
       </c>
       <c r="J88" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>190</v>
       </c>
       <c r="B89" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="2">
-        <v>8</v>
-      </c>
-      <c r="G89" s="2"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="2">
+        <v>16</v>
+      </c>
       <c r="H89" s="2">
         <v>32</v>
       </c>
       <c r="I89">
-        <f>C89+D89+E89+F89+G89+H89</f>
-        <v>40</v>
-      </c>
-      <c r="J89" t="s">
-        <v>190</v>
+        <f t="shared" si="2"/>
+        <v>48</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>196</v>
+        <v>129</v>
       </c>
       <c r="B90" t="s">
-        <v>197</v>
+        <v>31</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="2">
+      <c r="G90" s="1">
         <v>16</v>
       </c>
-      <c r="H90" s="2">
+      <c r="H90" s="1">
         <v>32</v>
       </c>
       <c r="I90">
-        <f>C90+D90+E90+F90+G90+H90</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>132</v>
+        <v>22</v>
       </c>
       <c r="B91" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="1">
+      <c r="G91" s="2">
         <v>16</v>
       </c>
-      <c r="H91" s="1">
+      <c r="H91" s="2">
         <v>32</v>
       </c>
       <c r="I91">
-        <f>C91+D91+E91+F91+G91+H91</f>
+        <f t="shared" si="2"/>
         <v>48</v>
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="A92" t="s">
-        <v>22</v>
-      </c>
-      <c r="B92" t="s">
-        <v>58</v>
-      </c>
-      <c r="C92" s="2"/>
-      <c r="D92" s="2"/>
-      <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2">
-        <v>16</v>
-      </c>
-      <c r="H92" s="2">
-        <v>32</v>
-      </c>
-      <c r="I92">
-        <f>C92+D92+E92+F92+G92+H92</f>
+      <c r="C92" t="s">
+        <v>43</v>
+      </c>
+      <c r="D92" t="s">
+        <v>44</v>
+      </c>
+      <c r="E92" t="s">
+        <v>45</v>
+      </c>
+      <c r="F92" t="s">
+        <v>46</v>
+      </c>
+      <c r="G92" t="s">
+        <v>47</v>
+      </c>
+      <c r="H92" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="93" spans="1:10">
-      <c r="C93" t="s">
-        <v>43</v>
-      </c>
-      <c r="D93" t="s">
-        <v>44</v>
-      </c>
-      <c r="E93" t="s">
-        <v>45</v>
-      </c>
-      <c r="F93" t="s">
-        <v>46</v>
-      </c>
-      <c r="G93" t="s">
-        <v>47</v>
-      </c>
-      <c r="H93" t="s">
-        <v>48</v>
-      </c>
-      <c r="I93" t="s">
-        <v>167</v>
-      </c>
-      <c r="J93" t="s">
+      <c r="I92" t="s">
+        <v>163</v>
+      </c>
+      <c r="J92" t="s">
         <v>82</v>
       </c>
     </row>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -45,9 +45,6 @@
     <t>浸毒武器</t>
   </si>
   <si>
-    <t>法力燃烧</t>
-  </si>
-  <si>
     <t>冰霜盾</t>
   </si>
   <si>
@@ -391,10 +388,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>satyr_soulstealer_mana_burn</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>spectre_spectral_dagger</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -732,6 +725,14 @@
   </si>
   <si>
     <t>掘地穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼影重重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如影随形</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1089,52 +1090,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A75" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A88" sqref="A88"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
-    <col min="10" max="10" width="88.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="10" max="10" width="88.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D1" t="s">
         <v>43</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>44</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>45</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>46</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>47</v>
       </c>
-      <c r="H1" t="s">
-        <v>48</v>
-      </c>
       <c r="I1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="J1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I2">
         <f>C2+D2+E2+F2+G2+H2</f>
@@ -1143,10 +1144,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1161,7 +1162,7 @@
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1178,10 +1179,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B5" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1197,10 +1198,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1211,16 +1212,16 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
-        <f t="shared" ref="I6:I33" si="0">C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" ref="I6:I34" si="0">C6+D6+E6+F6+G6+H6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1237,10 +1238,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1257,10 +1258,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1277,10 +1278,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1297,10 +1298,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1320,7 +1321,7 @@
         <v>6</v>
       </c>
       <c r="B12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1340,7 +1341,7 @@
         <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1357,10 +1358,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -1377,10 +1378,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B15" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -1397,10 +1398,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -1417,10 +1418,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -1437,10 +1438,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="2">
@@ -1457,10 +1458,10 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1479,10 +1480,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B20" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1501,10 +1502,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C21" s="2">
         <v>1</v>
@@ -1523,50 +1524,32 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>107</v>
+        <v>197</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2">
-        <v>4</v>
-      </c>
+      <c r="E22" s="2"/>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
-      <c r="I22">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2">
-        <v>4</v>
-      </c>
+      <c r="E23" s="2"/>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
-      <c r="I23">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" t="s">
-        <v>36</v>
+        <v>106</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1583,10 +1566,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>164</v>
+        <v>14</v>
       </c>
       <c r="B25" t="s">
-        <v>165</v>
+        <v>35</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1603,10 +1586,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1620,16 +1603,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J26" t="s">
-        <v>168</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>16</v>
+        <v>164</v>
       </c>
       <c r="B27" t="s">
-        <v>37</v>
+        <v>165</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1643,17 +1623,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="J27" t="s">
+        <v>166</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>101</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>4</v>
@@ -1663,15 +1644,15 @@
       <c r="H28" s="2"/>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1687,16 +1668,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J29" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="13.8" customHeight="1">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>168</v>
       </c>
       <c r="B30" t="s">
-        <v>96</v>
+        <v>167</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1712,18 +1690,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.9" customHeight="1">
       <c r="A31" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="B31" t="s">
-        <v>172</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>4</v>
       </c>
@@ -1732,21 +1713,21 @@
       <c r="H31" s="2"/>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="B32" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>4</v>
       </c>
       <c r="F32" s="2"/>
@@ -1759,10 +1740,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>97</v>
       </c>
       <c r="B33" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1">
@@ -1781,49 +1762,51 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>141</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>140</v>
+        <v>98</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2">
-        <v>8</v>
-      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>12</v>
+        <v>139</v>
       </c>
       <c r="B35" t="s">
-        <v>52</v>
+        <v>138</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="2">
         <v>8</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f t="shared" ref="I35:I58" si="1">C35+D35+E35+F35+G35+H35</f>
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>95</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1834,16 +1817,16 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I36:I59" si="1">C36+D36+E36+F36+G36+H36</f>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="B37" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1860,10 +1843,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1880,10 +1863,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1900,10 +1883,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1920,14 +1903,12 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>150</v>
+        <v>75</v>
       </c>
       <c r="B41" t="s">
-        <v>151</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
+        <v>76</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
@@ -1937,15 +1918,15 @@
       <c r="H41" s="2"/>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B42" t="s">
-        <v>92</v>
+        <v>149</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1964,17 +1945,17 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>90</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
-      </c>
-      <c r="C43" s="1">
+        <v>91</v>
+      </c>
+      <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>8</v>
       </c>
       <c r="G43" s="2"/>
@@ -1986,15 +1967,15 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>145</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>146</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1">
         <v>8</v>
@@ -2003,15 +1984,15 @@
       <c r="H44" s="2"/>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>143</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>144</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2">
@@ -2030,10 +2011,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>197</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>196</v>
+        <v>92</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2">
@@ -2052,16 +2033,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>148</v>
+        <v>195</v>
       </c>
       <c r="B47" t="s">
-        <v>147</v>
+        <v>194</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>4</v>
-      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="1">
         <v>8</v>
       </c>
@@ -2069,22 +2050,22 @@
       <c r="H47" s="2"/>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>105</v>
+        <v>146</v>
       </c>
       <c r="B48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
         <v>4</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>8</v>
       </c>
       <c r="G48" s="2"/>
@@ -2096,10 +2077,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>63</v>
+        <v>104</v>
       </c>
       <c r="B49" t="s">
-        <v>62</v>
+        <v>89</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2118,33 +2099,32 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>188</v>
+        <v>62</v>
       </c>
       <c r="B50" t="s">
-        <v>189</v>
+        <v>61</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2">
-        <v>16</v>
-      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J50" t="s">
-        <v>186</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>158</v>
+        <v>186</v>
       </c>
       <c r="B51" t="s">
-        <v>159</v>
+        <v>187</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2159,15 +2139,15 @@
         <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>178</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>113</v>
+        <v>156</v>
       </c>
       <c r="B52" t="s">
-        <v>112</v>
+        <v>157</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2181,13 +2161,16 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="J52" t="s">
+        <v>176</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>111</v>
       </c>
       <c r="B53" t="s">
-        <v>55</v>
+        <v>110</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2204,10 +2187,10 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>104</v>
+        <v>54</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2224,10 +2207,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>81</v>
+        <v>16</v>
       </c>
       <c r="B55" t="s">
-        <v>80</v>
+        <v>103</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2244,10 +2227,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>79</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2264,14 +2247,12 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>156</v>
+        <v>87</v>
       </c>
       <c r="B57" t="s">
-        <v>157</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2281,15 +2262,15 @@
       <c r="H57" s="2"/>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
+        <v>154</v>
+      </c>
+      <c r="B58" t="s">
         <v>155</v>
-      </c>
-      <c r="B58" t="s">
-        <v>154</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -2308,10 +2289,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>135</v>
+        <v>153</v>
       </c>
       <c r="B59" t="s">
-        <v>134</v>
+        <v>152</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -2324,20 +2305,21 @@
       </c>
       <c r="H59" s="2"/>
       <c r="I59">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>133</v>
       </c>
       <c r="B60" t="s">
-        <v>162</v>
-      </c>
-      <c r="C60" s="2"/>
-      <c r="D60" s="2">
-        <v>2</v>
-      </c>
+        <v>132</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
+      <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
       <c r="G60" s="2">
@@ -2345,16 +2327,15 @@
       </c>
       <c r="H60" s="2"/>
       <c r="I60">
-        <f t="shared" ref="I60:I91" si="2">C60+D60+E60+F60+G60+H60</f>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="B61" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
@@ -2367,16 +2348,16 @@
       </c>
       <c r="H61" s="2"/>
       <c r="I61">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I61:I92" si="2">C61+D61+E61+F61+G61+H61</f>
         <v>18</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>79</v>
+        <v>12</v>
       </c>
       <c r="B62" t="s">
-        <v>78</v>
+        <v>159</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -2395,16 +2376,16 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>175</v>
+        <v>78</v>
       </c>
       <c r="B63" t="s">
-        <v>176</v>
+        <v>77</v>
       </c>
       <c r="C63" s="2"/>
-      <c r="D63" s="2"/>
-      <c r="E63" s="2">
-        <v>4</v>
-      </c>
+      <c r="D63" s="2">
+        <v>2</v>
+      </c>
+      <c r="E63" s="2"/>
       <c r="F63" s="2"/>
       <c r="G63" s="2">
         <v>16</v>
@@ -2412,18 +2393,15 @@
       <c r="H63" s="2"/>
       <c r="I63">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J63" t="s">
-        <v>177</v>
+        <v>18</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>120</v>
+        <v>173</v>
       </c>
       <c r="B64" t="s">
-        <v>121</v>
+        <v>174</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2439,21 +2417,24 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="J64" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
+        <v>118</v>
+      </c>
+      <c r="B65" t="s">
         <v>119</v>
       </c>
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" s="1"/>
+      <c r="C65" s="2"/>
       <c r="D65" s="2"/>
-      <c r="E65" s="1">
+      <c r="E65" s="2">
         <v>4</v>
       </c>
       <c r="F65" s="2"/>
-      <c r="G65" s="1">
+      <c r="G65" s="2">
         <v>16</v>
       </c>
       <c r="H65" s="2"/>
@@ -2464,61 +2445,61 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="B66" t="s">
-        <v>118</v>
-      </c>
-      <c r="C66" s="2"/>
-      <c r="D66" s="2">
-        <v>2</v>
-      </c>
-      <c r="E66" s="2">
+        <v>28</v>
+      </c>
+      <c r="C66" s="1"/>
+      <c r="D66" s="2"/>
+      <c r="E66" s="1">
         <v>4</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="2">
+      <c r="G66" s="1">
         <v>16</v>
       </c>
       <c r="H66" s="2"/>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B67" t="s">
-        <v>142</v>
-      </c>
-      <c r="C67" s="1"/>
-      <c r="D67" s="2"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="2">
-        <v>8</v>
-      </c>
-      <c r="G67" s="1">
+        <v>116</v>
+      </c>
+      <c r="C67" s="2"/>
+      <c r="D67" s="2">
+        <v>2</v>
+      </c>
+      <c r="E67" s="2">
+        <v>4</v>
+      </c>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2">
         <v>16</v>
       </c>
       <c r="H67" s="2"/>
       <c r="I67">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>4</v>
+        <v>141</v>
       </c>
       <c r="B68" t="s">
-        <v>32</v>
-      </c>
-      <c r="C68" s="2"/>
+        <v>140</v>
+      </c>
+      <c r="C68" s="1"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="1">
+      <c r="E68" s="1"/>
+      <c r="F68" s="2">
         <v>8</v>
       </c>
       <c r="G68" s="1">
@@ -2529,24 +2510,21 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J68" t="s">
-        <v>144</v>
-      </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>26</v>
+        <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>59</v>
+        <v>31</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
       <c r="E69" s="2"/>
-      <c r="F69" s="2">
+      <c r="F69" s="1">
         <v>8</v>
       </c>
-      <c r="G69" s="2">
+      <c r="G69" s="1">
         <v>16</v>
       </c>
       <c r="H69" s="2"/>
@@ -2554,19 +2532,20 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="J69" t="s">
+        <v>142</v>
+      </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>173</v>
+        <v>25</v>
       </c>
       <c r="B70" t="s">
-        <v>174</v>
+        <v>58</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2">
-        <v>4</v>
-      </c>
+      <c r="E70" s="2"/>
       <c r="F70" s="2">
         <v>8</v>
       </c>
@@ -2576,38 +2555,39 @@
       <c r="H70" s="2"/>
       <c r="I70">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="B71" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="2"/>
-      <c r="H71" s="2">
-        <v>32</v>
-      </c>
+      <c r="E71" s="2">
+        <v>4</v>
+      </c>
+      <c r="F71" s="2">
+        <v>8</v>
+      </c>
+      <c r="G71" s="2">
+        <v>16</v>
+      </c>
+      <c r="H71" s="2"/>
       <c r="I71">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="J71" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>19</v>
+        <v>190</v>
       </c>
       <c r="B72" t="s">
-        <v>38</v>
+        <v>191</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2621,13 +2601,16 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="J72" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="B73" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2644,10 +2627,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2664,10 +2647,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B75" t="s">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2684,10 +2667,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>123</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2704,14 +2687,12 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="B77" t="s">
-        <v>195</v>
-      </c>
-      <c r="C77" s="2">
-        <v>1</v>
-      </c>
+        <v>120</v>
+      </c>
+      <c r="C77" s="2"/>
       <c r="D77" s="2"/>
       <c r="E77" s="2"/>
       <c r="F77" s="2"/>
@@ -2721,15 +2702,15 @@
       </c>
       <c r="I77">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>179</v>
+        <v>85</v>
       </c>
       <c r="B78" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -2748,10 +2729,10 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>20</v>
+        <v>177</v>
       </c>
       <c r="B79" t="s">
-        <v>56</v>
+        <v>178</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -2770,15 +2751,15 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>85</v>
+        <v>19</v>
       </c>
       <c r="B80" t="s">
-        <v>131</v>
-      </c>
-      <c r="C80" s="2"/>
-      <c r="D80" s="2">
-        <v>2</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C80" s="2">
+        <v>1</v>
+      </c>
+      <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
       <c r="G80" s="2"/>
@@ -2787,15 +2768,15 @@
       </c>
       <c r="I80">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2">
@@ -2814,10 +2795,10 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>83</v>
+        <v>131</v>
       </c>
       <c r="B82" t="s">
-        <v>84</v>
+        <v>130</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2">
@@ -2836,16 +2817,16 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>116</v>
+        <v>83</v>
       </c>
       <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2">
-        <v>4</v>
-      </c>
+      <c r="D83" s="2">
+        <v>2</v>
+      </c>
+      <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
       <c r="H83" s="2">
@@ -2853,15 +2834,15 @@
       </c>
       <c r="I83">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>87</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2880,10 +2861,10 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="B85" t="s">
-        <v>185</v>
+        <v>113</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2899,38 +2880,38 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J85" t="s">
-        <v>187</v>
-      </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>1</v>
+        <v>115</v>
       </c>
       <c r="B86" t="s">
-        <v>30</v>
+        <v>183</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
-      <c r="E86" s="2"/>
-      <c r="F86" s="1">
-        <v>8</v>
-      </c>
+      <c r="E86" s="2">
+        <v>4</v>
+      </c>
+      <c r="F86" s="2"/>
       <c r="G86" s="2"/>
-      <c r="H86" s="1">
+      <c r="H86" s="2">
         <v>32</v>
       </c>
       <c r="I86">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="J86" t="s">
+        <v>185</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2946,25 +2927,22 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J87" t="s">
-        <v>182</v>
-      </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
-      <c r="F88" s="2">
+      <c r="F88" s="1">
         <v>8</v>
       </c>
       <c r="G88" s="2"/>
-      <c r="H88" s="2">
+      <c r="H88" s="1">
         <v>32</v>
       </c>
       <c r="I88">
@@ -2972,46 +2950,49 @@
         <v>40</v>
       </c>
       <c r="J88" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>190</v>
+        <v>8</v>
       </c>
       <c r="B89" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="2"/>
-      <c r="G89" s="2">
-        <v>16</v>
-      </c>
+      <c r="F89" s="2">
+        <v>8</v>
+      </c>
+      <c r="G89" s="2"/>
       <c r="H89" s="2">
         <v>32</v>
       </c>
       <c r="I89">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="J89" t="s">
+        <v>182</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>129</v>
+        <v>188</v>
       </c>
       <c r="B90" t="s">
-        <v>31</v>
+        <v>189</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
       <c r="F90" s="2"/>
-      <c r="G90" s="1">
+      <c r="G90" s="2">
         <v>16</v>
       </c>
-      <c r="H90" s="1">
+      <c r="H90" s="2">
         <v>32</v>
       </c>
       <c r="I90">
@@ -3021,19 +3002,19 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>22</v>
+        <v>127</v>
       </c>
       <c r="B91" t="s">
-        <v>58</v>
+        <v>30</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
       <c r="F91" s="2"/>
-      <c r="G91" s="2">
+      <c r="G91" s="1">
         <v>16</v>
       </c>
-      <c r="H91" s="2">
+      <c r="H91" s="1">
         <v>32</v>
       </c>
       <c r="I91">
@@ -3042,29 +3023,51 @@
       </c>
     </row>
     <row r="92" spans="1:10">
-      <c r="C92" t="s">
+      <c r="A92" t="s">
+        <v>21</v>
+      </c>
+      <c r="B92" t="s">
+        <v>57</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2">
+        <v>16</v>
+      </c>
+      <c r="H92" s="2">
+        <v>32</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="C93" t="s">
+        <v>42</v>
+      </c>
+      <c r="D93" t="s">
         <v>43</v>
       </c>
-      <c r="D92" t="s">
+      <c r="E93" t="s">
         <v>44</v>
       </c>
-      <c r="E92" t="s">
+      <c r="F93" t="s">
         <v>45</v>
       </c>
-      <c r="F92" t="s">
+      <c r="G93" t="s">
         <v>46</v>
       </c>
-      <c r="G92" t="s">
+      <c r="H93" t="s">
         <v>47</v>
       </c>
-      <c r="H92" t="s">
-        <v>48</v>
-      </c>
-      <c r="I92" t="s">
-        <v>163</v>
-      </c>
-      <c r="J92" t="s">
-        <v>82</v>
+      <c r="I93" t="s">
+        <v>161</v>
+      </c>
+      <c r="J93" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3083,7 +3086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3096,7 +3099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1093,15 +1093,15 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A23" sqref="A23"/>
+      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="10" max="10" width="88.625" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="10" max="10" width="88.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1694,7 +1694,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="31" spans="1:10" ht="13.9" customHeight="1">
+    <row r="31" spans="1:10" ht="13.95" customHeight="1">
       <c r="A31" t="s">
         <v>26</v>
       </c>
@@ -3086,7 +3086,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3099,7 +3099,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
   <si>
     <t>折射</t>
   </si>
@@ -33,138 +33,705 @@
     <t>战斗专注</t>
   </si>
   <si>
+    <t>投石</t>
+  </si>
+  <si>
+    <t>浸毒武器</t>
+  </si>
+  <si>
+    <t>冰霜盾</t>
+  </si>
+  <si>
+    <t>冰盾</t>
+  </si>
+  <si>
+    <t>撒网</t>
+  </si>
+  <si>
+    <t>践踏</t>
+  </si>
+  <si>
+    <t>幽鬼之刃</t>
+  </si>
+  <si>
+    <t>奔腾</t>
+  </si>
+  <si>
+    <t>降临</t>
+  </si>
+  <si>
+    <t>怒意狂击</t>
+  </si>
+  <si>
+    <t>反伤</t>
+  </si>
+  <si>
+    <t>召唤冥界士兵</t>
+  </si>
+  <si>
+    <t>幽冥爆裂</t>
+  </si>
+  <si>
+    <t>召唤骷髅法师</t>
+  </si>
+  <si>
+    <t>本命一击</t>
+  </si>
+  <si>
+    <t>死亡契约</t>
+  </si>
+  <si>
+    <t>黑暗仪式</t>
+  </si>
+  <si>
+    <t>墓碑</t>
+  </si>
+  <si>
+    <t>暗影冲刺</t>
+  </si>
+  <si>
+    <t>雷云</t>
+  </si>
+  <si>
+    <t>连环霜冻</t>
+  </si>
+  <si>
+    <t>faceless_void_chronosphere</t>
+  </si>
+  <si>
+    <t>pudge_meat_hook</t>
+  </si>
+  <si>
+    <t>life_stealer_rage</t>
+  </si>
+  <si>
+    <t>troll_warlord_battle_trance</t>
+  </si>
+  <si>
+    <t>ogre_magi_frost_armor</t>
+  </si>
+  <si>
+    <t>dark_seer_surge</t>
+  </si>
+  <si>
+    <t>wisp_relocate</t>
+  </si>
+  <si>
+    <t>decay_summon_wraith_warrior</t>
+  </si>
+  <si>
+    <t>clinkz_death_pact</t>
+  </si>
+  <si>
+    <t>decay_dark_ritual_datadriven</t>
+  </si>
+  <si>
+    <t>decay_tombstone</t>
+  </si>
+  <si>
+    <t>hunt_thirst_lua</t>
+  </si>
+  <si>
+    <t>元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎杀8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_frost_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_troll_warlord_ensnare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_shadow_word</t>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_gravekeepers_cloak_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_golem_flaming_fists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰之拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封禁制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_spin_web</t>
+  </si>
+  <si>
+    <t>织网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_insatiable_hunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_smoke_screen</t>
+  </si>
+  <si>
+    <t>烟雾弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>razor_eye_of_the_storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎阳索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_searing_chains</t>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_sleight_of_fist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩赐解脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_blink</t>
+  </si>
+  <si>
+    <t>灵能陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_psionic_trap</t>
+  </si>
+  <si>
+    <t>中大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storm_spirit_ball_lightning</t>
+  </si>
+  <si>
+    <t>球状闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大  5 10 15 20 25 30 35 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_desolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alchemist_chemical_rage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 12 18 24 30 36</t>
+  </si>
+  <si>
+    <t>15 30 45 60 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥火暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_hellfire_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venomancer_poison_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 16 24 32 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 3 4 5 6 7</t>
+  </si>
+  <si>
+    <t>enigma_midnight_pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 10 15 20 25 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doom_bringer_infernal_blade</t>
+  </si>
+  <si>
+    <t>骨球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undead_tusk_bone_ball</t>
+  </si>
+  <si>
+    <t>4 8 12 16 20 24 28 32</t>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_burrowstrike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掘地穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼影重重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如影随形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morphling_waveform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>forged_spirit_melting_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_haunt_lua</t>
+  </si>
+  <si>
+    <t>spectre_haunt_single_lua</t>
+  </si>
+  <si>
+    <t>phantom_assassin_coup_de_grace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant_wolf_critical_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_strafe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 10 15 20 25 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>波浪形态</t>
-  </si>
-  <si>
-    <t>坚韧光环</t>
-  </si>
-  <si>
-    <t>投石</t>
-  </si>
-  <si>
-    <t>浸毒武器</t>
-  </si>
-  <si>
-    <t>冰霜盾</t>
-  </si>
-  <si>
-    <t>冰盾</t>
-  </si>
-  <si>
-    <t>撒网</t>
-  </si>
-  <si>
-    <t>践踏</t>
-  </si>
-  <si>
-    <t>幽鬼之刃</t>
-  </si>
-  <si>
-    <t>奔腾</t>
-  </si>
-  <si>
-    <t>降临</t>
-  </si>
-  <si>
-    <t>怒意狂击</t>
-  </si>
-  <si>
-    <t>反伤</t>
-  </si>
-  <si>
-    <t>召唤冥界士兵</t>
-  </si>
-  <si>
-    <t>幽冥爆裂</t>
-  </si>
-  <si>
-    <t>召唤骷髅法师</t>
-  </si>
-  <si>
-    <t>本命一击</t>
-  </si>
-  <si>
-    <t>死亡契约</t>
-  </si>
-  <si>
-    <t>黑暗仪式</t>
-  </si>
-  <si>
-    <t>墓碑</t>
-  </si>
-  <si>
-    <t>暗影冲刺</t>
-  </si>
-  <si>
-    <t>雷云</t>
-  </si>
-  <si>
-    <t>连环霜冻</t>
-  </si>
-  <si>
-    <t>faceless_void_chronosphere</t>
-  </si>
-  <si>
-    <t>pudge_meat_hook</t>
-  </si>
-  <si>
-    <t>life_stealer_rage</t>
-  </si>
-  <si>
-    <t>troll_warlord_battle_trance</t>
-  </si>
-  <si>
-    <t>morphling_waveform</t>
-  </si>
-  <si>
-    <t>granite_golem_hp_aura</t>
-  </si>
-  <si>
-    <t>ogre_magi_frost_armor</t>
-  </si>
-  <si>
-    <t>dark_seer_surge</t>
-  </si>
-  <si>
-    <t>wisp_relocate</t>
-  </si>
-  <si>
-    <t>decay_summon_wraith_warrior</t>
-  </si>
-  <si>
-    <t>clinkz_death_pact</t>
-  </si>
-  <si>
-    <t>decay_dark_ritual_datadriven</t>
-  </si>
-  <si>
-    <t>decay_tombstone</t>
-  </si>
-  <si>
-    <t>hunt_thirst_lua</t>
-  </si>
-  <si>
-    <t>元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎杀8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_frostbite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dragon_knight_breathe_fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -172,567 +739,27 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>lich_frost_shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giant_wolf_critical_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_troll_warlord_ensnare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>forged_spirit_melting_strike_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>shredder_reactive_armor</t>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
+    <t>clinkz_searing_arrows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>huskar_life_break</t>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazzle_bad_juju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午夜凋零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_amplify_damage</t>
-  </si>
-  <si>
-    <t>sandking_caustic_finale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoker_tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_gravekeepers_cloak_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>visage_summon_familiars_stone_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石像形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_golem_flaming_fists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰之拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiny_grow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_frostbite</t>
-  </si>
-  <si>
-    <t>冰封禁制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_spin_web</t>
-  </si>
-  <si>
-    <t>织网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_insatiable_hunger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极度饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phantom_assassin_blur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_smoke_screen</t>
-  </si>
-  <si>
-    <t>烟雾弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>razor_eye_of_the_storm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎阳索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ember_spirit_searing_chains</t>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dragon_knight_breathe_fire</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinkz_searing_arrows</t>
-  </si>
-  <si>
-    <t>灼热之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无影拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ember_spirit_sleight_of_fist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩赐解脱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phantom_assassin_coup_de_grace</t>
-  </si>
-  <si>
-    <t>双刃剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>centaur_double_edge</t>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>antimage_blink</t>
-  </si>
-  <si>
-    <t>灵能陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_psionic_trap</t>
-  </si>
-  <si>
-    <t>中大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storm_spirit_ball_lightning</t>
-  </si>
-  <si>
-    <t>球状闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大  5 10 15 20 25 30 35 99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_seer_vacuum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_desolate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alchemist_chemical_rage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 12 18 24 30 36</t>
-  </si>
-  <si>
-    <t>15 30 45 60 75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥火暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_hellfire_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>venomancer_poison_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 16 24 32 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 3 4 5 6 7</t>
-  </si>
-  <si>
-    <t>enigma_midnight_pulse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 10 15 20 25 30</t>
-  </si>
-  <si>
-    <t>5 10 15 20 25 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinkz_strafe</t>
-  </si>
-  <si>
-    <t>阎刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doom_bringer_infernal_blade</t>
-  </si>
-  <si>
-    <t>骨球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>undead_tusk_bone_ball</t>
-  </si>
-  <si>
-    <t>4 8 12 16 20 24 28 32</t>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_burrowstrike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掘地穿刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼影重重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如影随形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小技能 效果好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神之谴戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小技能</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1093,8 +1120,8 @@
   <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B33" sqref="B33"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1106,36 +1133,36 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" t="s">
+        <v>38</v>
+      </c>
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" t="s">
+        <v>41</v>
+      </c>
+      <c r="G1" t="s">
         <v>42</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>43</v>
       </c>
-      <c r="E1" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" t="s">
-        <v>45</v>
-      </c>
-      <c r="G1" t="s">
-        <v>46</v>
-      </c>
-      <c r="H1" t="s">
-        <v>47</v>
-      </c>
       <c r="I1" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="J1" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:10">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="I2">
         <f>C2+D2+E2+F2+G2+H2</f>
@@ -1144,10 +1171,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
-        <v>136</v>
+        <v>191</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1159,10 +1186,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>189</v>
       </c>
       <c r="B4" t="s">
-        <v>32</v>
+        <v>171</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1179,10 +1206,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>125</v>
+        <v>106</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>107</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1198,10 +1225,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="B6" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1212,16 +1239,16 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
-        <f t="shared" ref="I6:I34" si="0">C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" ref="I6:I33" si="0">C6+D6+E6+F6+G6+H6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="B7" t="s">
-        <v>52</v>
+        <v>172</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1238,10 +1265,10 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1258,10 +1285,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>91</v>
       </c>
       <c r="B9" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1278,10 +1305,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
       <c r="B10" t="s">
-        <v>151</v>
+        <v>193</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1298,10 +1325,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="B11" t="s">
-        <v>59</v>
+        <v>192</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1318,10 +1345,10 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>194</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1338,10 +1365,10 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>48</v>
+        <v>176</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1358,10 +1385,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>17</v>
+        <v>53</v>
       </c>
       <c r="B14" t="s">
-        <v>102</v>
+        <v>173</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -1378,10 +1405,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>63</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -1398,10 +1425,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B16" t="s">
-        <v>65</v>
+        <v>174</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -1418,10 +1445,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>134</v>
+        <v>55</v>
       </c>
       <c r="B17" t="s">
-        <v>135</v>
+        <v>175</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -1438,12 +1465,14 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>68</v>
+        <v>103</v>
       </c>
       <c r="B18" t="s">
-        <v>67</v>
-      </c>
-      <c r="C18" s="2"/>
+        <v>104</v>
+      </c>
+      <c r="C18" s="2">
+        <v>1</v>
+      </c>
       <c r="D18" s="2">
         <v>2</v>
       </c>
@@ -1453,15 +1482,15 @@
       <c r="H18" s="2"/>
       <c r="I18">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" t="s">
-        <v>122</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>123</v>
+        <v>44</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1480,10 +1509,10 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1499,57 +1528,76 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="J20" t="s">
+        <v>200</v>
+      </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>10</v>
+        <v>170</v>
       </c>
       <c r="B21" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="2">
-        <v>1</v>
-      </c>
-      <c r="D21" s="2">
-        <v>2</v>
-      </c>
-      <c r="E21" s="2"/>
+        <v>179</v>
+      </c>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="2">
+        <v>4</v>
+      </c>
       <c r="F21" s="2"/>
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>197</v>
+        <v>169</v>
+      </c>
+      <c r="B22" t="s">
+        <v>178</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2">
+        <v>4</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
+      <c r="I22">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>196</v>
+        <v>11</v>
+      </c>
+      <c r="B23" t="s">
+        <v>89</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
+      <c r="E23" s="2">
+        <v>4</v>
+      </c>
       <c r="F23" s="2"/>
       <c r="G23" s="2"/>
       <c r="H23" s="2"/>
+      <c r="I23">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>31</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1566,10 +1614,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>14</v>
+        <v>137</v>
       </c>
       <c r="B25" t="s">
-        <v>35</v>
+        <v>138</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1586,10 +1634,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B26" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1603,13 +1651,16 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="J26" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>164</v>
+        <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>165</v>
+        <v>32</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1623,18 +1674,17 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J27" t="s">
-        <v>166</v>
-      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="2"/>
+        <v>85</v>
+      </c>
+      <c r="C28" s="2">
+        <v>1</v>
+      </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>4</v>
@@ -1644,15 +1694,15 @@
       <c r="H28" s="2"/>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B29" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1668,13 +1718,16 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="30" spans="1:10">
+      <c r="J29" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" ht="13.95" customHeight="1">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
-        <v>167</v>
+        <v>80</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1690,21 +1743,18 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J30" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="13.95" customHeight="1">
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>26</v>
+        <v>88</v>
       </c>
       <c r="B31" t="s">
-        <v>95</v>
-      </c>
-      <c r="C31" s="2">
-        <v>1</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>145</v>
+      </c>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2">
+        <v>2</v>
+      </c>
       <c r="E31" s="2">
         <v>4</v>
       </c>
@@ -1713,21 +1763,21 @@
       <c r="H31" s="2"/>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>81</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="2">
+      <c r="D32" s="1">
         <v>2</v>
       </c>
-      <c r="E32" s="2">
+      <c r="E32" s="1">
         <v>4</v>
       </c>
       <c r="F32" s="2"/>
@@ -1740,10 +1790,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>97</v>
+        <v>0</v>
       </c>
       <c r="B33" t="s">
-        <v>96</v>
+        <v>83</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1">
@@ -1762,51 +1812,49 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>118</v>
       </c>
       <c r="B34" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="1">
-        <v>2</v>
-      </c>
-      <c r="E34" s="1">
-        <v>4</v>
-      </c>
-      <c r="F34" s="2"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2">
+        <v>8</v>
+      </c>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <f t="shared" si="0"/>
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>139</v>
+        <v>9</v>
       </c>
       <c r="B35" t="s">
-        <v>138</v>
+        <v>45</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
+      <c r="D35" s="2"/>
+      <c r="E35" s="2"/>
       <c r="F35" s="2">
         <v>8</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
+        <f t="shared" ref="I35:I58" si="1">C35+D35+E35+F35+G35+H35</f>
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B36" t="s">
-        <v>51</v>
+        <v>37</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1817,16 +1865,16 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f t="shared" ref="I36:I59" si="1">C36+D36+E36+F36+G36+H36</f>
+        <f t="shared" si="1"/>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>94</v>
+        <v>57</v>
       </c>
       <c r="B37" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1843,10 +1891,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>59</v>
       </c>
       <c r="B38" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1863,10 +1911,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>60</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1883,10 +1931,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>74</v>
+        <v>62</v>
       </c>
       <c r="B40" t="s">
-        <v>73</v>
+        <v>184</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1903,12 +1951,14 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
-      </c>
-      <c r="C41" s="2"/>
+        <v>128</v>
+      </c>
+      <c r="C41" s="2">
+        <v>1</v>
+      </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
@@ -1918,15 +1968,15 @@
       <c r="H41" s="2"/>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>148</v>
+        <v>75</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -1945,17 +1995,17 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
-      </c>
-      <c r="C43" s="2">
+        <v>126</v>
+      </c>
+      <c r="C43" s="1">
         <v>1</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="2">
+      <c r="F43" s="1">
         <v>8</v>
       </c>
       <c r="G43" s="2"/>
@@ -1967,15 +2017,15 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
+        <v>122</v>
+      </c>
+      <c r="B44" t="s">
+        <v>123</v>
+      </c>
+      <c r="C44" s="1"/>
+      <c r="D44" s="2">
         <v>2</v>
       </c>
-      <c r="B44" t="s">
-        <v>147</v>
-      </c>
-      <c r="C44" s="1">
-        <v>1</v>
-      </c>
-      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1">
         <v>8</v>
@@ -1984,15 +2034,15 @@
       <c r="H44" s="2"/>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>143</v>
+        <v>78</v>
       </c>
       <c r="B45" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2">
@@ -2011,10 +2061,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>93</v>
+        <v>168</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>167</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2">
@@ -2033,16 +2083,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="B47" t="s">
-        <v>194</v>
+        <v>124</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="2">
-        <v>2</v>
-      </c>
-      <c r="E47" s="2"/>
+      <c r="D47" s="2"/>
+      <c r="E47" s="2">
+        <v>4</v>
+      </c>
       <c r="F47" s="1">
         <v>8</v>
       </c>
@@ -2050,22 +2100,22 @@
       <c r="H47" s="2"/>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>146</v>
+        <v>87</v>
       </c>
       <c r="B48" t="s">
-        <v>145</v>
-      </c>
-      <c r="C48" s="1"/>
+        <v>74</v>
+      </c>
+      <c r="C48" s="2"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
         <v>4</v>
       </c>
-      <c r="F48" s="1">
+      <c r="F48" s="2">
         <v>8</v>
       </c>
       <c r="G48" s="2"/>
@@ -2077,10 +2127,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>104</v>
+        <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>89</v>
+        <v>186</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2099,32 +2149,33 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>62</v>
+        <v>160</v>
       </c>
       <c r="B50" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2">
-        <v>4</v>
-      </c>
-      <c r="F50" s="2">
-        <v>8</v>
-      </c>
-      <c r="G50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2">
+        <v>16</v>
+      </c>
       <c r="H50" s="2"/>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>16</v>
+      </c>
+      <c r="J50" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>186</v>
+        <v>133</v>
       </c>
       <c r="B51" t="s">
-        <v>187</v>
+        <v>180</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2139,15 +2190,15 @@
         <v>16</v>
       </c>
       <c r="J51" t="s">
-        <v>184</v>
+        <v>151</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
-        <v>157</v>
+        <v>182</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2161,16 +2212,13 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
-      <c r="J52" t="s">
-        <v>176</v>
-      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="B53" t="s">
-        <v>110</v>
+        <v>181</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2187,10 +2235,10 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>53</v>
+        <v>14</v>
       </c>
       <c r="B54" t="s">
-        <v>54</v>
+        <v>183</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2207,10 +2255,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>16</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2227,10 +2275,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>79</v>
+        <v>185</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2247,12 +2295,14 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B57" t="s">
-        <v>50</v>
-      </c>
-      <c r="C57" s="2"/>
+        <v>132</v>
+      </c>
+      <c r="C57" s="2">
+        <v>1</v>
+      </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2262,15 +2312,15 @@
       <c r="H57" s="2"/>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="B58" t="s">
-        <v>155</v>
+        <v>195</v>
       </c>
       <c r="C58" s="2">
         <v>1</v>
@@ -2289,10 +2339,10 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>153</v>
+        <v>114</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -2305,37 +2355,26 @@
       </c>
       <c r="H59" s="2"/>
       <c r="I59">
-        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>133</v>
-      </c>
-      <c r="B60" t="s">
-        <v>132</v>
-      </c>
-      <c r="C60" s="2">
-        <v>1</v>
-      </c>
+        <v>199</v>
+      </c>
+      <c r="C60" s="2"/>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2">
-        <v>16</v>
-      </c>
+      <c r="G60" s="2"/>
       <c r="H60" s="2"/>
-      <c r="I60">
-        <v>17</v>
-      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>158</v>
+        <v>134</v>
       </c>
       <c r="B61" t="s">
-        <v>160</v>
+        <v>197</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="2">
@@ -2351,13 +2390,16 @@
         <f t="shared" ref="I61:I92" si="2">C61+D61+E61+F61+G61+H61</f>
         <v>18</v>
       </c>
+      <c r="J61" t="s">
+        <v>198</v>
+      </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B62" t="s">
-        <v>159</v>
+        <v>135</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -2376,10 +2418,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>78</v>
+        <v>63</v>
       </c>
       <c r="B63" t="s">
-        <v>77</v>
+        <v>196</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -2398,10 +2440,10 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="B64" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2"/>
@@ -2418,15 +2460,15 @@
         <v>20</v>
       </c>
       <c r="J64" t="s">
-        <v>175</v>
+        <v>150</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>118</v>
+        <v>99</v>
       </c>
       <c r="B65" t="s">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2"/>
@@ -2445,10 +2487,10 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>117</v>
+        <v>98</v>
       </c>
       <c r="B66" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C66" s="1"/>
       <c r="D66" s="2"/>
@@ -2467,10 +2509,10 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="B67" t="s">
-        <v>116</v>
+        <v>97</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2">
@@ -2491,10 +2533,10 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="B68" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
@@ -2516,7 +2558,7 @@
         <v>4</v>
       </c>
       <c r="B69" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="2"/>
@@ -2533,15 +2575,15 @@
         <v>24</v>
       </c>
       <c r="J69" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B70" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="2"/>
@@ -2560,10 +2602,10 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>146</v>
       </c>
       <c r="B71" t="s">
-        <v>172</v>
+        <v>147</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
@@ -2584,10 +2626,10 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>190</v>
+        <v>163</v>
       </c>
       <c r="B72" t="s">
-        <v>191</v>
+        <v>164</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
@@ -2602,15 +2644,15 @@
         <v>32</v>
       </c>
       <c r="J72" t="s">
-        <v>192</v>
+        <v>165</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B73" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
@@ -2627,10 +2669,10 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B74" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2647,10 +2689,10 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2667,10 +2709,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B76" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2687,10 +2729,10 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>121</v>
+        <v>102</v>
       </c>
       <c r="B77" t="s">
-        <v>120</v>
+        <v>101</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2707,10 +2749,10 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>85</v>
+        <v>70</v>
       </c>
       <c r="B78" t="s">
-        <v>193</v>
+        <v>166</v>
       </c>
       <c r="C78" s="2">
         <v>1</v>
@@ -2729,10 +2771,10 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>177</v>
+        <v>152</v>
       </c>
       <c r="B79" t="s">
-        <v>178</v>
+        <v>153</v>
       </c>
       <c r="C79" s="2">
         <v>1</v>
@@ -2751,10 +2793,10 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B80" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -2773,10 +2815,10 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="B81" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="2">
@@ -2795,10 +2837,10 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>131</v>
+        <v>112</v>
       </c>
       <c r="B82" t="s">
-        <v>130</v>
+        <v>111</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="2">
@@ -2817,10 +2859,10 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="B83" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2">
@@ -2839,10 +2881,10 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>93</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2"/>
@@ -2861,10 +2903,10 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="B85" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2"/>
@@ -2883,10 +2925,10 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>115</v>
+        <v>96</v>
       </c>
       <c r="B86" t="s">
-        <v>183</v>
+        <v>158</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2903,7 +2945,7 @@
         <v>36</v>
       </c>
       <c r="J86" t="s">
-        <v>185</v>
+        <v>159</v>
       </c>
     </row>
     <row r="87" spans="1:10">
@@ -2911,7 +2953,7 @@
         <v>1</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -2933,7 +2975,7 @@
         <v>3</v>
       </c>
       <c r="B88" t="s">
-        <v>179</v>
+        <v>154</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -2950,15 +2992,15 @@
         <v>40</v>
       </c>
       <c r="J88" t="s">
-        <v>180</v>
+        <v>155</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B89" t="s">
-        <v>181</v>
+        <v>156</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
@@ -2975,15 +3017,15 @@
         <v>40</v>
       </c>
       <c r="J89" t="s">
-        <v>182</v>
+        <v>157</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>188</v>
+        <v>161</v>
       </c>
       <c r="B90" t="s">
-        <v>189</v>
+        <v>162</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3002,10 +3044,10 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>127</v>
+        <v>108</v>
       </c>
       <c r="B91" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
@@ -3024,10 +3066,10 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B92" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3046,28 +3088,28 @@
     </row>
     <row r="93" spans="1:10">
       <c r="C93" t="s">
+        <v>38</v>
+      </c>
+      <c r="D93" t="s">
+        <v>39</v>
+      </c>
+      <c r="E93" t="s">
+        <v>40</v>
+      </c>
+      <c r="F93" t="s">
+        <v>41</v>
+      </c>
+      <c r="G93" t="s">
         <v>42</v>
       </c>
-      <c r="D93" t="s">
+      <c r="H93" t="s">
         <v>43</v>
       </c>
-      <c r="E93" t="s">
-        <v>44</v>
-      </c>
-      <c r="F93" t="s">
-        <v>45</v>
-      </c>
-      <c r="G93" t="s">
-        <v>46</v>
-      </c>
-      <c r="H93" t="s">
-        <v>47</v>
-      </c>
       <c r="I93" t="s">
-        <v>161</v>
+        <v>136</v>
       </c>
       <c r="J93" t="s">
-        <v>81</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
+    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="203">
   <si>
     <t>折射</t>
   </si>
@@ -760,6 +760,14 @@
   </si>
   <si>
     <t>小技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧大军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_burning_army_lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1117,18 +1125,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J93"/>
+  <dimension ref="A1:J94"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J20" sqref="J20"/>
+      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.44140625" customWidth="1"/>
-    <col min="10" max="10" width="88.6640625" customWidth="1"/>
+    <col min="2" max="2" width="40.5" customWidth="1"/>
+    <col min="10" max="10" width="88.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1722,7 +1730,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="30" spans="1:10" ht="13.95" customHeight="1">
+    <row r="30" spans="1:10" ht="13.9" customHeight="1">
       <c r="A30" t="s">
         <v>24</v>
       </c>
@@ -3087,28 +3095,52 @@
       </c>
     </row>
     <row r="93" spans="1:10">
-      <c r="C93" t="s">
+      <c r="A93" t="s">
+        <v>201</v>
+      </c>
+      <c r="B93" t="s">
+        <v>202</v>
+      </c>
+      <c r="C93" s="2">
+        <v>1</v>
+      </c>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2">
+        <v>16</v>
+      </c>
+      <c r="H93" s="2">
+        <v>32</v>
+      </c>
+      <c r="I93">
+        <f t="shared" ref="I93" si="3">C93+D93+E93+F93+G93+H93</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="C94" t="s">
         <v>38</v>
       </c>
-      <c r="D93" t="s">
+      <c r="D94" t="s">
         <v>39</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E94" t="s">
         <v>40</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F94" t="s">
         <v>41</v>
       </c>
-      <c r="G93" t="s">
+      <c r="G94" t="s">
         <v>42</v>
       </c>
-      <c r="H93" t="s">
+      <c r="H94" t="s">
         <v>43</v>
       </c>
-      <c r="I93" t="s">
+      <c r="I94" t="s">
         <v>136</v>
       </c>
-      <c r="J93" t="s">
+      <c r="J94" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3128,7 +3160,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3141,7 +3173,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="90" yWindow="105" windowWidth="22830" windowHeight="9240"/>
+    <workbookView xWindow="96" yWindow="108" windowWidth="22836" windowHeight="9240"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="208">
   <si>
     <t>折射</t>
   </si>
@@ -763,11 +763,30 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>燃烧大军</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>蚀脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bane_brain_sap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_gods_rebuke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eidolon_duplicate_lua</t>
   </si>
   <si>
     <t>clinkz_burning_army_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧之军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1125,18 +1144,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J94"/>
+  <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A71" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D97" sqref="D97"/>
+      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="32" customWidth="1"/>
-    <col min="2" max="2" width="40.5" customWidth="1"/>
-    <col min="10" max="10" width="88.625" customWidth="1"/>
+    <col min="2" max="2" width="40.44140625" customWidth="1"/>
+    <col min="10" max="10" width="88.6640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -1247,7 +1266,7 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
-        <f t="shared" ref="I6:I33" si="0">C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" ref="I6:I34" si="0">C6+D6+E6+F6+G6+H6</f>
         <v>1</v>
       </c>
     </row>
@@ -1542,10 +1561,10 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>170</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>179</v>
+        <v>205</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1562,10 +1581,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B22" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1582,10 +1601,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="B23" t="s">
-        <v>89</v>
+        <v>178</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1602,10 +1621,10 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>31</v>
+        <v>89</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1622,10 +1641,10 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" t="s">
-        <v>137</v>
+        <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>138</v>
+        <v>31</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1642,10 +1661,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B26" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1659,16 +1678,13 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="J26" t="s">
-        <v>141</v>
-      </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="B27" t="s">
-        <v>32</v>
+        <v>140</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1682,17 +1698,18 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
+      <c r="J27" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="2">
-        <v>1</v>
-      </c>
+        <v>32</v>
+      </c>
+      <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2">
         <v>4</v>
@@ -1702,15 +1719,15 @@
       <c r="H28" s="2"/>
       <c r="I28">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>143</v>
+        <v>84</v>
       </c>
       <c r="B29" t="s">
-        <v>142</v>
+        <v>85</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1726,16 +1743,13 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="J29" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="13.9" customHeight="1">
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="B30" t="s">
-        <v>80</v>
+        <v>142</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
@@ -1751,18 +1765,21 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-    </row>
-    <row r="31" spans="1:10">
+      <c r="J30" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="13.95" customHeight="1">
       <c r="A31" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
-        <v>145</v>
-      </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2">
-        <v>2</v>
-      </c>
+        <v>80</v>
+      </c>
+      <c r="C31" s="2">
+        <v>1</v>
+      </c>
+      <c r="D31" s="2"/>
       <c r="E31" s="2">
         <v>4</v>
       </c>
@@ -1771,21 +1788,21 @@
       <c r="H31" s="2"/>
       <c r="I31">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>81</v>
+        <v>145</v>
       </c>
       <c r="C32" s="2"/>
-      <c r="D32" s="1">
+      <c r="D32" s="2">
         <v>2</v>
       </c>
-      <c r="E32" s="1">
+      <c r="E32" s="2">
         <v>4</v>
       </c>
       <c r="F32" s="2"/>
@@ -1798,10 +1815,10 @@
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="B33" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="1">
@@ -1820,49 +1837,51 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B34" t="s">
-        <v>117</v>
+        <v>83</v>
       </c>
       <c r="C34" s="2"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-      <c r="F34" s="2">
-        <v>8</v>
-      </c>
+      <c r="D34" s="1">
+        <v>2</v>
+      </c>
+      <c r="E34" s="1">
+        <v>4</v>
+      </c>
+      <c r="F34" s="2"/>
       <c r="G34" s="2"/>
       <c r="H34" s="2"/>
       <c r="I34">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>9</v>
+        <v>118</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>117</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="2">
         <v>8</v>
       </c>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <f t="shared" ref="I35:I58" si="1">C35+D35+E35+F35+G35+H35</f>
         <v>8</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B36" t="s">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
@@ -1873,16 +1892,16 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I36:I60" si="1">C36+D36+E36+F36+G36+H36</f>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B37" t="s">
-        <v>56</v>
+        <v>37</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1899,10 +1918,10 @@
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1919,10 +1938,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1939,10 +1958,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B40" t="s">
-        <v>184</v>
+        <v>60</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1959,14 +1978,12 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>127</v>
+        <v>62</v>
       </c>
       <c r="B41" t="s">
-        <v>128</v>
-      </c>
-      <c r="C41" s="2">
-        <v>1</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C41" s="2"/>
       <c r="D41" s="2"/>
       <c r="E41" s="2"/>
       <c r="F41" s="2">
@@ -1976,15 +1993,15 @@
       <c r="H41" s="2"/>
       <c r="I41">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>75</v>
+        <v>127</v>
       </c>
       <c r="B42" t="s">
-        <v>76</v>
+        <v>128</v>
       </c>
       <c r="C42" s="2">
         <v>1</v>
@@ -2003,17 +2020,17 @@
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
-      </c>
-      <c r="C43" s="1">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2">
         <v>1</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
-      <c r="F43" s="1">
+      <c r="F43" s="2">
         <v>8</v>
       </c>
       <c r="G43" s="2"/>
@@ -2025,15 +2042,15 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="B44" t="s">
-        <v>123</v>
-      </c>
-      <c r="C44" s="1"/>
-      <c r="D44" s="2">
-        <v>2</v>
-      </c>
+        <v>126</v>
+      </c>
+      <c r="C44" s="1">
+        <v>1</v>
+      </c>
+      <c r="D44" s="2"/>
       <c r="E44" s="2"/>
       <c r="F44" s="1">
         <v>8</v>
@@ -2042,15 +2059,15 @@
       <c r="H44" s="2"/>
       <c r="I44">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="B45" t="s">
-        <v>77</v>
+        <v>123</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="2">
@@ -2069,10 +2086,10 @@
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>168</v>
+        <v>78</v>
       </c>
       <c r="B46" t="s">
-        <v>167</v>
+        <v>77</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2">
@@ -2091,16 +2108,16 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>125</v>
+        <v>168</v>
       </c>
       <c r="B47" t="s">
-        <v>124</v>
+        <v>167</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="2"/>
-      <c r="E47" s="2">
-        <v>4</v>
-      </c>
+      <c r="D47" s="2">
+        <v>2</v>
+      </c>
+      <c r="E47" s="2"/>
       <c r="F47" s="1">
         <v>8</v>
       </c>
@@ -2108,22 +2125,22 @@
       <c r="H47" s="2"/>
       <c r="I47">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>87</v>
+        <v>125</v>
       </c>
       <c r="B48" t="s">
-        <v>74</v>
-      </c>
-      <c r="C48" s="2"/>
+        <v>124</v>
+      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="2"/>
       <c r="E48" s="2">
         <v>4</v>
       </c>
-      <c r="F48" s="2">
+      <c r="F48" s="1">
         <v>8</v>
       </c>
       <c r="G48" s="2"/>
@@ -2135,10 +2152,10 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>52</v>
+        <v>87</v>
       </c>
       <c r="B49" t="s">
-        <v>186</v>
+        <v>74</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="2"/>
@@ -2157,56 +2174,54 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>160</v>
+        <v>201</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>202</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2">
-        <v>16</v>
-      </c>
+      <c r="E50" s="2">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2">
+        <v>8</v>
+      </c>
+      <c r="G50" s="2"/>
       <c r="H50" s="2"/>
       <c r="I50">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J50" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="B51" t="s">
-        <v>180</v>
+        <v>186</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
-      <c r="E51" s="2"/>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2">
-        <v>16</v>
-      </c>
+      <c r="E51" s="2">
+        <v>4</v>
+      </c>
+      <c r="F51" s="2">
+        <v>8</v>
+      </c>
+      <c r="G51" s="2"/>
       <c r="H51" s="2"/>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J51" t="s">
-        <v>151</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="B52" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
@@ -2220,13 +2235,16 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="J52" t="s">
+        <v>188</v>
+      </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>46</v>
+        <v>133</v>
       </c>
       <c r="B53" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2240,13 +2258,16 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="J53" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="B54" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2263,10 +2284,10 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="B55" t="s">
-        <v>64</v>
+        <v>181</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2283,10 +2304,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>72</v>
+        <v>14</v>
       </c>
       <c r="B56" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2303,14 +2324,12 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>131</v>
+        <v>65</v>
       </c>
       <c r="B57" t="s">
-        <v>132</v>
-      </c>
-      <c r="C57" s="2">
-        <v>1</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="C57" s="2"/>
       <c r="D57" s="2"/>
       <c r="E57" s="2"/>
       <c r="F57" s="2"/>
@@ -2320,19 +2339,17 @@
       <c r="H57" s="2"/>
       <c r="I57">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>130</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>195</v>
-      </c>
-      <c r="C58" s="2">
-        <v>1</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="C58" s="2"/>
       <c r="D58" s="2"/>
       <c r="E58" s="2"/>
       <c r="F58" s="2"/>
@@ -2342,15 +2359,15 @@
       <c r="H58" s="2"/>
       <c r="I58">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B59" t="s">
-        <v>113</v>
+        <v>132</v>
       </c>
       <c r="C59" s="2">
         <v>1</v>
@@ -2363,31 +2380,43 @@
       </c>
       <c r="H59" s="2"/>
       <c r="I59">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>199</v>
-      </c>
-      <c r="C60" s="2"/>
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>195</v>
+      </c>
+      <c r="C60" s="2">
+        <v>1</v>
+      </c>
       <c r="D60" s="2"/>
       <c r="E60" s="2"/>
       <c r="F60" s="2"/>
-      <c r="G60" s="2"/>
+      <c r="G60" s="2">
+        <v>16</v>
+      </c>
       <c r="H60" s="2"/>
+      <c r="I60">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>134</v>
+        <v>114</v>
       </c>
       <c r="B61" t="s">
-        <v>197</v>
-      </c>
-      <c r="C61" s="2"/>
-      <c r="D61" s="2">
-        <v>2</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="C61" s="2">
+        <v>1</v>
+      </c>
+      <c r="D61" s="2"/>
       <c r="E61" s="2"/>
       <c r="F61" s="2"/>
       <c r="G61" s="2">
@@ -2395,19 +2424,15 @@
       </c>
       <c r="H61" s="2"/>
       <c r="I61">
-        <f t="shared" ref="I61:I92" si="2">C61+D61+E61+F61+G61+H61</f>
-        <v>18</v>
-      </c>
-      <c r="J61" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>10</v>
+        <v>199</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>203</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" s="2">
@@ -2420,16 +2445,15 @@
       </c>
       <c r="H62" s="2"/>
       <c r="I62">
-        <f t="shared" si="2"/>
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>63</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -2442,22 +2466,25 @@
       </c>
       <c r="H63" s="2"/>
       <c r="I63">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I63:I94" si="2">C63+D63+E63+F63+G63+H63</f>
         <v>18</v>
+      </c>
+      <c r="J63" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>148</v>
+        <v>10</v>
       </c>
       <c r="B64" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="C64" s="2"/>
-      <c r="D64" s="2"/>
-      <c r="E64" s="2">
-        <v>4</v>
-      </c>
+      <c r="D64" s="2">
+        <v>2</v>
+      </c>
+      <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2">
         <v>16</v>
@@ -2465,24 +2492,21 @@
       <c r="H64" s="2"/>
       <c r="I64">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J64" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>100</v>
+        <v>196</v>
       </c>
       <c r="C65" s="2"/>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2">
-        <v>4</v>
-      </c>
+      <c r="D65" s="2">
+        <v>2</v>
+      </c>
+      <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2">
         <v>16</v>
@@ -2490,23 +2514,23 @@
       <c r="H65" s="2"/>
       <c r="I65">
         <f t="shared" si="2"/>
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>98</v>
+        <v>148</v>
       </c>
       <c r="B66" t="s">
-        <v>26</v>
-      </c>
-      <c r="C66" s="1"/>
+        <v>149</v>
+      </c>
+      <c r="C66" s="2"/>
       <c r="D66" s="2"/>
-      <c r="E66" s="1">
+      <c r="E66" s="2">
         <v>4</v>
       </c>
       <c r="F66" s="2"/>
-      <c r="G66" s="1">
+      <c r="G66" s="2">
         <v>16</v>
       </c>
       <c r="H66" s="2"/>
@@ -2514,18 +2538,19 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="J66" t="s">
+        <v>150</v>
+      </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="B67" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="C67" s="2"/>
-      <c r="D67" s="2">
-        <v>2</v>
-      </c>
+      <c r="D67" s="2"/>
       <c r="E67" s="2">
         <v>4</v>
       </c>
@@ -2536,70 +2561,69 @@
       <c r="H67" s="2"/>
       <c r="I67">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>120</v>
+        <v>98</v>
       </c>
       <c r="B68" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="C68" s="1"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="1"/>
-      <c r="F68" s="2">
-        <v>8</v>
-      </c>
+      <c r="E68" s="1">
+        <v>4</v>
+      </c>
+      <c r="F68" s="2"/>
       <c r="G68" s="1">
         <v>16</v>
       </c>
       <c r="H68" s="2"/>
       <c r="I68">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>4</v>
+        <v>109</v>
       </c>
       <c r="B69" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C69" s="2"/>
-      <c r="D69" s="2"/>
-      <c r="E69" s="2"/>
-      <c r="F69" s="1">
-        <v>8</v>
-      </c>
-      <c r="G69" s="1">
+      <c r="D69" s="2">
+        <v>2</v>
+      </c>
+      <c r="E69" s="2">
+        <v>4</v>
+      </c>
+      <c r="F69" s="2"/>
+      <c r="G69" s="2">
         <v>16</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69">
         <f t="shared" si="2"/>
-        <v>24</v>
-      </c>
-      <c r="J69" t="s">
-        <v>121</v>
+        <v>22</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>23</v>
+        <v>120</v>
       </c>
       <c r="B70" t="s">
-        <v>50</v>
-      </c>
-      <c r="C70" s="2"/>
+        <v>119</v>
+      </c>
+      <c r="C70" s="1"/>
       <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="2">
         <v>8</v>
       </c>
-      <c r="G70" s="2">
+      <c r="G70" s="1">
         <v>16</v>
       </c>
       <c r="H70" s="2"/>
@@ -2610,77 +2634,81 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>146</v>
+        <v>4</v>
       </c>
       <c r="B71" t="s">
-        <v>147</v>
+        <v>29</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2">
-        <v>4</v>
-      </c>
-      <c r="F71" s="2">
+      <c r="E71" s="2"/>
+      <c r="F71" s="1">
         <v>8</v>
       </c>
-      <c r="G71" s="2">
+      <c r="G71" s="1">
         <v>16</v>
       </c>
       <c r="H71" s="2"/>
       <c r="I71">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
+      </c>
+      <c r="J71" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>163</v>
+        <v>23</v>
       </c>
       <c r="B72" t="s">
-        <v>164</v>
+        <v>50</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="2"/>
-      <c r="H72" s="2">
-        <v>32</v>
-      </c>
+      <c r="F72" s="2">
+        <v>8</v>
+      </c>
+      <c r="G72" s="2">
+        <v>16</v>
+      </c>
+      <c r="H72" s="2"/>
       <c r="I72">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="J72" t="s">
-        <v>165</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>16</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>33</v>
+        <v>147</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="2">
-        <v>32</v>
-      </c>
+      <c r="E73" s="2">
+        <v>4</v>
+      </c>
+      <c r="F73" s="2">
+        <v>8</v>
+      </c>
+      <c r="G73" s="2">
+        <v>16</v>
+      </c>
+      <c r="H73" s="2"/>
       <c r="I73">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>28</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>20</v>
+        <v>163</v>
       </c>
       <c r="B74" t="s">
-        <v>34</v>
+        <v>164</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
@@ -2694,13 +2722,16 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="J74" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B75" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2717,10 +2748,10 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B76" t="s">
-        <v>48</v>
+        <v>34</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2737,10 +2768,10 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="B77" t="s">
-        <v>101</v>
+        <v>36</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2757,14 +2788,12 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>70</v>
+        <v>18</v>
       </c>
       <c r="B78" t="s">
-        <v>166</v>
-      </c>
-      <c r="C78" s="2">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C78" s="2"/>
       <c r="D78" s="2"/>
       <c r="E78" s="2"/>
       <c r="F78" s="2"/>
@@ -2774,19 +2803,17 @@
       </c>
       <c r="I78">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>152</v>
+        <v>102</v>
       </c>
       <c r="B79" t="s">
-        <v>153</v>
-      </c>
-      <c r="C79" s="2">
-        <v>1</v>
-      </c>
+        <v>101</v>
+      </c>
+      <c r="C79" s="2"/>
       <c r="D79" s="2"/>
       <c r="E79" s="2"/>
       <c r="F79" s="2"/>
@@ -2796,15 +2823,15 @@
       </c>
       <c r="I79">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>17</v>
+        <v>70</v>
       </c>
       <c r="B80" t="s">
-        <v>47</v>
+        <v>166</v>
       </c>
       <c r="C80" s="2">
         <v>1</v>
@@ -2823,15 +2850,15 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>69</v>
+        <v>152</v>
       </c>
       <c r="B81" t="s">
-        <v>110</v>
-      </c>
-      <c r="C81" s="2"/>
-      <c r="D81" s="2">
-        <v>2</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="C81" s="2">
+        <v>1</v>
+      </c>
+      <c r="D81" s="2"/>
       <c r="E81" s="2"/>
       <c r="F81" s="2"/>
       <c r="G81" s="2"/>
@@ -2840,20 +2867,20 @@
       </c>
       <c r="I81">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>112</v>
+        <v>17</v>
       </c>
       <c r="B82" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="2"/>
-      <c r="D82" s="2">
-        <v>2</v>
-      </c>
+        <v>47</v>
+      </c>
+      <c r="C82" s="2">
+        <v>1</v>
+      </c>
+      <c r="D82" s="2"/>
       <c r="E82" s="2"/>
       <c r="F82" s="2"/>
       <c r="G82" s="2"/>
@@ -2862,15 +2889,15 @@
       </c>
       <c r="I82">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2">
@@ -2889,16 +2916,16 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>93</v>
+        <v>112</v>
       </c>
       <c r="B84" t="s">
-        <v>95</v>
+        <v>111</v>
       </c>
       <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2">
-        <v>4</v>
-      </c>
+      <c r="D84" s="2">
+        <v>2</v>
+      </c>
+      <c r="E84" s="2"/>
       <c r="F84" s="2"/>
       <c r="G84" s="2"/>
       <c r="H84" s="2">
@@ -2906,21 +2933,21 @@
       </c>
       <c r="I84">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B85" t="s">
-        <v>94</v>
+        <v>68</v>
       </c>
       <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2">
-        <v>4</v>
-      </c>
+      <c r="D85" s="2">
+        <v>2</v>
+      </c>
+      <c r="E85" s="2"/>
       <c r="F85" s="2"/>
       <c r="G85" s="2"/>
       <c r="H85" s="2">
@@ -2928,15 +2955,15 @@
       </c>
       <c r="I85">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="B86" t="s">
-        <v>158</v>
+        <v>95</v>
       </c>
       <c r="C86" s="2"/>
       <c r="D86" s="2"/>
@@ -2952,132 +2979,132 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J86" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B87" t="s">
-        <v>27</v>
+        <v>94</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
-      <c r="E87" s="2"/>
-      <c r="F87" s="1">
-        <v>8</v>
-      </c>
+      <c r="E87" s="2">
+        <v>4</v>
+      </c>
+      <c r="F87" s="2"/>
       <c r="G87" s="2"/>
-      <c r="H87" s="1">
+      <c r="H87" s="2">
         <v>32</v>
       </c>
       <c r="I87">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>3</v>
+        <v>96</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
-      <c r="E88" s="2"/>
-      <c r="F88" s="1">
-        <v>8</v>
-      </c>
+      <c r="E88" s="2">
+        <v>4</v>
+      </c>
+      <c r="F88" s="2"/>
       <c r="G88" s="2"/>
-      <c r="H88" s="1">
+      <c r="H88" s="2">
         <v>32</v>
       </c>
       <c r="I88">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="J88" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="B89" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
       <c r="E89" s="2"/>
-      <c r="F89" s="2">
+      <c r="F89" s="1">
         <v>8</v>
       </c>
       <c r="G89" s="2"/>
-      <c r="H89" s="2">
+      <c r="H89" s="1">
         <v>32</v>
       </c>
       <c r="I89">
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J89" t="s">
-        <v>157</v>
-      </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>161</v>
+        <v>3</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>154</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
       <c r="E90" s="2"/>
-      <c r="F90" s="2"/>
-      <c r="G90" s="2">
-        <v>16</v>
-      </c>
-      <c r="H90" s="2">
+      <c r="F90" s="1">
+        <v>8</v>
+      </c>
+      <c r="G90" s="2"/>
+      <c r="H90" s="1">
         <v>32</v>
       </c>
       <c r="I90">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="J90" t="s">
+        <v>155</v>
       </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>108</v>
+        <v>6</v>
       </c>
       <c r="B91" t="s">
-        <v>28</v>
+        <v>156</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="2"/>
-      <c r="G91" s="1">
-        <v>16</v>
-      </c>
-      <c r="H91" s="1">
+      <c r="F91" s="2">
+        <v>8</v>
+      </c>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2">
         <v>32</v>
       </c>
       <c r="I91">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="J91" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>19</v>
+        <v>161</v>
       </c>
       <c r="B92" t="s">
-        <v>49</v>
+        <v>162</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
@@ -3096,51 +3123,95 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>201</v>
+        <v>108</v>
       </c>
       <c r="B93" t="s">
-        <v>202</v>
-      </c>
-      <c r="C93" s="2">
-        <v>1</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="2">
-        <v>16</v>
-      </c>
-      <c r="H93" s="2">
+      <c r="G93" s="1">
+        <v>16</v>
+      </c>
+      <c r="H93" s="1">
         <v>32</v>
       </c>
       <c r="I93">
-        <f t="shared" ref="I93" si="3">C93+D93+E93+F93+G93+H93</f>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" t="s">
+        <v>19</v>
+      </c>
+      <c r="B94" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="94" spans="1:10">
-      <c r="C94" t="s">
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2">
+        <v>16</v>
+      </c>
+      <c r="H94" s="2">
+        <v>32</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" t="s">
+        <v>207</v>
+      </c>
+      <c r="B95" t="s">
+        <v>206</v>
+      </c>
+      <c r="C95" s="2">
+        <v>1</v>
+      </c>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2">
+        <v>16</v>
+      </c>
+      <c r="H95" s="2">
+        <v>32</v>
+      </c>
+      <c r="I95">
+        <f t="shared" ref="I95" si="3">C95+D95+E95+F95+G95+H95</f>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="C96" t="s">
         <v>38</v>
       </c>
-      <c r="D94" t="s">
+      <c r="D96" t="s">
         <v>39</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E96" t="s">
         <v>40</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F96" t="s">
         <v>41</v>
       </c>
-      <c r="G94" t="s">
+      <c r="G96" t="s">
         <v>42</v>
       </c>
-      <c r="H94" t="s">
+      <c r="H96" t="s">
         <v>43</v>
       </c>
-      <c r="I94" t="s">
+      <c r="I96" t="s">
         <v>136</v>
       </c>
-      <c r="J94" t="s">
+      <c r="J96" t="s">
         <v>66</v>
       </c>
     </row>
@@ -3160,7 +3231,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3173,7 +3244,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -1147,8 +1147,8 @@
   <dimension ref="A1:J96"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A77" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B98" sqref="B98"/>
+      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/tools/技能表.xlsx
+++ b/tools/技能表.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="208">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="218" uniqueCount="210">
   <si>
     <t>折射</t>
   </si>
@@ -99,316 +99,689 @@
     <t>faceless_void_chronosphere</t>
   </si>
   <si>
+    <t>life_stealer_rage</t>
+  </si>
+  <si>
+    <t>troll_warlord_battle_trance</t>
+  </si>
+  <si>
+    <t>ogre_magi_frost_armor</t>
+  </si>
+  <si>
+    <t>dark_seer_surge</t>
+  </si>
+  <si>
+    <t>wisp_relocate</t>
+  </si>
+  <si>
+    <t>decay_summon_wraith_warrior</t>
+  </si>
+  <si>
+    <t>clinkz_death_pact</t>
+  </si>
+  <si>
+    <t>decay_dark_ritual_datadriven</t>
+  </si>
+  <si>
+    <t>decay_tombstone</t>
+  </si>
+  <si>
+    <t>hunt_thirst_lua</t>
+  </si>
+  <si>
+    <t>元素1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坚韧 2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神秘4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>猎杀8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂怒16</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐朽32</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_frost_shield</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_troll_warlord_ensnare</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pugna_nether_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_summon_skeleton_mage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_mortal_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spirit_breaker_charge_of_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lich_chain_frost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>活性护甲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>护身体甲盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>刚毛后背</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slark_shadow_dance_lua</t>
+  </si>
+  <si>
+    <t>暗影之舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>追踪术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_hunter_in_the_night</t>
+  </si>
+  <si>
+    <t>暗影狩猎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑暗飞升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>牺牲</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_berserkers_blood</t>
+  </si>
+  <si>
+    <t>狂战士之血</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>守墓人的斗篷</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地穴虫群</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>召唤佣兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spawnlord_master_freeze</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨浪</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tidehunter_gush</t>
+  </si>
+  <si>
+    <t>spirit_breaker_greater_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨力重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>折光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_dispersion</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰晶爆破</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ancient_apparition_ice_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>harpy_storm_chain_lightning</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>停滞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>离子外壳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_spectral_dagger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>霜星</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪电链</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>超强力量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邪能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dazzle_bad_juju</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>午夜凋零</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_bash</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>时间结界</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>slardar_amplify_damage</t>
+  </si>
+  <si>
+    <t>sandking_caustic_finale</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腐尸毒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>地震</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_epicenter</t>
+  </si>
+  <si>
+    <t>融化攻击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_tornado</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深海重击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>visage_summon_familiars_stone_form</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石像形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>warlock_golem_flaming_fists</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈焰之拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>长大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封禁制</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_spin_web</t>
+  </si>
+  <si>
+    <t>织网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>broodmother_insatiable_hunger</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>极度饥渴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>模糊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>phantom_assassin_blur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_smoke_screen</t>
+  </si>
+  <si>
+    <t>烟雾弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>razor_eye_of_the_storm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎阳索</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_searing_chains</t>
+  </si>
+  <si>
+    <t>火焰吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>灼热之箭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无影拳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ember_spirit_sleight_of_fist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恩赐解脱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>双刃剑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_khan_war_stomp</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪烁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>antimage_blink</t>
+  </si>
+  <si>
+    <t>灵能陷阱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_psionic_trap</t>
+  </si>
+  <si>
+    <t>中大</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>storm_spirit_ball_lightning</t>
+  </si>
+  <si>
+    <t>球状闪电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大  5 10 15 20 25 30 35 99</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>dark_seer_vacuum</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>荒芜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_desolate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>化学狂暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>alchemist_chemical_rage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6 12 18 24 30 36</t>
+  </si>
+  <si>
+    <t>15 30 45 60 75</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冥火暴击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>skeleton_king_hellfire_blast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>venomancer_poison_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>8 16 24 32 40</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gnoll_assassin_envenomed_weapon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2 3 4 5 6 7</t>
+  </si>
+  <si>
+    <t>5 10 15 20 25 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扫射</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>阎刃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doom_bringer_infernal_blade</t>
+  </si>
+  <si>
+    <t>骨球</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>undead_tusk_bone_ball</t>
+  </si>
+  <si>
+    <t>4 8 12 16 20 24 28 32</t>
+  </si>
+  <si>
+    <t>death_prophet_carrion_swarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sandking_burrowstrike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>掘地穿刺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鬼影重重</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如影随形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>morphling_waveform</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>shredder_reactive_armor</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tiny_grow</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bristleback_bristleback</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>durable_damage_return_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_bulwark</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>spectre_haunt_lua</t>
+  </si>
+  <si>
+    <t>spectre_haunt_single_lua</t>
+  </si>
+  <si>
+    <t>phantom_assassin_coup_de_grace</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fury_berserk_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_overpower</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ursa_fury_swipes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>night_stalker_darkness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>giant_wolf_critical_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>riki_blink_strike</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_strafe</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5 10 15 20 25 30</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>波浪形态</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_crystal_nova</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>crystal_maiden_frostbite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>black_dragon_fireball</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>clinkz_searing_arrows</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huskar_life_break</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centaur_double_edge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小技能 效果好</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>神之谴戒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小技能</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蚀脑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bane_brain_sap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mars_gods_rebuke</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚灵分裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eidolon_duplicate_lua</t>
+  </si>
+  <si>
+    <t>clinkz_burning_army_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>燃烧之军</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zuus_cloud_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invoker_sun_strike_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>templar_assassin_refraction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bounty_hunter_track_lua</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>pudge_meat_hook</t>
-  </si>
-  <si>
-    <t>life_stealer_rage</t>
-  </si>
-  <si>
-    <t>troll_warlord_battle_trance</t>
-  </si>
-  <si>
-    <t>ogre_magi_frost_armor</t>
-  </si>
-  <si>
-    <t>dark_seer_surge</t>
-  </si>
-  <si>
-    <t>wisp_relocate</t>
-  </si>
-  <si>
-    <t>decay_summon_wraith_warrior</t>
-  </si>
-  <si>
-    <t>clinkz_death_pact</t>
-  </si>
-  <si>
-    <t>decay_dark_ritual_datadriven</t>
-  </si>
-  <si>
-    <t>decay_tombstone</t>
-  </si>
-  <si>
-    <t>hunt_thirst_lua</t>
-  </si>
-  <si>
-    <t>元素1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坚韧 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神秘4</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>猎杀8</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂怒16</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐朽32</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_frost_shield</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_troll_warlord_ensnare</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pugna_nether_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_summon_skeleton_mage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_mortal_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spirit_breaker_charge_of_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>lich_chain_frost</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>活性护甲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>护身体甲盾</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>刚毛后背</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slark_shadow_dance_lua</t>
-  </si>
-  <si>
-    <t>暗影之舞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bounty_hunter_track_lua</t>
-  </si>
-  <si>
-    <t>追踪术</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_hunter_in_the_night</t>
-  </si>
-  <si>
-    <t>暗影狩猎</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑暗飞升</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>牺牲</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_berserkers_blood</t>
-  </si>
-  <si>
-    <t>狂战士之血</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暗言术</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>enigma_midnight_pulse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>decay_mystery_summon_familiar</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>warlock_shadow_word</t>
-  </si>
-  <si>
-    <t>守墓人的斗篷</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地穴虫群</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>召唤佣兽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>火球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spawnlord_master_freeze</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨浪</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tidehunter_gush</t>
-  </si>
-  <si>
-    <t>spirit_breaker_greater_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>巨力重击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>焦渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>zuus_cloud_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_refraction</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>折光</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_dispersion</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰晶爆破</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ancient_apparition_ice_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>harpy_storm_chain_lightning</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停滞</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>离子外壳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_spectral_dagger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>霜星</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪电链</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>超强力量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>邪能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>decay_mystery_summon_familiar</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dazzle_bad_juju</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>午夜凋零</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_bash</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>时间结界</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害加深</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>slardar_amplify_damage</t>
-  </si>
-  <si>
-    <t>sandking_caustic_finale</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>腐尸毒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>地震</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_epicenter</t>
-  </si>
-  <si>
-    <t>融化攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙卷风</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>invoker_tornado</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深海重击</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -416,377 +789,15 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>visage_summon_familiars_stone_form</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>石像形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>warlock_golem_flaming_fists</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>烈焰之拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>长大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冰封禁制</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_spin_web</t>
-  </si>
-  <si>
-    <t>织网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>broodmother_insatiable_hunger</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>极度饥渴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大招</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>模糊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>phantom_assassin_blur</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_smoke_screen</t>
-  </si>
-  <si>
-    <t>烟雾弹</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>razor_eye_of_the_storm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>炎阳索</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ember_spirit_searing_chains</t>
-  </si>
-  <si>
-    <t>火焰吐息</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>灼热之箭</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>无影拳</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ember_spirit_sleight_of_fist</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>恩赐解脱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>双刃剑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_khan_war_stomp</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>闪烁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>antimage_blink</t>
-  </si>
-  <si>
-    <t>灵能陷阱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>templar_assassin_psionic_trap</t>
-  </si>
-  <si>
-    <t>中大</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>storm_spirit_ball_lightning</t>
-  </si>
-  <si>
-    <t>球状闪电</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大  5 10 15 20 25 30 35 99</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>dark_seer_vacuum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>荒芜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_desolate</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>化学狂暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>alchemist_chemical_rage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>6 12 18 24 30 36</t>
-  </si>
-  <si>
-    <t>15 30 45 60 75</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>冥火暴击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>skeleton_king_hellfire_blast</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>venomancer_poison_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>8 16 24 32 40</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>gnoll_assassin_envenomed_weapon</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2 3 4 5 6 7</t>
-  </si>
-  <si>
-    <t>enigma_midnight_pulse</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 10 15 20 25 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>扫射</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>阎刃</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>doom_bringer_infernal_blade</t>
-  </si>
-  <si>
-    <t>骨球</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>undead_tusk_bone_ball</t>
-  </si>
-  <si>
-    <t>4 8 12 16 20 24 28 32</t>
-  </si>
-  <si>
-    <t>death_prophet_carrion_swarm</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sandking_burrowstrike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>掘地穿刺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>鬼影重重</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>如影随形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>morphling_waveform</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>forged_spirit_melting_strike_lua</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>shredder_reactive_armor</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>tiny_grow</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bristleback_bristleback</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>durable_damage_return_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_bulwark</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>spectre_haunt_lua</t>
-  </si>
-  <si>
-    <t>spectre_haunt_single_lua</t>
-  </si>
-  <si>
-    <t>phantom_assassin_coup_de_grace</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>fury_berserk_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_overpower</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ursa_fury_swipes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>night_stalker_darkness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>giant_wolf_critical_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>riki_blink_strike</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinkz_strafe</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>5 10 15 20 25 30</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>波浪形态</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_crystal_nova</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>crystal_maiden_frostbite</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>black_dragon_fireball</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>dragon_knight_breathe_fire</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>mud_golem_hurl_boulder_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>clinkz_searing_arrows</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>huskar_life_break</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>centaur_double_edge</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小技能 效果好</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>神之谴戒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小技能</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>蚀脑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>bane_brain_sap</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mars_gods_rebuke</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>虚灵分裂</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>eidolon_duplicate_lua</t>
-  </si>
-  <si>
-    <t>clinkz_burning_army_lua</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>燃烧之军</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1144,11 +1155,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J96"/>
+  <dimension ref="A1:J97"/>
   <sheetViews>
     <sheetView showRowColHeaders="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J96" sqref="J96"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -1160,28 +1171,28 @@
   <sheetData>
     <row r="1" spans="1:10">
       <c r="C1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D1" t="s">
         <v>38</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>39</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>40</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>41</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>42</v>
       </c>
-      <c r="H1" t="s">
-        <v>43</v>
-      </c>
       <c r="I1" t="s">
-        <v>136</v>
+        <v>129</v>
       </c>
       <c r="J1" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -1189,7 +1200,7 @@
         <v>21</v>
       </c>
       <c r="B2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="I2">
         <f>C2+D2+E2+F2+G2+H2</f>
@@ -1198,10 +1209,10 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
       <c r="B3" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="C3" s="1">
         <v>1</v>
@@ -1213,10 +1224,10 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>180</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C4" s="1">
         <v>1</v>
@@ -1233,10 +1244,10 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -1252,10 +1263,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C6" s="1">
         <v>1</v>
@@ -1266,16 +1277,16 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6">
-        <f t="shared" ref="I6:I34" si="0">C6+D6+E6+F6+G6+H6</f>
+        <f t="shared" ref="I6:I35" si="0">C6+D6+E6+F6+G6+H6</f>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B7" t="s">
-        <v>172</v>
+        <v>207</v>
       </c>
       <c r="C7" s="2">
         <v>1</v>
@@ -1295,7 +1306,7 @@
         <v>25</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -1312,10 +1323,10 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B9" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C9" s="2">
         <v>1</v>
@@ -1332,10 +1343,10 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="B10" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="C10" s="2">
         <v>1</v>
@@ -1352,10 +1363,10 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B11" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="C11" s="2">
         <v>1</v>
@@ -1375,7 +1386,7 @@
         <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" s="2">
@@ -1395,7 +1406,7 @@
         <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" s="2">
@@ -1412,10 +1423,10 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" s="2">
@@ -1432,10 +1443,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" s="2">
@@ -1452,10 +1463,10 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
       <c r="B16" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" s="2">
@@ -1472,10 +1483,10 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="2">
@@ -1492,10 +1503,10 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1517,7 +1528,7 @@
         <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C19" s="2">
         <v>1</v>
@@ -1539,7 +1550,7 @@
         <v>8</v>
       </c>
       <c r="B20" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C20" s="2">
         <v>1</v>
@@ -1556,15 +1567,15 @@
         <v>3</v>
       </c>
       <c r="J20" t="s">
-        <v>200</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B21" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
@@ -1581,10 +1592,10 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" t="s">
+        <v>162</v>
+      </c>
+      <c r="B22" t="s">
         <v>170</v>
-      </c>
-      <c r="B22" t="s">
-        <v>179</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -1601,10 +1612,10 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" t="s">
+        <v>161</v>
+      </c>
+      <c r="B23" t="s">
         <v>169</v>
-      </c>
-      <c r="B23" t="s">
-        <v>178</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -1624,7 +1635,7 @@
         <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -1644,7 +1655,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
@@ -1661,10 +1672,10 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" t="s">
-        <v>137</v>
+        <v>130</v>
       </c>
       <c r="B26" t="s">
-        <v>138</v>
+        <v>131</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
@@ -1681,10 +1692,10 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" t="s">
-        <v>139</v>
+        <v>132</v>
       </c>
       <c r="B27" t="s">
-        <v>140</v>
+        <v>133</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
@@ -1699,7 +1710,7 @@
         <v>4</v>
       </c>
       <c r="J27" t="s">
-        <v>141</v>
+        <v>134</v>
       </c>
     </row>
     <row r="28" spans="1:10">
@@ -1707,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="B28" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
@@ -1724,10 +1735,10 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B29" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C29" s="2">
         <v>1</v>
@@ -1746,35 +1757,33 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" t="s">
-        <v>143</v>
+        <v>136</v>
       </c>
       <c r="B30" t="s">
-        <v>142</v>
+        <v>135</v>
       </c>
       <c r="C30" s="2">
         <v>1</v>
       </c>
       <c r="D30" s="2"/>
-      <c r="E30" s="2">
-        <v>4</v>
-      </c>
+      <c r="E30" s="2"/>
       <c r="F30" s="2"/>
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J30" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="13.95" customHeight="1">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" t="s">
-        <v>24</v>
+        <v>198</v>
       </c>
       <c r="B31" t="s">
-        <v>80</v>
+        <v>199</v>
       </c>
       <c r="C31" s="2">
         <v>1</v>
@@ -1787,21 +1796,20 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31">
-        <f t="shared" si="0"/>
         <v>5</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" ht="13.95" customHeight="1">
       <c r="A32" t="s">
-        <v>88</v>
+        <v>24</v>
       </c>
       <c r="B32" t="s">
-        <v>145</v>
-      </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2">
-        <v>2</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C32" s="2">
+        <v>1</v>
+      </c>
+      <c r="D32" s="2"/>
       <c r="E32" s="2">
         <v>4</v>
       </c>
@@ -1810,21 +1818,21 @@
       <c r="H32" s="2"/>
       <c r="I32">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="33" spans="1:9">
       <c r="A33" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="B33" t="s">
-        <v>81</v>
+        <v>138</v>
       </c>
       <c r="C33" s="2"/>
-      <c r="D33" s="1">
+      <c r="D33" s="2">
         <v>2</v>
       </c>
-      <c r="E33" s="1">
+      <c r="E33" s="2">
         <v>4</v>
       </c>
       <c r="F33" s="2"/>
@@ -1837,10 +1845,10 @@
     </row>
     <row r="34" spans="1:9">
       <c r="A34" t="s">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="B34" t="s">
-        <v>83</v>
+        <v>200</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="1">
@@ -1859,49 +1867,51 @@
     </row>
     <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>118</v>
+        <v>0</v>
       </c>
       <c r="B35" t="s">
-        <v>117</v>
+        <v>78</v>
       </c>
       <c r="C35" s="2"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-      <c r="F35" s="2">
-        <v>8</v>
-      </c>
+      <c r="D35" s="1">
+        <v>2</v>
+      </c>
+      <c r="E35" s="1">
+        <v>4</v>
+      </c>
+      <c r="F35" s="2"/>
       <c r="G35" s="2"/>
       <c r="H35" s="2"/>
       <c r="I35">
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="1:9">
       <c r="A36" t="s">
-        <v>9</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>110</v>
       </c>
       <c r="C36" s="2"/>
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="2">
         <v>8</v>
       </c>
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
       <c r="I36">
-        <f t="shared" ref="I36:I60" si="1">C36+D36+E36+F36+G36+H36</f>
         <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:9">
       <c r="A37" t="s">
-        <v>79</v>
+        <v>9</v>
       </c>
       <c r="B37" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -1912,16 +1922,16 @@
       <c r="G37" s="2"/>
       <c r="H37" s="2"/>
       <c r="I37">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="I37:I61" si="1">C37+D37+E37+F37+G37+H37</f>
         <v>8</v>
       </c>
     </row>
     <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>57</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" s="2"/>
@@ -1938,10 +1948,10 @@
     </row>
     <row r="39" spans="1:9">
       <c r="A39" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B39" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="2"/>
@@ -1958,10 +1968,10 @@
     </row>
     <row r="40" spans="1:9">
       <c r="A40" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="B40" t="s">
-        <v>60</v>
+        <v>201</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="2"/>
@@ -1978,10 +1988,10 @@
     </row>
     <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B41" t="s">
-        <v>184</v>
+        <v>58</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" s="2"/>
@@ -1998,14 +2008,12 @@
     </row>
     <row r="42" spans="1:9">
       <c r="A42" t="s">
-        <v>127</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>128</v>
-      </c>
-      <c r="C42" s="2">
-        <v>1</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C42" s="2"/>
       <c r="D42" s="2"/>
       <c r="E42" s="2"/>
       <c r="F42" s="2">
@@ -2015,15 +2023,15 @@
       <c r="H42" s="2"/>
       <c r="I42">
         <f t="shared" si="1"/>
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="43" spans="1:9">
       <c r="A43" t="s">
-        <v>75</v>
+        <v>120</v>
       </c>
       <c r="B43" t="s">
-        <v>76</v>
+        <v>121</v>
       </c>
       <c r="C43" s="2">
         <v>1</v>
@@ -2042,17 +2050,17 @@
     </row>
     <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>2</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>126</v>
-      </c>
-      <c r="C44" s="1">
+        <v>73</v>
+      </c>
+      <c r="C44" s="2">
         <v>1</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" s="2"/>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>8</v>
       </c>
       <c r="G44" s="2"/>
@@ -2064,15 +2072,15 @@
     </row>
     <row r="45" spans="1:9">
       <c r="A45" t="s">
-        <v>122</v>
+        <v>2</v>
       </c>
       <c r="B45" t="s">
-        <v>123</v>
-      </c>
-      <c r="C45" s="1"/>
-      <c r="D45" s="2">
-        <v>2</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="C45" s="1">
+        <v>1</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2"/>
       <c r="F45" s="1">
         <v>8</v>
@@ -2081,15 +2089,15 @@
       <c r="H45" s="2"/>
       <c r="I45">
         <f t="shared" si="1"/>
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="46" spans="1:9">
       <c r="A46" t="s">
-        <v>78</v>
+        <v>115</v>
       </c>
       <c r="B46" t="s">
-        <v>77</v>
+        <v>116</v>
       </c>
       <c r="C46" s="1"/>
       <c r="D46" s="2">
@@ -2108,10 +2116,10 @@
     </row>
     <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>168</v>
+        <v>75</v>
       </c>
       <c r="B47" t="s">
-        <v>167</v>
+        <v>74</v>
       </c>
       <c r="C47" s="1"/>
       <c r="D47" s="2">
@@ -2130,16 +2138,16 @@
     </row>
     <row r="48" spans="1:9">
       <c r="A48" t="s">
-        <v>125</v>
+        <v>160</v>
       </c>
       <c r="B48" t="s">
-        <v>124</v>
+        <v>159</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="2"/>
-      <c r="E48" s="2">
-        <v>4</v>
-      </c>
+      <c r="D48" s="2">
+        <v>2</v>
+      </c>
+      <c r="E48" s="2"/>
       <c r="F48" s="1">
         <v>8</v>
       </c>
@@ -2147,22 +2155,22 @@
       <c r="H48" s="2"/>
       <c r="I48">
         <f t="shared" si="1"/>
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="B49" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="2"/>
+        <v>117</v>
+      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="2"/>
       <c r="E49" s="2">
         <v>4</v>
       </c>
-      <c r="F49" s="2">
+      <c r="F49" s="1">
         <v>8</v>
       </c>
       <c r="G49" s="2"/>
@@ -2174,10 +2182,10 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" t="s">
-        <v>201</v>
+        <v>82</v>
       </c>
       <c r="B50" t="s">
-        <v>202</v>
+        <v>71</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" s="2"/>
@@ -2196,10 +2204,10 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>190</v>
       </c>
       <c r="B51" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" s="2"/>
@@ -2218,33 +2226,32 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" t="s">
-        <v>160</v>
+        <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" s="2"/>
-      <c r="E52" s="2"/>
-      <c r="F52" s="2"/>
-      <c r="G52" s="2">
-        <v>16</v>
-      </c>
+      <c r="E52" s="2">
+        <v>4</v>
+      </c>
+      <c r="F52" s="2">
+        <v>8</v>
+      </c>
+      <c r="G52" s="2"/>
       <c r="H52" s="2"/>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>16</v>
-      </c>
-      <c r="J52" t="s">
-        <v>188</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" t="s">
-        <v>133</v>
+        <v>152</v>
       </c>
       <c r="B53" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
@@ -2259,15 +2266,15 @@
         <v>16</v>
       </c>
       <c r="J53" t="s">
-        <v>151</v>
+        <v>179</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>126</v>
       </c>
       <c r="B54" t="s">
-        <v>182</v>
+        <v>171</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
@@ -2281,13 +2288,16 @@
         <f t="shared" si="1"/>
         <v>16</v>
       </c>
+      <c r="J54" t="s">
+        <v>144</v>
+      </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" t="s">
-        <v>46</v>
+        <v>87</v>
       </c>
       <c r="B55" t="s">
-        <v>181</v>
+        <v>173</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="2"/>
@@ -2304,10 +2314,10 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" t="s">
-        <v>14</v>
+        <v>45</v>
       </c>
       <c r="B56" t="s">
-        <v>183</v>
+        <v>172</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" s="2"/>
@@ -2324,10 +2334,10 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" t="s">
-        <v>65</v>
+        <v>14</v>
       </c>
       <c r="B57" t="s">
-        <v>64</v>
+        <v>174</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" s="2"/>
@@ -2344,10 +2354,10 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
       <c r="B58" t="s">
-        <v>185</v>
+        <v>62</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="2"/>
@@ -2364,14 +2374,12 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" t="s">
-        <v>131</v>
+        <v>69</v>
       </c>
       <c r="B59" t="s">
-        <v>132</v>
-      </c>
-      <c r="C59" s="2">
-        <v>1</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C59" s="2"/>
       <c r="D59" s="2"/>
       <c r="E59" s="2"/>
       <c r="F59" s="2"/>
@@ -2381,15 +2389,15 @@
       <c r="H59" s="2"/>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="60" spans="1:10">
       <c r="A60" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B60" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="C60" s="2">
         <v>1</v>
@@ -2408,10 +2416,10 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>113</v>
+        <v>184</v>
       </c>
       <c r="C61" s="2">
         <v>1</v>
@@ -2424,20 +2432,21 @@
       </c>
       <c r="H61" s="2"/>
       <c r="I61">
+        <f t="shared" si="1"/>
         <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:10">
       <c r="A62" t="s">
-        <v>199</v>
+        <v>107</v>
       </c>
       <c r="B62" t="s">
-        <v>203</v>
-      </c>
-      <c r="C62" s="2"/>
-      <c r="D62" s="2">
-        <v>2</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="C62" s="2">
+        <v>1</v>
+      </c>
+      <c r="D62" s="2"/>
       <c r="E62" s="2"/>
       <c r="F62" s="2"/>
       <c r="G62" s="2">
@@ -2450,10 +2459,10 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" t="s">
-        <v>134</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" s="2">
@@ -2466,19 +2475,15 @@
       </c>
       <c r="H63" s="2"/>
       <c r="I63">
-        <f t="shared" ref="I63:I94" si="2">C63+D63+E63+F63+G63+H63</f>
-        <v>18</v>
-      </c>
-      <c r="J63" t="s">
-        <v>198</v>
+        <v>17</v>
       </c>
     </row>
     <row r="64" spans="1:10">
       <c r="A64" t="s">
-        <v>10</v>
+        <v>127</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>186</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" s="2">
@@ -2491,16 +2496,19 @@
       </c>
       <c r="H64" s="2"/>
       <c r="I64">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="I64:I95" si="2">C64+D64+E64+F64+G64+H64</f>
         <v>18</v>
+      </c>
+      <c r="J64" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:10">
       <c r="A65" t="s">
-        <v>63</v>
+        <v>10</v>
       </c>
       <c r="B65" t="s">
-        <v>196</v>
+        <v>128</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" s="2">
@@ -2519,16 +2527,16 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" t="s">
-        <v>148</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="C66" s="2"/>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2">
-        <v>4</v>
-      </c>
+      <c r="D66" s="2">
+        <v>2</v>
+      </c>
+      <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2">
         <v>16</v>
@@ -2536,18 +2544,15 @@
       <c r="H66" s="2"/>
       <c r="I66">
         <f t="shared" si="2"/>
-        <v>20</v>
-      </c>
-      <c r="J66" t="s">
-        <v>150</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:10">
       <c r="A67" t="s">
-        <v>99</v>
+        <v>141</v>
       </c>
       <c r="B67" t="s">
-        <v>100</v>
+        <v>142</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" s="2"/>
@@ -2563,21 +2568,24 @@
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
+      <c r="J67" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="68" spans="1:10">
       <c r="A68" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B68" t="s">
-        <v>26</v>
-      </c>
-      <c r="C68" s="1"/>
+        <v>94</v>
+      </c>
+      <c r="C68" s="2"/>
       <c r="D68" s="2"/>
-      <c r="E68" s="1">
+      <c r="E68" s="2">
         <v>4</v>
       </c>
       <c r="F68" s="2"/>
-      <c r="G68" s="1">
+      <c r="G68" s="2">
         <v>16</v>
       </c>
       <c r="H68" s="2"/>
@@ -2588,61 +2596,61 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" t="s">
-        <v>109</v>
+        <v>92</v>
       </c>
       <c r="B69" t="s">
-        <v>97</v>
-      </c>
-      <c r="C69" s="2"/>
-      <c r="D69" s="2">
-        <v>2</v>
-      </c>
-      <c r="E69" s="2">
+        <v>26</v>
+      </c>
+      <c r="C69" s="1"/>
+      <c r="D69" s="2"/>
+      <c r="E69" s="1">
         <v>4</v>
       </c>
       <c r="F69" s="2"/>
-      <c r="G69" s="2">
+      <c r="G69" s="1">
         <v>16</v>
       </c>
       <c r="H69" s="2"/>
       <c r="I69">
         <f t="shared" si="2"/>
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" spans="1:10">
       <c r="A70" t="s">
-        <v>120</v>
+        <v>103</v>
       </c>
       <c r="B70" t="s">
-        <v>119</v>
-      </c>
-      <c r="C70" s="1"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="2">
-        <v>8</v>
-      </c>
-      <c r="G70" s="1">
+        <v>91</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2">
+        <v>2</v>
+      </c>
+      <c r="E70" s="2">
+        <v>4</v>
+      </c>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2">
         <v>16</v>
       </c>
       <c r="H70" s="2"/>
       <c r="I70">
         <f t="shared" si="2"/>
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:10">
       <c r="A71" t="s">
-        <v>4</v>
+        <v>113</v>
       </c>
       <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" s="2"/>
+        <v>112</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="2"/>
-      <c r="E71" s="2"/>
-      <c r="F71" s="1">
+      <c r="E71" s="1"/>
+      <c r="F71" s="2">
         <v>8</v>
       </c>
       <c r="G71" s="1">
@@ -2653,24 +2661,21 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="J71" t="s">
-        <v>121</v>
-      </c>
     </row>
     <row r="72" spans="1:10">
       <c r="A72" t="s">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="B72" t="s">
-        <v>50</v>
+        <v>28</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" s="2"/>
       <c r="E72" s="2"/>
-      <c r="F72" s="2">
+      <c r="F72" s="1">
         <v>8</v>
       </c>
-      <c r="G72" s="2">
+      <c r="G72" s="1">
         <v>16</v>
       </c>
       <c r="H72" s="2"/>
@@ -2678,19 +2683,20 @@
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
+      <c r="J72" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="73" spans="1:10">
       <c r="A73" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="B73" t="s">
-        <v>147</v>
+        <v>49</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" s="2"/>
-      <c r="E73" s="2">
-        <v>4</v>
-      </c>
+      <c r="E73" s="2"/>
       <c r="F73" s="2">
         <v>8</v>
       </c>
@@ -2700,38 +2706,39 @@
       <c r="H73" s="2"/>
       <c r="I73">
         <f t="shared" si="2"/>
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:10">
       <c r="A74" t="s">
-        <v>163</v>
+        <v>139</v>
       </c>
       <c r="B74" t="s">
-        <v>164</v>
+        <v>140</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2">
-        <v>32</v>
-      </c>
+      <c r="E74" s="2">
+        <v>4</v>
+      </c>
+      <c r="F74" s="2">
+        <v>8</v>
+      </c>
+      <c r="G74" s="2">
+        <v>16</v>
+      </c>
+      <c r="H74" s="2"/>
       <c r="I74">
         <f t="shared" si="2"/>
-        <v>32</v>
-      </c>
-      <c r="J74" t="s">
-        <v>165</v>
+        <v>28</v>
       </c>
     </row>
     <row r="75" spans="1:10">
       <c r="A75" t="s">
-        <v>16</v>
+        <v>155</v>
       </c>
       <c r="B75" t="s">
-        <v>33</v>
+        <v>156</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" s="2"/>
@@ -2745,13 +2752,16 @@
         <f t="shared" si="2"/>
         <v>32</v>
       </c>
+      <c r="J75" t="s">
+        <v>157</v>
+      </c>
     </row>
     <row r="76" spans="1:10">
       <c r="A76" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="B76" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -2768,10 +2778,10 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B77" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" s="2"/>
@@ -2788,10 +2798,10 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B78" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="2"/>
@@ -2808,10 +2818,10 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" t="s">
-        <v>102</v>
+        <v>18</v>
       </c>
       <c r="B79" t="s">
-        <v>101</v>
+        <v>47</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="2"/>
@@ -2828,14 +2838,12 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" t="s">
-        <v>70</v>
+        <v>96</v>
       </c>
       <c r="B80" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="2">
-        <v>1</v>
-      </c>
+        <v>95</v>
+      </c>
+      <c r="C80" s="2"/>
       <c r="D80" s="2"/>
       <c r="E80" s="2"/>
       <c r="F80" s="2"/>
@@ -2845,15 +2853,15 @@
       </c>
       <c r="I80">
         <f t="shared" si="2"/>
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="81" spans="1:10">
       <c r="A81" t="s">
-        <v>152</v>
+        <v>67</v>
       </c>
       <c r="B81" t="s">
-        <v>153</v>
+        <v>158</v>
       </c>
       <c r="C81" s="2">
         <v>1</v>
@@ -2872,10 +2880,10 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" t="s">
-        <v>17</v>
+        <v>145</v>
       </c>
       <c r="B82" t="s">
-        <v>47</v>
+        <v>146</v>
       </c>
       <c r="C82" s="2">
         <v>1</v>
@@ -2894,15 +2902,15 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B83" t="s">
-        <v>110</v>
-      </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2">
-        <v>2</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="C83" s="2">
+        <v>1</v>
+      </c>
+      <c r="D83" s="2"/>
       <c r="E83" s="2"/>
       <c r="F83" s="2"/>
       <c r="G83" s="2"/>
@@ -2911,15 +2919,15 @@
       </c>
       <c r="I83">
         <f t="shared" si="2"/>
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="84" spans="1:10">
       <c r="A84" t="s">
-        <v>112</v>
+        <v>66</v>
       </c>
       <c r="B84" t="s">
-        <v>111</v>
+        <v>206</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="2">
@@ -2938,10 +2946,10 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="B85" t="s">
-        <v>68</v>
+        <v>104</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" s="2">
@@ -2960,16 +2968,16 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" t="s">
-        <v>93</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>95</v>
+        <v>205</v>
       </c>
       <c r="C86" s="2"/>
-      <c r="D86" s="2"/>
-      <c r="E86" s="2">
-        <v>4</v>
-      </c>
+      <c r="D86" s="2">
+        <v>2</v>
+      </c>
+      <c r="E86" s="2"/>
       <c r="F86" s="2"/>
       <c r="G86" s="2"/>
       <c r="H86" s="2">
@@ -2977,15 +2985,15 @@
       </c>
       <c r="I86">
         <f t="shared" si="2"/>
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="87" spans="1:10">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
       <c r="B87" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C87" s="2"/>
       <c r="D87" s="2"/>
@@ -3004,10 +3012,10 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B88" t="s">
-        <v>158</v>
+        <v>204</v>
       </c>
       <c r="C88" s="2"/>
       <c r="D88" s="2"/>
@@ -3023,38 +3031,38 @@
         <f t="shared" si="2"/>
         <v>36</v>
       </c>
-      <c r="J88" t="s">
-        <v>159</v>
-      </c>
     </row>
     <row r="89" spans="1:10">
       <c r="A89" t="s">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="B89" t="s">
-        <v>27</v>
+        <v>203</v>
       </c>
       <c r="C89" s="2"/>
       <c r="D89" s="2"/>
-      <c r="E89" s="2"/>
-      <c r="F89" s="1">
-        <v>8</v>
-      </c>
+      <c r="E89" s="2">
+        <v>4</v>
+      </c>
+      <c r="F89" s="2"/>
       <c r="G89" s="2"/>
-      <c r="H89" s="1">
+      <c r="H89" s="2">
         <v>32</v>
       </c>
       <c r="I89">
         <f t="shared" si="2"/>
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="J89" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="90" spans="1:10">
       <c r="A90" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>202</v>
       </c>
       <c r="C90" s="2"/>
       <c r="D90" s="2"/>
@@ -3070,25 +3078,22 @@
         <f t="shared" si="2"/>
         <v>40</v>
       </c>
-      <c r="J90" t="s">
-        <v>155</v>
-      </c>
     </row>
     <row r="91" spans="1:10">
       <c r="A91" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B91" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
       <c r="C91" s="2"/>
       <c r="D91" s="2"/>
       <c r="E91" s="2"/>
-      <c r="F91" s="2">
+      <c r="F91" s="1">
         <v>8</v>
       </c>
       <c r="G91" s="2"/>
-      <c r="H91" s="2">
+      <c r="H91" s="1">
         <v>32</v>
       </c>
       <c r="I91">
@@ -3096,46 +3101,49 @@
         <v>40</v>
       </c>
       <c r="J91" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="92" spans="1:10">
       <c r="A92" t="s">
-        <v>161</v>
+        <v>6</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="C92" s="2"/>
       <c r="D92" s="2"/>
       <c r="E92" s="2"/>
-      <c r="F92" s="2"/>
-      <c r="G92" s="2">
-        <v>16</v>
-      </c>
+      <c r="F92" s="2">
+        <v>8</v>
+      </c>
+      <c r="G92" s="2"/>
       <c r="H92" s="2">
         <v>32</v>
       </c>
       <c r="I92">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>40</v>
+      </c>
+      <c r="J92" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="93" spans="1:10">
       <c r="A93" t="s">
-        <v>108</v>
+        <v>153</v>
       </c>
       <c r="B93" t="s">
-        <v>28</v>
+        <v>154</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
       <c r="F93" s="2"/>
-      <c r="G93" s="1">
-        <v>16</v>
-      </c>
-      <c r="H93" s="1">
+      <c r="G93" s="2">
+        <v>16</v>
+      </c>
+      <c r="H93" s="2">
         <v>32</v>
       </c>
       <c r="I93">
@@ -3145,19 +3153,19 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" t="s">
-        <v>19</v>
+        <v>102</v>
       </c>
       <c r="B94" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
       <c r="F94" s="2"/>
-      <c r="G94" s="2">
-        <v>16</v>
-      </c>
-      <c r="H94" s="2">
+      <c r="G94" s="1">
+        <v>16</v>
+      </c>
+      <c r="H94" s="1">
         <v>32</v>
       </c>
       <c r="I94">
@@ -3167,14 +3175,12 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" t="s">
-        <v>207</v>
+        <v>19</v>
       </c>
       <c r="B95" t="s">
-        <v>206</v>
-      </c>
-      <c r="C95" s="2">
-        <v>1</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C95" s="2"/>
       <c r="D95" s="2"/>
       <c r="E95" s="2"/>
       <c r="F95" s="2"/>
@@ -3185,34 +3191,58 @@
         <v>32</v>
       </c>
       <c r="I95">
-        <f t="shared" ref="I95" si="3">C95+D95+E95+F95+G95+H95</f>
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
+        <v>195</v>
+      </c>
+      <c r="C96" s="2">
+        <v>1</v>
+      </c>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2">
+        <v>16</v>
+      </c>
+      <c r="H96" s="2">
+        <v>32</v>
+      </c>
+      <c r="I96">
+        <f t="shared" ref="I96" si="3">C96+D96+E96+F96+G96+H96</f>
         <v>49</v>
       </c>
     </row>
-    <row r="96" spans="1:10">
-      <c r="C96" t="s">
+    <row r="97" spans="3:10">
+      <c r="C97" t="s">
+        <v>37</v>
+      </c>
+      <c r="D97" t="s">
         <v>38</v>
       </c>
-      <c r="D96" t="s">
+      <c r="E97" t="s">
         <v>39</v>
       </c>
-      <c r="E96" t="s">
+      <c r="F97" t="s">
         <v>40</v>
       </c>
-      <c r="F96" t="s">
+      <c r="G97" t="s">
         <v>41</v>
       </c>
-      <c r="G96" t="s">
+      <c r="H97" t="s">
         <v>42</v>
       </c>
-      <c r="H96" t="s">
-        <v>43</v>
-      </c>
-      <c r="I96" t="s">
-        <v>136</v>
-      </c>
-      <c r="J96" t="s">
-        <v>66</v>
+      <c r="I97" t="s">
+        <v>129</v>
+      </c>
+      <c r="J97" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>
